--- a/doc/TemperatureBalancing.xlsx
+++ b/doc/TemperatureBalancing.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Mod Ver 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,8 +157,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -193,14 +194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="90">
     <dxf>
       <font>
         <b/>
@@ -975,89 +976,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF6C0000"/>
@@ -1519,42 +1437,42 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f>$L$1+$L7+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" ref="B7:B18" si="0">$L$1+$L7+$J$5*$N$1+$G$5*$N$2</f>
         <v>8.25</v>
       </c>
       <c r="C7">
-        <f>$L$1+$L7+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" ref="C7:C18" si="1">$L$1+$L7+$J$5*$N$1+$G$5*$N$2+$N$4</f>
         <v>12.25</v>
       </c>
       <c r="D7" s="2">
-        <f>$L$1+$M7+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" ref="D7:D18" si="2">$L$1+$M7+0.5*($J$5*$N$1+$G$5*$N$2)</f>
         <v>9.9583333333333339</v>
       </c>
       <c r="E7">
-        <f>$L$1+$L7+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" ref="E7:E18" si="3">$L$1+$L7+$J$5*$N$1+$G$5*$N$2-$L$4</f>
         <v>5.25</v>
       </c>
       <c r="F7">
-        <f>$L$1+$L7-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" ref="F7:F18" si="4">$L$1+$L7-$J$5*$N$1+$G$5*$N$2</f>
         <v>-14.25</v>
       </c>
       <c r="G7">
-        <f>$L$1+$L7-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" ref="G7:G18" si="5">$L$1+$L7-$J$5*$N$1+$G$5*$N$2+$N$4</f>
         <v>-10.25</v>
       </c>
       <c r="H7" s="2">
-        <f>$L$1+$M7-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" ref="H7:H18" si="6">$L$1+$M7-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
         <v>-1.2916666666666661</v>
       </c>
       <c r="I7">
-        <f>$L$1+$L7-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" ref="I7:I18" si="7">$L$1+$L7-$J$5*$N$1+$G$5*$N$2-$L$4</f>
         <v>-17.25</v>
       </c>
       <c r="L7">
         <v>-5</v>
       </c>
       <c r="M7" s="3">
-        <f>+($L7*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" ref="M7:M18" si="8">+($L7*$N$3+$L$3*(1-$N$3))</f>
         <v>-2.6666666666666661</v>
       </c>
     </row>
@@ -1563,42 +1481,42 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f>$L$1+$L8+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
       <c r="C8">
-        <f>$L$1+$L8+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>17.25</v>
       </c>
       <c r="D8" s="2">
-        <f>$L$1+$M8+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>13.291666666666666</v>
       </c>
       <c r="E8">
-        <f>$L$1+$L8+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>10.25</v>
       </c>
       <c r="F8">
-        <f>$L$1+$L8-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-9.25</v>
       </c>
       <c r="G8">
-        <f>$L$1+$L8-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-5.25</v>
       </c>
       <c r="H8" s="2">
-        <f>$L$1+$M8-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>2.0416666666666661</v>
       </c>
       <c r="I8">
-        <f>$L$1+$L8-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-12.25</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>+($L8*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666674</v>
       </c>
     </row>
@@ -1607,42 +1525,42 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f>$L$1+$L9+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
       <c r="C9">
-        <f>$L$1+$L9+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
       <c r="D9" s="2">
-        <f>$L$1+$M9+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>14.625</v>
       </c>
       <c r="E9">
-        <f>$L$1+$L9+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>12.25</v>
       </c>
       <c r="F9">
-        <f>$L$1+$L9-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-7.25</v>
       </c>
       <c r="G9">
-        <f>$L$1+$L9-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-3.25</v>
       </c>
       <c r="H9" s="2">
-        <f>$L$1+$M9-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>3.375</v>
       </c>
       <c r="I9">
-        <f>$L$1+$L9-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-10.25</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" s="3">
-        <f>+($L9*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -1651,42 +1569,42 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>$L$1+$L10+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>17.25</v>
       </c>
       <c r="C10">
-        <f>$L$1+$L10+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>21.25</v>
       </c>
       <c r="D10" s="2">
-        <f>$L$1+$M10+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>15.958333333333332</v>
       </c>
       <c r="E10">
-        <f>$L$1+$L10+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>14.25</v>
       </c>
       <c r="F10">
-        <f>$L$1+$L10-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-5.25</v>
       </c>
       <c r="G10">
-        <f>$L$1+$L10-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-1.25</v>
       </c>
       <c r="H10" s="2">
-        <f>$L$1+$M10-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>4.7083333333333321</v>
       </c>
       <c r="I10">
-        <f>$L$1+$L10-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-8.25</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" s="3">
-        <f>+($L10*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>3.333333333333333</v>
       </c>
     </row>
@@ -1695,42 +1613,42 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>$L$1+$L11+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
       <c r="C11">
-        <f>$L$1+$L11+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>23.25</v>
       </c>
       <c r="D11" s="2">
-        <f>$L$1+$M11+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>17.291666666666668</v>
       </c>
       <c r="E11">
-        <f>$L$1+$L11+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>16.25</v>
       </c>
       <c r="F11">
-        <f>$L$1+$L11-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-3.25</v>
       </c>
       <c r="G11">
-        <f>$L$1+$L11-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="H11" s="2">
-        <f>$L$1+$M11-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>6.0416666666666679</v>
       </c>
       <c r="I11">
-        <f>$L$1+$L11-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-6.25</v>
       </c>
       <c r="L11">
         <v>6</v>
       </c>
       <c r="M11" s="3">
-        <f>+($L11*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>4.666666666666667</v>
       </c>
     </row>
@@ -1739,42 +1657,42 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>$L$1+$L12+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>17.25</v>
       </c>
       <c r="C12">
-        <f>$L$1+$L12+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>21.25</v>
       </c>
       <c r="D12" s="2">
-        <f>$L$1+$M12+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>15.958333333333332</v>
       </c>
       <c r="E12">
-        <f>$L$1+$L12+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>14.25</v>
       </c>
       <c r="F12">
-        <f>$L$1+$L12-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-5.25</v>
       </c>
       <c r="G12">
-        <f>$L$1+$L12-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-1.25</v>
       </c>
       <c r="H12" s="2">
-        <f>$L$1+$M12-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>4.7083333333333321</v>
       </c>
       <c r="I12">
-        <f>$L$1+$L12-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-8.25</v>
       </c>
       <c r="L12">
         <v>4</v>
       </c>
       <c r="M12" s="3">
-        <f>+($L12*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>3.333333333333333</v>
       </c>
     </row>
@@ -1783,42 +1701,42 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>$L$1+$L13+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>15.25</v>
       </c>
       <c r="C13">
-        <f>$L$1+$L13+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
       <c r="D13" s="2">
-        <f>$L$1+$M13+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>14.625</v>
       </c>
       <c r="E13">
-        <f>$L$1+$L13+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>12.25</v>
       </c>
       <c r="F13">
-        <f>$L$1+$L13-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-7.25</v>
       </c>
       <c r="G13">
-        <f>$L$1+$L13-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-3.25</v>
       </c>
       <c r="H13" s="2">
-        <f>$L$1+$M13-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>3.375</v>
       </c>
       <c r="I13">
-        <f>$L$1+$L13-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-10.25</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" s="3">
-        <f>+($L13*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -1827,42 +1745,42 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <f>$L$1+$L14+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>13.25</v>
       </c>
       <c r="C14">
-        <f>$L$1+$L14+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>17.25</v>
       </c>
       <c r="D14" s="2">
-        <f>$L$1+$M14+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>13.291666666666666</v>
       </c>
       <c r="E14">
-        <f>$L$1+$L14+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>10.25</v>
       </c>
       <c r="F14">
-        <f>$L$1+$L14-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-9.25</v>
       </c>
       <c r="G14">
-        <f>$L$1+$L14-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-5.25</v>
       </c>
       <c r="H14" s="2">
-        <f>$L$1+$M14-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>2.0416666666666661</v>
       </c>
       <c r="I14">
-        <f>$L$1+$L14-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-12.25</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <f>+($L14*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>0.66666666666666674</v>
       </c>
     </row>
@@ -1871,42 +1789,42 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <f>$L$1+$L15+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>10.25</v>
       </c>
       <c r="C15">
-        <f>$L$1+$L15+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>14.25</v>
       </c>
       <c r="D15" s="2">
-        <f>$L$1+$M15+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>11.291666666666666</v>
       </c>
       <c r="E15">
-        <f>$L$1+$L15+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
       <c r="F15">
-        <f>$L$1+$L15-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-12.25</v>
       </c>
       <c r="G15">
-        <f>$L$1+$L15-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-8.25</v>
       </c>
       <c r="H15" s="2">
-        <f>$L$1+$M15-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>4.1666666666666075E-2</v>
       </c>
       <c r="I15">
-        <f>$L$1+$L15-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-15.25</v>
       </c>
       <c r="L15">
         <v>-3</v>
       </c>
       <c r="M15" s="3">
-        <f>+($L15*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>-1.3333333333333333</v>
       </c>
     </row>
@@ -1915,42 +1833,42 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <f>$L$1+$L16+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="C16">
-        <f>$L$1+$L16+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>10.25</v>
       </c>
       <c r="D16" s="2">
-        <f>$L$1+$M16+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>8.625</v>
       </c>
       <c r="E16">
-        <f>$L$1+$L16+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
       <c r="F16">
-        <f>$L$1+$L16-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-16.25</v>
       </c>
       <c r="G16">
-        <f>$L$1+$L16-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-12.25</v>
       </c>
       <c r="H16" s="2">
-        <f>$L$1+$M16-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>-2.625</v>
       </c>
       <c r="I16">
-        <f>$L$1+$L16-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-19.25</v>
       </c>
       <c r="L16">
         <v>-7</v>
       </c>
       <c r="M16" s="3">
-        <f>+($L16*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>-3.9999999999999991</v>
       </c>
     </row>
@@ -1959,42 +1877,42 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <f>$L$1+$L17+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
       <c r="C17">
-        <f>$L$1+$L17+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="D17" s="2">
-        <f>$L$1+$M17+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>3.2916666666666661</v>
       </c>
       <c r="E17">
-        <f>$L$1+$L17+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>-4.75</v>
       </c>
       <c r="F17">
-        <f>$L$1+$L17-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-24.25</v>
       </c>
       <c r="G17">
-        <f>$L$1+$L17-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-20.25</v>
       </c>
       <c r="H17" s="2">
-        <f>$L$1+$M17-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>-7.9583333333333339</v>
       </c>
       <c r="I17">
-        <f>$L$1+$L17-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-27.25</v>
       </c>
       <c r="L17">
         <v>-15</v>
       </c>
       <c r="M17" s="3">
-        <f>+($L17*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>-9.3333333333333339</v>
       </c>
     </row>
@@ -2003,42 +1921,42 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <f>$L$1+$L18+$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
       <c r="C18">
-        <f>$L$1+$L18+$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
       <c r="D18" s="2">
-        <f>$L$1+$M18+0.5*($J$5*$N$1+$G$5*$N$2)</f>
+        <f t="shared" si="2"/>
         <v>6.6250000000000009</v>
       </c>
       <c r="E18">
-        <f>$L$1+$L18+$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="F18">
-        <f>$L$1+$L18-$J$5*$N$1+$G$5*$N$2</f>
+        <f t="shared" si="4"/>
         <v>-19.25</v>
       </c>
       <c r="G18">
-        <f>$L$1+$L18-$J$5*$N$1+$G$5*$N$2+$N$4</f>
+        <f t="shared" si="5"/>
         <v>-15.25</v>
       </c>
       <c r="H18" s="2">
-        <f>$L$1+$M18-$J$5*$N$1*0.5+$G$5*$N$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>-4.6249999999999991</v>
       </c>
       <c r="I18">
-        <f>$L$1+$L18-$J$5*$N$1+$G$5*$N$2-$L$4</f>
+        <f t="shared" si="7"/>
         <v>-22.25</v>
       </c>
       <c r="L18">
         <v>-10</v>
       </c>
       <c r="M18" s="3">
-        <f>+($L18*$N$3+$L$3*(1-$N$3))</f>
+        <f t="shared" si="8"/>
         <v>-5.9999999999999991</v>
       </c>
     </row>
@@ -2109,35 +2027,35 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <f>$L$1+$L7+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" ref="B22:B33" si="9">$L$1+$L7+$J$20*$N$1+$G$20*$N$2</f>
         <v>7.7833333333333341</v>
       </c>
       <c r="C22" s="2">
-        <f>$L$1+$L7+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" ref="C22:C33" si="10">$L$1+$L7+$J$20*$N$1+$G$20*$N$2+$N$4</f>
         <v>11.783333333333335</v>
       </c>
       <c r="D22" s="2">
-        <f>$L$1+$M7+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" ref="D22:D33" si="11">$L$1+$M7+0.5*($J$20*$N$1+$G$20*$N$2)</f>
         <v>9.7250000000000014</v>
       </c>
       <c r="E22" s="2">
-        <f>$L$1+$L7+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" ref="E22:E33" si="12">$L$1+$L7+$J$20*$N$1+$G$20*$N$2-$L$4</f>
         <v>4.7833333333333341</v>
       </c>
       <c r="F22" s="2">
-        <f>$L$1+$L7-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" ref="F22:F33" si="13">$L$1+$L7-$J$20*$N$1+$G$20*$N$2</f>
         <v>-6.3833333333333337</v>
       </c>
       <c r="G22" s="2">
-        <f>$L$1+$L7-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" ref="G22:G33" si="14">$L$1+$L7-$J$20*$N$1+$G$20*$N$2+$N$4</f>
         <v>-2.3833333333333337</v>
       </c>
       <c r="H22" s="2">
-        <f>$L$1+$M7-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" ref="H22:H33" si="15">$L$1+$M7-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
         <v>2.6416666666666671</v>
       </c>
       <c r="I22" s="2">
-        <f>$L$1+$L7-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" ref="I22:I33" si="16">$L$1+$L7-$J$20*$N$1+$G$20*$N$2-$L$4</f>
         <v>-9.3833333333333329</v>
       </c>
     </row>
@@ -2146,35 +2064,35 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <f>$L$1+$L8+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>12.783333333333335</v>
       </c>
       <c r="C23" s="2">
-        <f>$L$1+$L8+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>16.783333333333335</v>
       </c>
       <c r="D23" s="2">
-        <f>$L$1+$M8+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>13.058333333333334</v>
       </c>
       <c r="E23" s="2">
-        <f>$L$1+$L8+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>9.783333333333335</v>
       </c>
       <c r="F23" s="2">
-        <f>$L$1+$L8-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>-1.3833333333333337</v>
       </c>
       <c r="G23" s="2">
-        <f>$L$1+$L8-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>2.6166666666666663</v>
       </c>
       <c r="H23" s="2">
-        <f>$L$1+$M8-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>5.9749999999999996</v>
       </c>
       <c r="I23" s="2">
-        <f>$L$1+$L8-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-4.3833333333333337</v>
       </c>
     </row>
@@ -2183,35 +2101,35 @@
         <v>3</v>
       </c>
       <c r="B24" s="2">
-        <f>$L$1+$L9+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>14.783333333333335</v>
       </c>
       <c r="C24" s="2">
-        <f>$L$1+$L9+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>18.783333333333335</v>
       </c>
       <c r="D24" s="2">
-        <f>$L$1+$M9+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>14.391666666666667</v>
       </c>
       <c r="E24" s="2">
-        <f>$L$1+$L9+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>11.783333333333335</v>
       </c>
       <c r="F24" s="2">
-        <f>$L$1+$L9-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>0.61666666666666625</v>
       </c>
       <c r="G24" s="2">
-        <f>$L$1+$L9-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>4.6166666666666663</v>
       </c>
       <c r="H24" s="2">
-        <f>$L$1+$M9-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>7.3083333333333318</v>
       </c>
       <c r="I24" s="2">
-        <f>$L$1+$L9-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-2.3833333333333337</v>
       </c>
     </row>
@@ -2220,35 +2138,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <f>$L$1+$L10+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>16.783333333333335</v>
       </c>
       <c r="C25" s="2">
-        <f>$L$1+$L10+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>20.783333333333335</v>
       </c>
       <c r="D25" s="2">
-        <f>$L$1+$M10+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>15.725</v>
       </c>
       <c r="E25" s="2">
-        <f>$L$1+$L10+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>13.783333333333335</v>
       </c>
       <c r="F25" s="2">
-        <f>$L$1+$L10-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>2.6166666666666663</v>
       </c>
       <c r="G25" s="2">
-        <f>$L$1+$L10-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>6.6166666666666663</v>
       </c>
       <c r="H25" s="2">
-        <f>$L$1+$M10-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>8.6416666666666639</v>
       </c>
       <c r="I25" s="2">
-        <f>$L$1+$L10-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-0.38333333333333375</v>
       </c>
     </row>
@@ -2257,35 +2175,35 @@
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <f>$L$1+$L11+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>18.783333333333335</v>
       </c>
       <c r="C26" s="2">
-        <f>$L$1+$L11+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>22.783333333333335</v>
       </c>
       <c r="D26" s="2">
-        <f>$L$1+$M11+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>17.058333333333334</v>
       </c>
       <c r="E26" s="2">
-        <f>$L$1+$L11+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>15.783333333333335</v>
       </c>
       <c r="F26" s="2">
-        <f>$L$1+$L11-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>4.6166666666666663</v>
       </c>
       <c r="G26" s="2">
-        <f>$L$1+$L11-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>8.6166666666666671</v>
       </c>
       <c r="H26" s="2">
-        <f>$L$1+$M11-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>9.9749999999999996</v>
       </c>
       <c r="I26" s="2">
-        <f>$L$1+$L11-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>1.6166666666666663</v>
       </c>
     </row>
@@ -2294,35 +2212,35 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <f>$L$1+$L12+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>16.783333333333335</v>
       </c>
       <c r="C27" s="2">
-        <f>$L$1+$L12+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>20.783333333333335</v>
       </c>
       <c r="D27" s="2">
-        <f>$L$1+$M12+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>15.725</v>
       </c>
       <c r="E27" s="2">
-        <f>$L$1+$L12+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>13.783333333333335</v>
       </c>
       <c r="F27" s="2">
-        <f>$L$1+$L12-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>2.6166666666666663</v>
       </c>
       <c r="G27" s="2">
-        <f>$L$1+$L12-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>6.6166666666666663</v>
       </c>
       <c r="H27" s="2">
-        <f>$L$1+$M12-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>8.6416666666666639</v>
       </c>
       <c r="I27" s="2">
-        <f>$L$1+$L12-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-0.38333333333333375</v>
       </c>
     </row>
@@ -2331,35 +2249,35 @@
         <v>7</v>
       </c>
       <c r="B28" s="2">
-        <f>$L$1+$L13+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>14.783333333333335</v>
       </c>
       <c r="C28" s="2">
-        <f>$L$1+$L13+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>18.783333333333335</v>
       </c>
       <c r="D28" s="2">
-        <f>$L$1+$M13+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>14.391666666666667</v>
       </c>
       <c r="E28" s="2">
-        <f>$L$1+$L13+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>11.783333333333335</v>
       </c>
       <c r="F28" s="2">
-        <f>$L$1+$L13-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>0.61666666666666625</v>
       </c>
       <c r="G28" s="2">
-        <f>$L$1+$L13-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>4.6166666666666663</v>
       </c>
       <c r="H28" s="2">
-        <f>$L$1+$M13-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>7.3083333333333318</v>
       </c>
       <c r="I28" s="2">
-        <f>$L$1+$L13-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-2.3833333333333337</v>
       </c>
     </row>
@@ -2368,35 +2286,35 @@
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <f>$L$1+$L14+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>12.783333333333335</v>
       </c>
       <c r="C29" s="2">
-        <f>$L$1+$L14+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>16.783333333333335</v>
       </c>
       <c r="D29" s="2">
-        <f>$L$1+$M14+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>13.058333333333334</v>
       </c>
       <c r="E29" s="2">
-        <f>$L$1+$L14+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>9.783333333333335</v>
       </c>
       <c r="F29" s="2">
-        <f>$L$1+$L14-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>-1.3833333333333337</v>
       </c>
       <c r="G29" s="2">
-        <f>$L$1+$L14-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>2.6166666666666663</v>
       </c>
       <c r="H29" s="2">
-        <f>$L$1+$M14-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>5.9749999999999996</v>
       </c>
       <c r="I29" s="2">
-        <f>$L$1+$L14-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-4.3833333333333337</v>
       </c>
     </row>
@@ -2405,35 +2323,35 @@
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <f>$L$1+$L15+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>9.783333333333335</v>
       </c>
       <c r="C30" s="2">
-        <f>$L$1+$L15+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>13.783333333333335</v>
       </c>
       <c r="D30" s="2">
-        <f>$L$1+$M15+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>11.058333333333334</v>
       </c>
       <c r="E30" s="2">
-        <f>$L$1+$L15+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>6.783333333333335</v>
       </c>
       <c r="F30" s="2">
-        <f>$L$1+$L15-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>-4.3833333333333337</v>
       </c>
       <c r="G30" s="2">
-        <f>$L$1+$L15-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>-0.38333333333333375</v>
       </c>
       <c r="H30" s="2">
-        <f>$L$1+$M15-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>3.9749999999999992</v>
       </c>
       <c r="I30" s="2">
-        <f>$L$1+$L15-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-7.3833333333333337</v>
       </c>
     </row>
@@ -2442,35 +2360,35 @@
         <v>10</v>
       </c>
       <c r="B31" s="2">
-        <f>$L$1+$L16+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>5.7833333333333341</v>
       </c>
       <c r="C31" s="2">
-        <f>$L$1+$L16+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>9.783333333333335</v>
       </c>
       <c r="D31" s="2">
-        <f>$L$1+$M16+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>8.3916666666666675</v>
       </c>
       <c r="E31" s="2">
-        <f>$L$1+$L16+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>2.7833333333333341</v>
       </c>
       <c r="F31" s="2">
-        <f>$L$1+$L16-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>-8.3833333333333329</v>
       </c>
       <c r="G31" s="2">
-        <f>$L$1+$L16-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>-4.3833333333333329</v>
       </c>
       <c r="H31" s="2">
-        <f>$L$1+$M16-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>1.3083333333333331</v>
       </c>
       <c r="I31" s="2">
-        <f>$L$1+$L16-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-11.383333333333333</v>
       </c>
     </row>
@@ -2479,35 +2397,35 @@
         <v>11</v>
       </c>
       <c r="B32" s="2">
-        <f>$L$1+$L17+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>-2.2166666666666659</v>
       </c>
       <c r="C32" s="2">
-        <f>$L$1+$L17+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>1.7833333333333341</v>
       </c>
       <c r="D32" s="2">
-        <f>$L$1+$M17+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>3.0583333333333331</v>
       </c>
       <c r="E32" s="2">
-        <f>$L$1+$L17+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>-5.2166666666666659</v>
       </c>
       <c r="F32" s="2">
-        <f>$L$1+$L17-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>-16.383333333333333</v>
       </c>
       <c r="G32" s="2">
-        <f>$L$1+$L17-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>-12.383333333333333</v>
       </c>
       <c r="H32" s="2">
-        <f>$L$1+$M17-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>-4.0250000000000004</v>
       </c>
       <c r="I32" s="2">
-        <f>$L$1+$L17-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-19.383333333333333</v>
       </c>
     </row>
@@ -2516,35 +2434,35 @@
         <v>12</v>
       </c>
       <c r="B33" s="2">
-        <f>$L$1+$L18+$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="9"/>
         <v>2.7833333333333341</v>
       </c>
       <c r="C33" s="2">
-        <f>$L$1+$L18+$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="10"/>
         <v>6.7833333333333341</v>
       </c>
       <c r="D33" s="2">
-        <f>$L$1+$M18+0.5*($J$20*$N$1+$G$20*$N$2)</f>
+        <f t="shared" si="11"/>
         <v>6.3916666666666675</v>
       </c>
       <c r="E33" s="2">
-        <f>$L$1+$L18+$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="12"/>
         <v>-0.2166666666666659</v>
       </c>
       <c r="F33" s="2">
-        <f>$L$1+$L18-$J$20*$N$1+$G$20*$N$2</f>
+        <f t="shared" si="13"/>
         <v>-11.383333333333333</v>
       </c>
       <c r="G33" s="2">
-        <f>$L$1+$L18-$J$20*$N$1+$G$20*$N$2+$N$4</f>
+        <f t="shared" si="14"/>
         <v>-7.3833333333333329</v>
       </c>
       <c r="H33" s="2">
-        <f>$L$1+$M18-$J$20*$N$1*0.5+$G$20*$N$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>-0.69166666666666599</v>
       </c>
       <c r="I33" s="2">
-        <f>$L$1+$L18-$J$20*$N$1+$G$20*$N$2-$L$4</f>
+        <f t="shared" si="16"/>
         <v>-14.383333333333333</v>
       </c>
     </row>
@@ -2581,7 +2499,7 @@
         <v>4.6296296296296224E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -2615,35 +2533,35 @@
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <f>$L$1+$L7+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" ref="B37:B48" si="17">$L$1+$L7+$J$35*$N$1+$G$35*$N$2</f>
         <v>7.7866666666666662</v>
       </c>
       <c r="C37" s="4">
-        <f>$L$1+$L7+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" ref="C37:C48" si="18">$L$1+$L7+$J$35*$N$1+$G$35*$N$2+$N$4</f>
         <v>11.786666666666665</v>
       </c>
       <c r="D37" s="4">
-        <f>$L$1+$M7+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" ref="D37:D48" si="19">$L$1+$M7+0.5*($J$35*$N$1+$G$35*$N$2)</f>
         <v>9.7266666666666666</v>
       </c>
       <c r="E37" s="4">
-        <f>$L$1+$L7+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" ref="E37:E48" si="20">$L$1+$L7+$J$35*$N$1+$G$35*$N$2-$L$4</f>
         <v>4.7866666666666662</v>
       </c>
       <c r="F37" s="4">
-        <f>$L$1+$L7-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" ref="F37:F48" si="21">$L$1+$L7-$J$35*$N$1+$G$35*$N$2</f>
         <v>6.953333333333334</v>
       </c>
       <c r="G37" s="4">
-        <f>$L$1+$L7-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" ref="G37:G48" si="22">$L$1+$L7-$J$35*$N$1+$G$35*$N$2+$N$4</f>
         <v>10.953333333333333</v>
       </c>
       <c r="H37" s="4">
-        <f>$L$1+$M7-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" ref="H37:H48" si="23">$L$1+$M7-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
         <v>9.3100000000000023</v>
       </c>
       <c r="I37" s="4">
-        <f>$L$1+$L7-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" ref="I37:I48" si="24">$L$1+$L7-$J$35*$N$1+$G$35*$N$2-$L$4</f>
         <v>3.953333333333334</v>
       </c>
     </row>
@@ -2652,35 +2570,35 @@
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f>$L$1+$L8+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>12.786666666666665</v>
       </c>
       <c r="C38" s="4">
-        <f>$L$1+$L8+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>16.786666666666665</v>
       </c>
       <c r="D38" s="4">
-        <f>$L$1+$M8+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>13.059999999999999</v>
       </c>
       <c r="E38" s="4">
-        <f>$L$1+$L8+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>9.7866666666666653</v>
       </c>
       <c r="F38" s="4">
-        <f>$L$1+$L8-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>11.953333333333333</v>
       </c>
       <c r="G38" s="4">
-        <f>$L$1+$L8-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>15.953333333333333</v>
       </c>
       <c r="H38" s="4">
-        <f>$L$1+$M8-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>12.643333333333334</v>
       </c>
       <c r="I38" s="4">
-        <f>$L$1+$L8-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>8.9533333333333331</v>
       </c>
     </row>
@@ -2689,35 +2607,35 @@
         <v>3</v>
       </c>
       <c r="B39" s="4">
-        <f>$L$1+$L9+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>14.786666666666665</v>
       </c>
       <c r="C39" s="4">
-        <f>$L$1+$L9+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>18.786666666666665</v>
       </c>
       <c r="D39" s="4">
-        <f>$L$1+$M9+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>14.393333333333333</v>
       </c>
       <c r="E39" s="4">
-        <f>$L$1+$L9+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>11.786666666666665</v>
       </c>
       <c r="F39" s="4">
-        <f>$L$1+$L9-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>13.953333333333333</v>
       </c>
       <c r="G39" s="4">
-        <f>$L$1+$L9-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>17.953333333333333</v>
       </c>
       <c r="H39" s="4">
-        <f>$L$1+$M9-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>13.976666666666668</v>
       </c>
       <c r="I39" s="4">
-        <f>$L$1+$L9-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>10.953333333333333</v>
       </c>
     </row>
@@ -2726,35 +2644,35 @@
         <v>4</v>
       </c>
       <c r="B40" s="4">
-        <f>$L$1+$L10+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>16.786666666666665</v>
       </c>
       <c r="C40" s="4">
-        <f>$L$1+$L10+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>20.786666666666665</v>
       </c>
       <c r="D40" s="4">
-        <f>$L$1+$M10+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>15.726666666666665</v>
       </c>
       <c r="E40" s="4">
-        <f>$L$1+$L10+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>13.786666666666665</v>
       </c>
       <c r="F40" s="4">
-        <f>$L$1+$L10-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>15.953333333333333</v>
       </c>
       <c r="G40" s="4">
-        <f>$L$1+$L10-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>19.953333333333333</v>
       </c>
       <c r="H40" s="4">
-        <f>$L$1+$M10-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>15.31</v>
       </c>
       <c r="I40" s="4">
-        <f>$L$1+$L10-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>12.953333333333333</v>
       </c>
     </row>
@@ -2763,35 +2681,35 @@
         <v>5</v>
       </c>
       <c r="B41" s="4">
-        <f>$L$1+$L11+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>18.786666666666665</v>
       </c>
       <c r="C41" s="4">
-        <f>$L$1+$L11+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>22.786666666666665</v>
       </c>
       <c r="D41" s="4">
-        <f>$L$1+$M11+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>17.060000000000002</v>
       </c>
       <c r="E41" s="4">
-        <f>$L$1+$L11+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>15.786666666666665</v>
       </c>
       <c r="F41" s="4">
-        <f>$L$1+$L11-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>17.953333333333337</v>
       </c>
       <c r="G41" s="4">
-        <f>$L$1+$L11-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>21.953333333333337</v>
       </c>
       <c r="H41" s="4">
-        <f>$L$1+$M11-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>16.643333333333334</v>
       </c>
       <c r="I41" s="4">
-        <f>$L$1+$L11-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>14.953333333333337</v>
       </c>
     </row>
@@ -2800,35 +2718,35 @@
         <v>6</v>
       </c>
       <c r="B42" s="4">
-        <f>$L$1+$L12+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>16.786666666666665</v>
       </c>
       <c r="C42" s="4">
-        <f>$L$1+$L12+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>20.786666666666665</v>
       </c>
       <c r="D42" s="4">
-        <f>$L$1+$M12+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>15.726666666666665</v>
       </c>
       <c r="E42" s="4">
-        <f>$L$1+$L12+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>13.786666666666665</v>
       </c>
       <c r="F42" s="4">
-        <f>$L$1+$L12-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>15.953333333333333</v>
       </c>
       <c r="G42" s="4">
-        <f>$L$1+$L12-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>19.953333333333333</v>
       </c>
       <c r="H42" s="4">
-        <f>$L$1+$M12-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>15.31</v>
       </c>
       <c r="I42" s="4">
-        <f>$L$1+$L12-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>12.953333333333333</v>
       </c>
     </row>
@@ -2837,35 +2755,35 @@
         <v>7</v>
       </c>
       <c r="B43" s="4">
-        <f>$L$1+$L13+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>14.786666666666665</v>
       </c>
       <c r="C43" s="4">
-        <f>$L$1+$L13+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>18.786666666666665</v>
       </c>
       <c r="D43" s="4">
-        <f>$L$1+$M13+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>14.393333333333333</v>
       </c>
       <c r="E43" s="4">
-        <f>$L$1+$L13+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>11.786666666666665</v>
       </c>
       <c r="F43" s="4">
-        <f>$L$1+$L13-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>13.953333333333333</v>
       </c>
       <c r="G43" s="4">
-        <f>$L$1+$L13-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>17.953333333333333</v>
       </c>
       <c r="H43" s="4">
-        <f>$L$1+$M13-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>13.976666666666668</v>
       </c>
       <c r="I43" s="4">
-        <f>$L$1+$L13-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>10.953333333333333</v>
       </c>
     </row>
@@ -2874,35 +2792,35 @@
         <v>8</v>
       </c>
       <c r="B44" s="4">
-        <f>$L$1+$L14+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>12.786666666666665</v>
       </c>
       <c r="C44" s="4">
-        <f>$L$1+$L14+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>16.786666666666665</v>
       </c>
       <c r="D44" s="4">
-        <f>$L$1+$M14+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>13.059999999999999</v>
       </c>
       <c r="E44" s="4">
-        <f>$L$1+$L14+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>9.7866666666666653</v>
       </c>
       <c r="F44" s="4">
-        <f>$L$1+$L14-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>11.953333333333333</v>
       </c>
       <c r="G44" s="4">
-        <f>$L$1+$L14-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>15.953333333333333</v>
       </c>
       <c r="H44" s="4">
-        <f>$L$1+$M14-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>12.643333333333334</v>
       </c>
       <c r="I44" s="4">
-        <f>$L$1+$L14-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>8.9533333333333331</v>
       </c>
     </row>
@@ -2911,35 +2829,35 @@
         <v>9</v>
       </c>
       <c r="B45" s="4">
-        <f>$L$1+$L15+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>9.7866666666666653</v>
       </c>
       <c r="C45" s="4">
-        <f>$L$1+$L15+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>13.786666666666665</v>
       </c>
       <c r="D45" s="4">
-        <f>$L$1+$M15+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>11.059999999999999</v>
       </c>
       <c r="E45" s="4">
-        <f>$L$1+$L15+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>6.7866666666666653</v>
       </c>
       <c r="F45" s="4">
-        <f>$L$1+$L15-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>8.9533333333333331</v>
       </c>
       <c r="G45" s="4">
-        <f>$L$1+$L15-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>12.953333333333333</v>
       </c>
       <c r="H45" s="4">
-        <f>$L$1+$M15-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>10.643333333333334</v>
       </c>
       <c r="I45" s="4">
-        <f>$L$1+$L15-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>5.9533333333333331</v>
       </c>
     </row>
@@ -2948,35 +2866,35 @@
         <v>10</v>
       </c>
       <c r="B46" s="4">
-        <f>$L$1+$L16+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>5.7866666666666662</v>
       </c>
       <c r="C46" s="4">
-        <f>$L$1+$L16+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>9.7866666666666653</v>
       </c>
       <c r="D46" s="4">
-        <f>$L$1+$M16+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>8.3933333333333326</v>
       </c>
       <c r="E46" s="4">
-        <f>$L$1+$L16+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>2.7866666666666662</v>
       </c>
       <c r="F46" s="4">
-        <f>$L$1+$L16-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>4.953333333333334</v>
       </c>
       <c r="G46" s="4">
-        <f>$L$1+$L16-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>8.9533333333333331</v>
       </c>
       <c r="H46" s="4">
-        <f>$L$1+$M16-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>7.9766666666666666</v>
       </c>
       <c r="I46" s="4">
-        <f>$L$1+$L16-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>1.953333333333334</v>
       </c>
     </row>
@@ -2985,35 +2903,35 @@
         <v>11</v>
       </c>
       <c r="B47" s="4">
-        <f>$L$1+$L17+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>-2.2133333333333338</v>
       </c>
       <c r="C47" s="4">
-        <f>$L$1+$L17+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>1.7866666666666662</v>
       </c>
       <c r="D47" s="4">
-        <f>$L$1+$M17+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>3.0599999999999992</v>
       </c>
       <c r="E47" s="4">
-        <f>$L$1+$L17+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>-5.2133333333333338</v>
       </c>
       <c r="F47" s="4">
-        <f>$L$1+$L17-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>-3.046666666666666</v>
       </c>
       <c r="G47" s="4">
-        <f>$L$1+$L17-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>0.95333333333333403</v>
       </c>
       <c r="H47" s="4">
-        <f>$L$1+$M17-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>2.6433333333333331</v>
       </c>
       <c r="I47" s="4">
-        <f>$L$1+$L17-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>-6.046666666666666</v>
       </c>
     </row>
@@ -3022,35 +2940,35 @@
         <v>12</v>
       </c>
       <c r="B48" s="4">
-        <f>$L$1+$L18+$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="17"/>
         <v>2.7866666666666662</v>
       </c>
       <c r="C48" s="4">
-        <f>$L$1+$L18+$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="18"/>
         <v>6.7866666666666662</v>
       </c>
       <c r="D48" s="4">
-        <f>$L$1+$M18+0.5*($J$35*$N$1+$G$35*$N$2)</f>
+        <f t="shared" si="19"/>
         <v>6.3933333333333335</v>
       </c>
       <c r="E48" s="4">
-        <f>$L$1+$L18+$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="20"/>
         <v>-0.21333333333333382</v>
       </c>
       <c r="F48" s="4">
-        <f>$L$1+$L18-$J$35*$N$1+$G$35*$N$2</f>
+        <f t="shared" si="21"/>
         <v>1.953333333333334</v>
       </c>
       <c r="G48" s="4">
-        <f>$L$1+$L18-$J$35*$N$1+$G$35*$N$2+$N$4</f>
+        <f t="shared" si="22"/>
         <v>5.953333333333334</v>
       </c>
       <c r="H48" s="4">
-        <f>$L$1+$M18-$J$35*$N$1*0.5+$G$35*$N$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>5.9766666666666675</v>
       </c>
       <c r="I48" s="4">
-        <f>$L$1+$L18-$J$35*$N$1+$G$35*$N$2-$L$4</f>
+        <f t="shared" si="24"/>
         <v>-1.046666666666666</v>
       </c>
     </row>
@@ -3087,7 +3005,7 @@
         <v>0.2314814814814814</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -3121,35 +3039,35 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <f>$L$1+$L7+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" ref="B52:B63" si="25">$L$1+$L7+$J$50*$N$1+$G$50*$N$2</f>
         <v>10.933333333333332</v>
       </c>
       <c r="C52" s="4">
-        <f>$L$1+$L7+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" ref="C52:C63" si="26">$L$1+$L7+$J$50*$N$1+$G$50*$N$2+$N$4</f>
         <v>14.933333333333332</v>
       </c>
       <c r="D52" s="4">
-        <f>$L$1+$M7+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" ref="D52:D63" si="27">$L$1+$M7+0.5*($J$50*$N$1+$G$50*$N$2)</f>
         <v>11.3</v>
       </c>
       <c r="E52" s="4">
-        <f>$L$1+$L7+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" ref="E52:E63" si="28">$L$1+$L7+$J$50*$N$1+$G$50*$N$2-$L$4</f>
         <v>7.9333333333333318</v>
       </c>
       <c r="F52" s="4">
-        <f>$L$1+$L7-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" ref="F52:F63" si="29">$L$1+$L7-$J$50*$N$1+$G$50*$N$2</f>
         <v>6.7666666666666675</v>
       </c>
       <c r="G52" s="4">
-        <f>$L$1+$L7-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" ref="G52:G63" si="30">$L$1+$L7-$J$50*$N$1+$G$50*$N$2+$N$4</f>
         <v>10.766666666666667</v>
       </c>
       <c r="H52" s="4">
-        <f>$L$1+$M7-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" ref="H52:H63" si="31">$L$1+$M7-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
         <v>9.2166666666666686</v>
       </c>
       <c r="I52" s="4">
-        <f>$L$1+$L7-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" ref="I52:I63" si="32">$L$1+$L7-$J$50*$N$1+$G$50*$N$2-$L$4</f>
         <v>3.7666666666666675</v>
       </c>
     </row>
@@ -3158,35 +3076,35 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <f>$L$1+$L8+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>15.933333333333332</v>
       </c>
       <c r="C53" s="4">
-        <f>$L$1+$L8+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>19.93333333333333</v>
       </c>
       <c r="D53" s="4">
-        <f>$L$1+$M8+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>14.633333333333333</v>
       </c>
       <c r="E53" s="4">
-        <f>$L$1+$L8+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>12.933333333333332</v>
       </c>
       <c r="F53" s="4">
-        <f>$L$1+$L8-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>11.766666666666667</v>
       </c>
       <c r="G53" s="4">
-        <f>$L$1+$L8-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>15.766666666666667</v>
       </c>
       <c r="H53" s="4">
-        <f>$L$1+$M8-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>12.55</v>
       </c>
       <c r="I53" s="4">
-        <f>$L$1+$L8-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>8.7666666666666675</v>
       </c>
     </row>
@@ -3195,35 +3113,35 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <f>$L$1+$L9+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>17.933333333333334</v>
       </c>
       <c r="C54" s="4">
-        <f>$L$1+$L9+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>21.933333333333334</v>
       </c>
       <c r="D54" s="4">
-        <f>$L$1+$M9+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>15.966666666666667</v>
       </c>
       <c r="E54" s="4">
-        <f>$L$1+$L9+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>14.933333333333334</v>
       </c>
       <c r="F54" s="4">
-        <f>$L$1+$L9-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>13.766666666666667</v>
       </c>
       <c r="G54" s="4">
-        <f>$L$1+$L9-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>17.766666666666666</v>
       </c>
       <c r="H54" s="4">
-        <f>$L$1+$M9-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>13.883333333333335</v>
       </c>
       <c r="I54" s="4">
-        <f>$L$1+$L9-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>10.766666666666667</v>
       </c>
     </row>
@@ -3232,35 +3150,35 @@
         <v>4</v>
       </c>
       <c r="B55" s="4">
-        <f>$L$1+$L10+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>19.933333333333334</v>
       </c>
       <c r="C55" s="4">
-        <f>$L$1+$L10+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>23.933333333333334</v>
       </c>
       <c r="D55" s="4">
-        <f>$L$1+$M10+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>17.299999999999997</v>
       </c>
       <c r="E55" s="4">
-        <f>$L$1+$L10+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>16.933333333333334</v>
       </c>
       <c r="F55" s="4">
-        <f>$L$1+$L10-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>15.766666666666667</v>
       </c>
       <c r="G55" s="4">
-        <f>$L$1+$L10-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>19.766666666666666</v>
       </c>
       <c r="H55" s="4">
-        <f>$L$1+$M10-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>15.216666666666667</v>
       </c>
       <c r="I55" s="4">
-        <f>$L$1+$L10-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>12.766666666666667</v>
       </c>
     </row>
@@ -3269,35 +3187,35 @@
         <v>5</v>
       </c>
       <c r="B56" s="4">
-        <f>$L$1+$L11+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>21.933333333333334</v>
       </c>
       <c r="C56" s="4">
-        <f>$L$1+$L11+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>25.933333333333334</v>
       </c>
       <c r="D56" s="4">
-        <f>$L$1+$M11+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>18.633333333333333</v>
       </c>
       <c r="E56" s="4">
-        <f>$L$1+$L11+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>18.933333333333334</v>
       </c>
       <c r="F56" s="4">
-        <f>$L$1+$L11-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>17.766666666666669</v>
       </c>
       <c r="G56" s="4">
-        <f>$L$1+$L11-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>21.766666666666669</v>
       </c>
       <c r="H56" s="4">
-        <f>$L$1+$M11-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>16.55</v>
       </c>
       <c r="I56" s="4">
-        <f>$L$1+$L11-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>14.766666666666669</v>
       </c>
     </row>
@@ -3306,35 +3224,35 @@
         <v>6</v>
       </c>
       <c r="B57" s="4">
-        <f>$L$1+$L12+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>19.933333333333334</v>
       </c>
       <c r="C57" s="4">
-        <f>$L$1+$L12+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>23.933333333333334</v>
       </c>
       <c r="D57" s="4">
-        <f>$L$1+$M12+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>17.299999999999997</v>
       </c>
       <c r="E57" s="4">
-        <f>$L$1+$L12+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>16.933333333333334</v>
       </c>
       <c r="F57" s="4">
-        <f>$L$1+$L12-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>15.766666666666667</v>
       </c>
       <c r="G57" s="4">
-        <f>$L$1+$L12-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>19.766666666666666</v>
       </c>
       <c r="H57" s="4">
-        <f>$L$1+$M12-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>15.216666666666667</v>
       </c>
       <c r="I57" s="4">
-        <f>$L$1+$L12-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>12.766666666666667</v>
       </c>
     </row>
@@ -3343,35 +3261,35 @@
         <v>7</v>
       </c>
       <c r="B58" s="4">
-        <f>$L$1+$L13+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>17.933333333333334</v>
       </c>
       <c r="C58" s="4">
-        <f>$L$1+$L13+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>21.933333333333334</v>
       </c>
       <c r="D58" s="4">
-        <f>$L$1+$M13+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>15.966666666666667</v>
       </c>
       <c r="E58" s="4">
-        <f>$L$1+$L13+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>14.933333333333334</v>
       </c>
       <c r="F58" s="4">
-        <f>$L$1+$L13-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>13.766666666666667</v>
       </c>
       <c r="G58" s="4">
-        <f>$L$1+$L13-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>17.766666666666666</v>
       </c>
       <c r="H58" s="4">
-        <f>$L$1+$M13-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>13.883333333333335</v>
       </c>
       <c r="I58" s="4">
-        <f>$L$1+$L13-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>10.766666666666667</v>
       </c>
     </row>
@@ -3380,35 +3298,35 @@
         <v>8</v>
       </c>
       <c r="B59" s="4">
-        <f>$L$1+$L14+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>15.933333333333332</v>
       </c>
       <c r="C59" s="4">
-        <f>$L$1+$L14+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>19.93333333333333</v>
       </c>
       <c r="D59" s="4">
-        <f>$L$1+$M14+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>14.633333333333333</v>
       </c>
       <c r="E59" s="4">
-        <f>$L$1+$L14+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>12.933333333333332</v>
       </c>
       <c r="F59" s="4">
-        <f>$L$1+$L14-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>11.766666666666667</v>
       </c>
       <c r="G59" s="4">
-        <f>$L$1+$L14-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>15.766666666666667</v>
       </c>
       <c r="H59" s="4">
-        <f>$L$1+$M14-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>12.55</v>
       </c>
       <c r="I59" s="4">
-        <f>$L$1+$L14-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>8.7666666666666675</v>
       </c>
     </row>
@@ -3417,35 +3335,35 @@
         <v>9</v>
       </c>
       <c r="B60" s="4">
-        <f>$L$1+$L15+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>12.933333333333332</v>
       </c>
       <c r="C60" s="4">
-        <f>$L$1+$L15+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>16.93333333333333</v>
       </c>
       <c r="D60" s="4">
-        <f>$L$1+$M15+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>12.633333333333333</v>
       </c>
       <c r="E60" s="4">
-        <f>$L$1+$L15+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>9.9333333333333318</v>
       </c>
       <c r="F60" s="4">
-        <f>$L$1+$L15-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>8.7666666666666675</v>
       </c>
       <c r="G60" s="4">
-        <f>$L$1+$L15-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>12.766666666666667</v>
       </c>
       <c r="H60" s="4">
-        <f>$L$1+$M15-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>10.55</v>
       </c>
       <c r="I60" s="4">
-        <f>$L$1+$L15-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>5.7666666666666675</v>
       </c>
     </row>
@@ -3454,35 +3372,35 @@
         <v>10</v>
       </c>
       <c r="B61" s="4">
-        <f>$L$1+$L16+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>8.9333333333333318</v>
       </c>
       <c r="C61" s="4">
-        <f>$L$1+$L16+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>12.933333333333332</v>
       </c>
       <c r="D61" s="4">
-        <f>$L$1+$M16+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>9.9666666666666668</v>
       </c>
       <c r="E61" s="4">
-        <f>$L$1+$L16+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>5.9333333333333318</v>
       </c>
       <c r="F61" s="4">
-        <f>$L$1+$L16-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>4.7666666666666675</v>
       </c>
       <c r="G61" s="4">
-        <f>$L$1+$L16-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>8.7666666666666675</v>
       </c>
       <c r="H61" s="4">
-        <f>$L$1+$M16-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>7.8833333333333337</v>
       </c>
       <c r="I61" s="4">
-        <f>$L$1+$L16-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>1.7666666666666675</v>
       </c>
     </row>
@@ -3491,35 +3409,35 @@
         <v>11</v>
       </c>
       <c r="B62" s="4">
-        <f>$L$1+$L17+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>0.93333333333333268</v>
       </c>
       <c r="C62" s="4">
-        <f>$L$1+$L17+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>4.9333333333333327</v>
       </c>
       <c r="D62" s="4">
-        <f>$L$1+$M17+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>4.6333333333333329</v>
       </c>
       <c r="E62" s="4">
-        <f>$L$1+$L17+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>-2.0666666666666673</v>
       </c>
       <c r="F62" s="4">
-        <f>$L$1+$L17-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>-3.2333333333333321</v>
       </c>
       <c r="G62" s="4">
-        <f>$L$1+$L17-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>0.76666666666666794</v>
       </c>
       <c r="H62" s="4">
-        <f>$L$1+$M17-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="I62" s="4">
-        <f>$L$1+$L17-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>-6.2333333333333325</v>
       </c>
     </row>
@@ -3528,35 +3446,35 @@
         <v>12</v>
       </c>
       <c r="B63" s="4">
-        <f>$L$1+$L18+$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="25"/>
         <v>5.9333333333333318</v>
       </c>
       <c r="C63" s="4">
-        <f>$L$1+$L18+$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="26"/>
         <v>9.9333333333333318</v>
       </c>
       <c r="D63" s="4">
-        <f>$L$1+$M18+0.5*($J$50*$N$1+$G$50*$N$2)</f>
+        <f t="shared" si="27"/>
         <v>7.9666666666666668</v>
       </c>
       <c r="E63" s="4">
-        <f>$L$1+$L18+$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="28"/>
         <v>2.9333333333333318</v>
       </c>
       <c r="F63" s="4">
-        <f>$L$1+$L18-$J$50*$N$1+$G$50*$N$2</f>
+        <f t="shared" si="29"/>
         <v>1.7666666666666675</v>
       </c>
       <c r="G63" s="4">
-        <f>$L$1+$L18-$J$50*$N$1+$G$50*$N$2+$N$4</f>
+        <f t="shared" si="30"/>
         <v>5.7666666666666675</v>
       </c>
       <c r="H63" s="4">
-        <f>$L$1+$M18-$J$50*$N$1*0.5+$G$50*$N$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>5.8833333333333346</v>
       </c>
       <c r="I63" s="4">
-        <f>$L$1+$L18-$J$50*$N$1+$G$50*$N$2-$L$4</f>
+        <f t="shared" si="32"/>
         <v>-1.2333333333333325</v>
       </c>
     </row>
@@ -3593,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3627,35 +3545,35 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <f>$L$1+$L7+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" ref="B67:B78" si="33">$L$1+$L7+$J$65*$N$1+$G$65*$N$2</f>
         <v>26</v>
       </c>
       <c r="C67">
-        <f>$L$1+$L7+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" ref="C67:C78" si="34">$L$1+$L7+$J$65*$N$1+$G$65*$N$2+$N$4</f>
         <v>30</v>
       </c>
       <c r="D67" s="2">
-        <f>$L$1+$M7+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" ref="D67:D78" si="35">$L$1+$M7+0.5*($J$65*$N$1+$G$65*$N$2)</f>
         <v>18.833333333333336</v>
       </c>
       <c r="E67">
-        <f>$L$1+$L7+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" ref="E67:E78" si="36">$L$1+$L7+$J$65*$N$1+$G$65*$N$2-$L$4</f>
         <v>23</v>
       </c>
       <c r="F67">
-        <f>$L$1+$L7-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" ref="F67:F78" si="37">$L$1+$L7-$J$65*$N$1+$G$65*$N$2</f>
         <v>8</v>
       </c>
       <c r="G67">
-        <f>$L$1+$L7-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" ref="G67:G78" si="38">$L$1+$L7-$J$65*$N$1+$G$65*$N$2+$N$4</f>
         <v>12</v>
       </c>
       <c r="H67" s="2">
-        <f>$L$1+$M7-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" ref="H67:H78" si="39">$L$1+$M7-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
         <v>9.8333333333333339</v>
       </c>
       <c r="I67">
-        <f>$L$1+$L7-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" ref="I67:I78" si="40">$L$1+$L7-$J$65*$N$1+$G$65*$N$2-$L$4</f>
         <v>5</v>
       </c>
     </row>
@@ -3664,35 +3582,35 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <f>$L$1+$L8+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>31</v>
       </c>
       <c r="C68">
-        <f>$L$1+$L8+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="D68" s="2">
-        <f>$L$1+$M8+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>22.166666666666664</v>
       </c>
       <c r="E68">
-        <f>$L$1+$L8+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>28</v>
       </c>
       <c r="F68">
-        <f>$L$1+$L8-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>13</v>
       </c>
       <c r="G68">
-        <f>$L$1+$L8-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="H68" s="2">
-        <f>$L$1+$M8-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>13.166666666666666</v>
       </c>
       <c r="I68">
-        <f>$L$1+$L8-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
     </row>
@@ -3701,35 +3619,35 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <f>$L$1+$L9+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>33</v>
       </c>
       <c r="C69">
-        <f>$L$1+$L9+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>37</v>
       </c>
       <c r="D69" s="2">
-        <f>$L$1+$M9+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>23.5</v>
       </c>
       <c r="E69">
-        <f>$L$1+$L9+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>30</v>
       </c>
       <c r="F69">
-        <f>$L$1+$L9-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="G69">
-        <f>$L$1+$L9-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
       <c r="H69" s="2">
-        <f>$L$1+$M9-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>14.5</v>
       </c>
       <c r="I69">
-        <f>$L$1+$L9-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
@@ -3738,35 +3656,35 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <f>$L$1+$L10+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="C70">
-        <f>$L$1+$L10+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>39</v>
       </c>
       <c r="D70" s="2">
-        <f>$L$1+$M10+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>24.833333333333332</v>
       </c>
       <c r="E70">
-        <f>$L$1+$L10+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
       <c r="F70">
-        <f>$L$1+$L10-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="G70">
-        <f>$L$1+$L10-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
       <c r="H70" s="2">
-        <f>$L$1+$M10-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>15.833333333333332</v>
       </c>
       <c r="I70">
-        <f>$L$1+$L10-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
     </row>
@@ -3775,35 +3693,35 @@
         <v>5</v>
       </c>
       <c r="B71">
-        <f>$L$1+$L11+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>37</v>
       </c>
       <c r="C71">
-        <f>$L$1+$L11+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>41</v>
       </c>
       <c r="D71" s="2">
-        <f>$L$1+$M11+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>26.166666666666668</v>
       </c>
       <c r="E71">
-        <f>$L$1+$L11+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>34</v>
       </c>
       <c r="F71">
-        <f>$L$1+$L11-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
       <c r="G71">
-        <f>$L$1+$L11-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>23</v>
       </c>
       <c r="H71" s="2">
-        <f>$L$1+$M11-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>17.166666666666668</v>
       </c>
       <c r="I71">
-        <f>$L$1+$L11-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
     </row>
@@ -3812,35 +3730,35 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <f>$L$1+$L12+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="C72">
-        <f>$L$1+$L12+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>39</v>
       </c>
       <c r="D72" s="2">
-        <f>$L$1+$M12+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>24.833333333333332</v>
       </c>
       <c r="E72">
-        <f>$L$1+$L12+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>32</v>
       </c>
       <c r="F72">
-        <f>$L$1+$L12-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="G72">
-        <f>$L$1+$L12-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>21</v>
       </c>
       <c r="H72" s="2">
-        <f>$L$1+$M12-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>15.833333333333332</v>
       </c>
       <c r="I72">
-        <f>$L$1+$L12-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
     </row>
@@ -3849,35 +3767,35 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <f>$L$1+$L13+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>33</v>
       </c>
       <c r="C73">
-        <f>$L$1+$L13+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>37</v>
       </c>
       <c r="D73" s="2">
-        <f>$L$1+$M13+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>23.5</v>
       </c>
       <c r="E73">
-        <f>$L$1+$L13+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>30</v>
       </c>
       <c r="F73">
-        <f>$L$1+$L13-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="G73">
-        <f>$L$1+$L13-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
       <c r="H73" s="2">
-        <f>$L$1+$M13-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>14.5</v>
       </c>
       <c r="I73">
-        <f>$L$1+$L13-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
@@ -3886,35 +3804,35 @@
         <v>8</v>
       </c>
       <c r="B74">
-        <f>$L$1+$L14+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>31</v>
       </c>
       <c r="C74">
-        <f>$L$1+$L14+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>35</v>
       </c>
       <c r="D74" s="2">
-        <f>$L$1+$M14+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>22.166666666666664</v>
       </c>
       <c r="E74">
-        <f>$L$1+$L14+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>28</v>
       </c>
       <c r="F74">
-        <f>$L$1+$L14-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>13</v>
       </c>
       <c r="G74">
-        <f>$L$1+$L14-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="H74" s="2">
-        <f>$L$1+$M14-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>13.166666666666666</v>
       </c>
       <c r="I74">
-        <f>$L$1+$L14-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
     </row>
@@ -3923,35 +3841,35 @@
         <v>9</v>
       </c>
       <c r="B75">
-        <f>$L$1+$L15+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="C75">
-        <f>$L$1+$L15+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
       <c r="D75" s="2">
-        <f>$L$1+$M15+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>20.166666666666664</v>
       </c>
       <c r="E75">
-        <f>$L$1+$L15+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="F75">
-        <f>$L$1+$L15-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="G75">
-        <f>$L$1+$L15-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="H75" s="2">
-        <f>$L$1+$M15-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>11.166666666666666</v>
       </c>
       <c r="I75">
-        <f>$L$1+$L15-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
     </row>
@@ -3960,35 +3878,35 @@
         <v>10</v>
       </c>
       <c r="B76">
-        <f>$L$1+$L16+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="C76">
-        <f>$L$1+$L16+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>28</v>
       </c>
       <c r="D76" s="2">
-        <f>$L$1+$M16+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
       <c r="E76">
-        <f>$L$1+$L16+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
       <c r="F76">
-        <f>$L$1+$L16-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="G76">
-        <f>$L$1+$L16-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="H76" s="2">
-        <f>$L$1+$M16-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>8.5</v>
       </c>
       <c r="I76">
-        <f>$L$1+$L16-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
     </row>
@@ -3997,35 +3915,35 @@
         <v>11</v>
       </c>
       <c r="B77">
-        <f>$L$1+$L17+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="C77">
-        <f>$L$1+$L17+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="D77" s="2">
-        <f>$L$1+$M17+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>12.166666666666666</v>
       </c>
       <c r="E77">
-        <f>$L$1+$L17+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="F77">
-        <f>$L$1+$L17-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>-2</v>
       </c>
       <c r="G77">
-        <f>$L$1+$L17-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="H77" s="2">
-        <f>$L$1+$M17-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>3.1666666666666661</v>
       </c>
       <c r="I77">
-        <f>$L$1+$L17-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>-5</v>
       </c>
     </row>
@@ -4034,58 +3952,58 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <f>$L$1+$L18+$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="C78">
-        <f>$L$1+$L18+$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="D78" s="2">
-        <f>$L$1+$M18+0.5*($J$65*$N$1+$G$65*$N$2)</f>
+        <f t="shared" si="35"/>
         <v>15.5</v>
       </c>
       <c r="E78">
-        <f>$L$1+$L18+$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="36"/>
         <v>18</v>
       </c>
       <c r="F78">
-        <f>$L$1+$L18-$J$65*$N$1+$G$65*$N$2</f>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="G78">
-        <f>$L$1+$L18-$J$65*$N$1+$G$65*$N$2+$N$4</f>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="H78" s="2">
-        <f>$L$1+$M18-$J$65*$N$1*0.5+$G$65*$N$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>6.5000000000000009</v>
       </c>
       <c r="I78">
-        <f>$L$1+$L18-$J$65*$N$1+$G$65*$N$2-$L$4</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:I18">
-    <cfRule type="cellIs" dxfId="98" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="25" operator="greaterThan">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="31" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="40" operator="between">
       <formula>15</formula>
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="41" operator="between">
       <formula>6</formula>
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="42" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="43" operator="greaterThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4339,42 +4257,42 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f>$K$1+$L7+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" ref="B7:B18" si="0">$K$1+$L7+$J$5*$M$1+$G$5*$M$2</f>
         <v>3.75</v>
       </c>
       <c r="C7">
-        <f>$K$1+$L7+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" ref="C7:C18" si="1">$K$1+$L7+$J$5*$M$1+$G$5*$M$2+$M$4</f>
         <v>9.75</v>
       </c>
       <c r="D7" s="2">
-        <f>$K$1+$M7+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" ref="D7:D18" si="2">$K$1+$M7+0.5*($J$5*$M$1+$G$5*$M$2)</f>
         <v>8.375</v>
       </c>
       <c r="E7">
-        <f>$K$1+$L7+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" ref="E7:E18" si="3">$K$1+$L7+$J$5*$M$1+$G$5*$M$2-$K$4</f>
         <v>0.75</v>
       </c>
       <c r="F7">
-        <f>$K$1+$L7-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" ref="F7:F18" si="4">$K$1+$L7-$J$5*$M$1+$G$5*$M$2</f>
         <v>-3.75</v>
       </c>
       <c r="G7">
-        <f>$K$1+$L7-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" ref="G7:G18" si="5">$K$1+$L7-$J$5*$M$1+$G$5*$M$2+$M$4</f>
         <v>2.25</v>
       </c>
       <c r="H7" s="2">
-        <f>$K$1+$M7-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" ref="H7:H18" si="6">$K$1+$M7-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
         <v>4.625</v>
       </c>
       <c r="I7">
-        <f>$K$1+$L7-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" ref="I7:I18" si="7">$K$1+$L7-$J$5*$M$1+$G$5*$M$2-$K$4</f>
         <v>-6.75</v>
       </c>
       <c r="L7">
         <v>-5</v>
       </c>
       <c r="M7" s="3">
-        <f>+($L7*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" ref="M7:M18" si="8">+($L7*$M$3+$K$3*(1-$M$3))</f>
         <v>-2</v>
       </c>
     </row>
@@ -4383,42 +4301,42 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f>$K$1+$L8+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="C8">
-        <f>$K$1+$L8+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>14.75</v>
       </c>
       <c r="D8" s="2">
-        <f>$K$1+$M8+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>10.875</v>
       </c>
       <c r="E8">
-        <f>$K$1+$L8+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
       <c r="F8">
-        <f>$K$1+$L8-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="G8">
-        <f>$K$1+$L8-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
       <c r="H8" s="2">
-        <f>$K$1+$M8-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>7.125</v>
       </c>
       <c r="I8">
-        <f>$K$1+$L8-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>-1.75</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>+($L8*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4427,42 +4345,42 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f>$K$1+$L9+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>10.75</v>
       </c>
       <c r="C9">
-        <f>$K$1+$L9+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>16.75</v>
       </c>
       <c r="D9" s="2">
-        <f>$K$1+$M9+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>11.875</v>
       </c>
       <c r="E9">
-        <f>$K$1+$L9+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="F9">
-        <f>$K$1+$L9-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
       <c r="G9">
-        <f>$K$1+$L9-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
       <c r="H9" s="2">
-        <f>$K$1+$M9-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>8.125</v>
       </c>
       <c r="I9">
-        <f>$K$1+$L9-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" s="3">
-        <f>+($L9*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -4471,42 +4389,42 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>$K$1+$L10+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
       <c r="C10">
-        <f>$K$1+$L10+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="D10" s="2">
-        <f>$K$1+$M10+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>12.875</v>
       </c>
       <c r="E10">
-        <f>$K$1+$L10+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>9.75</v>
       </c>
       <c r="F10">
-        <f>$K$1+$L10-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
       <c r="G10">
-        <f>$K$1+$L10-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>11.25</v>
       </c>
       <c r="H10" s="2">
-        <f>$K$1+$M10-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>9.125</v>
       </c>
       <c r="I10">
-        <f>$K$1+$L10-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" s="3">
-        <f>+($L10*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4515,42 +4433,42 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>$K$1+$L11+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>14.75</v>
       </c>
       <c r="C11">
-        <f>$K$1+$L11+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>20.75</v>
       </c>
       <c r="D11" s="2">
-        <f>$K$1+$M11+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>13.875</v>
       </c>
       <c r="E11">
-        <f>$K$1+$L11+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>11.75</v>
       </c>
       <c r="F11">
-        <f>$K$1+$L11-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
       <c r="G11">
-        <f>$K$1+$L11-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>13.25</v>
       </c>
       <c r="H11" s="2">
-        <f>$K$1+$M11-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>10.125</v>
       </c>
       <c r="I11">
-        <f>$K$1+$L11-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>4.25</v>
       </c>
       <c r="L11">
         <v>6</v>
       </c>
       <c r="M11" s="3">
-        <f>+($L11*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
     </row>
@@ -4559,42 +4477,42 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>$K$1+$L12+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
       <c r="C12">
-        <f>$K$1+$L12+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
       <c r="D12" s="2">
-        <f>$K$1+$M12+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>12.875</v>
       </c>
       <c r="E12">
-        <f>$K$1+$L12+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>9.75</v>
       </c>
       <c r="F12">
-        <f>$K$1+$L12-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
       <c r="G12">
-        <f>$K$1+$L12-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>11.25</v>
       </c>
       <c r="H12" s="2">
-        <f>$K$1+$M12-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>9.125</v>
       </c>
       <c r="I12">
-        <f>$K$1+$L12-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="L12">
         <v>4</v>
       </c>
       <c r="M12" s="3">
-        <f>+($L12*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4603,42 +4521,42 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>$K$1+$L13+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>10.75</v>
       </c>
       <c r="C13">
-        <f>$K$1+$L13+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>16.75</v>
       </c>
       <c r="D13" s="2">
-        <f>$K$1+$M13+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>11.875</v>
       </c>
       <c r="E13">
-        <f>$K$1+$L13+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
       <c r="F13">
-        <f>$K$1+$L13-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
       <c r="G13">
-        <f>$K$1+$L13-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
       <c r="H13" s="2">
-        <f>$K$1+$M13-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>8.125</v>
       </c>
       <c r="I13">
-        <f>$K$1+$L13-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" s="3">
-        <f>+($L13*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -4647,42 +4565,42 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <f>$K$1+$L14+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="C14">
-        <f>$K$1+$L14+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>14.75</v>
       </c>
       <c r="D14" s="2">
-        <f>$K$1+$M14+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>10.875</v>
       </c>
       <c r="E14">
-        <f>$K$1+$L14+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>5.75</v>
       </c>
       <c r="F14">
-        <f>$K$1+$L14-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="G14">
-        <f>$K$1+$L14-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
       <c r="H14" s="2">
-        <f>$K$1+$M14-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>7.125</v>
       </c>
       <c r="I14">
-        <f>$K$1+$L14-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>-1.75</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <f>+($L14*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4691,42 +4609,42 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <f>$K$1+$L15+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
       <c r="C15">
-        <f>$K$1+$L15+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
       <c r="D15" s="2">
-        <f>$K$1+$M15+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>9.375</v>
       </c>
       <c r="E15">
-        <f>$K$1+$L15+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
       <c r="F15">
-        <f>$K$1+$L15-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>-1.75</v>
       </c>
       <c r="G15">
-        <f>$K$1+$L15-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
       <c r="H15" s="2">
-        <f>$K$1+$M15-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>5.625</v>
       </c>
       <c r="I15">
-        <f>$K$1+$L15-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>-4.75</v>
       </c>
       <c r="L15">
         <v>-3</v>
       </c>
       <c r="M15" s="3">
-        <f>+($L15*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
     </row>
@@ -4735,42 +4653,42 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <f>$K$1+$L16+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="C16">
-        <f>$K$1+$L16+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>7.75</v>
       </c>
       <c r="D16" s="2">
-        <f>$K$1+$M16+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>7.375</v>
       </c>
       <c r="E16">
-        <f>$K$1+$L16+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>-1.25</v>
       </c>
       <c r="F16">
-        <f>$K$1+$L16-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>-5.75</v>
       </c>
       <c r="G16">
-        <f>$K$1+$L16-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="H16" s="2">
-        <f>$K$1+$M16-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>3.625</v>
       </c>
       <c r="I16">
-        <f>$K$1+$L16-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>-8.75</v>
       </c>
       <c r="L16">
         <v>-7</v>
       </c>
       <c r="M16" s="3">
-        <f>+($L16*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
     </row>
@@ -4779,42 +4697,42 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <f>$K$1+$L17+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>-6.25</v>
       </c>
       <c r="C17">
-        <f>$K$1+$L17+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
       <c r="D17" s="2">
-        <f>$K$1+$M17+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>3.375</v>
       </c>
       <c r="E17">
-        <f>$K$1+$L17+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>-9.25</v>
       </c>
       <c r="F17">
-        <f>$K$1+$L17-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>-13.75</v>
       </c>
       <c r="G17">
-        <f>$K$1+$L17-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>-7.75</v>
       </c>
       <c r="H17" s="2">
-        <f>$K$1+$M17-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>-0.375</v>
       </c>
       <c r="I17">
-        <f>$K$1+$L17-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>-16.75</v>
       </c>
       <c r="L17">
         <v>-15</v>
       </c>
       <c r="M17" s="3">
-        <f>+($L17*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
     </row>
@@ -4823,42 +4741,42 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <f>$K$1+$L18+$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="0"/>
         <v>-1.25</v>
       </c>
       <c r="C18">
-        <f>$K$1+$L18+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
       <c r="D18" s="2">
-        <f>$K$1+$M18+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <f t="shared" si="2"/>
         <v>5.875</v>
       </c>
       <c r="E18">
-        <f>$K$1+$L18+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="3"/>
         <v>-4.25</v>
       </c>
       <c r="F18">
-        <f>$K$1+$L18-$J$5*$M$1+$G$5*$M$2</f>
+        <f t="shared" si="4"/>
         <v>-8.75</v>
       </c>
       <c r="G18">
-        <f>$K$1+$L18-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <f t="shared" si="5"/>
         <v>-2.75</v>
       </c>
       <c r="H18" s="2">
-        <f>$K$1+$M18-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <f t="shared" si="6"/>
         <v>2.125</v>
       </c>
       <c r="I18">
-        <f>$K$1+$L18-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <f t="shared" si="7"/>
         <v>-11.75</v>
       </c>
       <c r="L18">
         <v>-10</v>
       </c>
       <c r="M18" s="3">
-        <f>+($L18*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -4929,35 +4847,35 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <f>$K$1+$L7+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" ref="B22:B33" si="9">$K$1+$L7+$J$20*$M$1+$G$20*$M$2</f>
         <v>4.9511111111111106</v>
       </c>
       <c r="C22" s="2">
-        <f>$K$1+$L7+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" ref="C22:C33" si="10">$K$1+$L7+$J$20*$M$1+$G$20*$M$2+$M$4</f>
         <v>10.951111111111111</v>
       </c>
       <c r="D22" s="2">
-        <f>$K$1+$M7+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" ref="D22:D33" si="11">$K$1+$M7+0.5*($J$20*$M$1+$G$20*$M$2)</f>
         <v>8.9755555555555553</v>
       </c>
       <c r="E22" s="2">
-        <f>$K$1+$L7+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" ref="E22:E33" si="12">$K$1+$L7+$J$20*$M$1+$G$20*$M$2-$K$4</f>
         <v>1.9511111111111106</v>
       </c>
       <c r="F22" s="2">
-        <f>$K$1+$L7-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" ref="F22:F33" si="13">$K$1+$L7-$J$20*$M$1+$G$20*$M$2</f>
         <v>0.22888888888888914</v>
       </c>
       <c r="G22" s="2">
-        <f>$K$1+$L7-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" ref="G22:G33" si="14">$K$1+$L7-$J$20*$M$1+$G$20*$M$2+$M$4</f>
         <v>6.2288888888888891</v>
       </c>
       <c r="H22" s="2">
-        <f>$K$1+$M7-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" ref="H22:H33" si="15">$K$1+$M7-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
         <v>6.6144444444444446</v>
       </c>
       <c r="I22" s="2">
-        <f>$K$1+$L7-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" ref="I22:I33" si="16">$K$1+$L7-$J$20*$M$1+$G$20*$M$2-$K$4</f>
         <v>-2.7711111111111109</v>
       </c>
     </row>
@@ -4966,35 +4884,35 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <f>$K$1+$L8+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>9.9511111111111106</v>
       </c>
       <c r="C23" s="2">
-        <f>$K$1+$L8+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>15.951111111111111</v>
       </c>
       <c r="D23" s="2">
-        <f>$K$1+$M8+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>11.475555555555555</v>
       </c>
       <c r="E23" s="2">
-        <f>$K$1+$L8+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>6.9511111111111106</v>
       </c>
       <c r="F23" s="2">
-        <f>$K$1+$L8-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>5.2288888888888891</v>
       </c>
       <c r="G23" s="2">
-        <f>$K$1+$L8-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>11.228888888888889</v>
       </c>
       <c r="H23" s="2">
-        <f>$K$1+$M8-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>9.1144444444444446</v>
       </c>
       <c r="I23" s="2">
-        <f>$K$1+$L8-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>2.2288888888888891</v>
       </c>
     </row>
@@ -5003,35 +4921,35 @@
         <v>3</v>
       </c>
       <c r="B24" s="2">
-        <f>$K$1+$L9+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>11.951111111111111</v>
       </c>
       <c r="C24" s="2">
-        <f>$K$1+$L9+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>17.951111111111111</v>
       </c>
       <c r="D24" s="2">
-        <f>$K$1+$M9+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>12.475555555555555</v>
       </c>
       <c r="E24" s="2">
-        <f>$K$1+$L9+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>8.9511111111111106</v>
       </c>
       <c r="F24" s="2">
-        <f>$K$1+$L9-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>7.2288888888888891</v>
       </c>
       <c r="G24" s="2">
-        <f>$K$1+$L9-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>13.228888888888889</v>
       </c>
       <c r="H24" s="2">
-        <f>$K$1+$M9-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>10.114444444444445</v>
       </c>
       <c r="I24" s="2">
-        <f>$K$1+$L9-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>4.2288888888888891</v>
       </c>
     </row>
@@ -5040,35 +4958,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <f>$K$1+$L10+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>13.951111111111111</v>
       </c>
       <c r="C25" s="2">
-        <f>$K$1+$L10+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>19.951111111111111</v>
       </c>
       <c r="D25" s="2">
-        <f>$K$1+$M10+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>13.475555555555555</v>
       </c>
       <c r="E25" s="2">
-        <f>$K$1+$L10+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>10.951111111111111</v>
       </c>
       <c r="F25" s="2">
-        <f>$K$1+$L10-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>9.2288888888888891</v>
       </c>
       <c r="G25" s="2">
-        <f>$K$1+$L10-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>15.228888888888889</v>
       </c>
       <c r="H25" s="2">
-        <f>$K$1+$M10-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>11.114444444444445</v>
       </c>
       <c r="I25" s="2">
-        <f>$K$1+$L10-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>6.2288888888888891</v>
       </c>
     </row>
@@ -5077,35 +4995,35 @@
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <f>$K$1+$L11+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>15.951111111111111</v>
       </c>
       <c r="C26" s="2">
-        <f>$K$1+$L11+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>21.951111111111111</v>
       </c>
       <c r="D26" s="2">
-        <f>$K$1+$M11+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>14.475555555555555</v>
       </c>
       <c r="E26" s="2">
-        <f>$K$1+$L11+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>12.951111111111111</v>
       </c>
       <c r="F26" s="2">
-        <f>$K$1+$L11-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>11.228888888888889</v>
       </c>
       <c r="G26" s="2">
-        <f>$K$1+$L11-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>17.228888888888889</v>
       </c>
       <c r="H26" s="2">
-        <f>$K$1+$M11-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>12.114444444444445</v>
       </c>
       <c r="I26" s="2">
-        <f>$K$1+$L11-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>8.2288888888888891</v>
       </c>
     </row>
@@ -5114,35 +5032,35 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <f>$K$1+$L12+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>13.951111111111111</v>
       </c>
       <c r="C27" s="2">
-        <f>$K$1+$L12+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>19.951111111111111</v>
       </c>
       <c r="D27" s="2">
-        <f>$K$1+$M12+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>13.475555555555555</v>
       </c>
       <c r="E27" s="2">
-        <f>$K$1+$L12+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>10.951111111111111</v>
       </c>
       <c r="F27" s="2">
-        <f>$K$1+$L12-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>9.2288888888888891</v>
       </c>
       <c r="G27" s="2">
-        <f>$K$1+$L12-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>15.228888888888889</v>
       </c>
       <c r="H27" s="2">
-        <f>$K$1+$M12-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>11.114444444444445</v>
       </c>
       <c r="I27" s="2">
-        <f>$K$1+$L12-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>6.2288888888888891</v>
       </c>
     </row>
@@ -5151,35 +5069,35 @@
         <v>7</v>
       </c>
       <c r="B28" s="2">
-        <f>$K$1+$L13+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>11.951111111111111</v>
       </c>
       <c r="C28" s="2">
-        <f>$K$1+$L13+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>17.951111111111111</v>
       </c>
       <c r="D28" s="2">
-        <f>$K$1+$M13+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>12.475555555555555</v>
       </c>
       <c r="E28" s="2">
-        <f>$K$1+$L13+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>8.9511111111111106</v>
       </c>
       <c r="F28" s="2">
-        <f>$K$1+$L13-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>7.2288888888888891</v>
       </c>
       <c r="G28" s="2">
-        <f>$K$1+$L13-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>13.228888888888889</v>
       </c>
       <c r="H28" s="2">
-        <f>$K$1+$M13-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>10.114444444444445</v>
       </c>
       <c r="I28" s="2">
-        <f>$K$1+$L13-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>4.2288888888888891</v>
       </c>
     </row>
@@ -5188,35 +5106,35 @@
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <f>$K$1+$L14+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>9.9511111111111106</v>
       </c>
       <c r="C29" s="2">
-        <f>$K$1+$L14+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>15.951111111111111</v>
       </c>
       <c r="D29" s="2">
-        <f>$K$1+$M14+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>11.475555555555555</v>
       </c>
       <c r="E29" s="2">
-        <f>$K$1+$L14+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>6.9511111111111106</v>
       </c>
       <c r="F29" s="2">
-        <f>$K$1+$L14-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>5.2288888888888891</v>
       </c>
       <c r="G29" s="2">
-        <f>$K$1+$L14-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>11.228888888888889</v>
       </c>
       <c r="H29" s="2">
-        <f>$K$1+$M14-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>9.1144444444444446</v>
       </c>
       <c r="I29" s="2">
-        <f>$K$1+$L14-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>2.2288888888888891</v>
       </c>
     </row>
@@ -5225,35 +5143,35 @@
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <f>$K$1+$L15+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>6.9511111111111106</v>
       </c>
       <c r="C30" s="2">
-        <f>$K$1+$L15+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>12.951111111111111</v>
       </c>
       <c r="D30" s="2">
-        <f>$K$1+$M15+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>9.9755555555555553</v>
       </c>
       <c r="E30" s="2">
-        <f>$K$1+$L15+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>3.9511111111111106</v>
       </c>
       <c r="F30" s="2">
-        <f>$K$1+$L15-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>2.2288888888888891</v>
       </c>
       <c r="G30" s="2">
-        <f>$K$1+$L15-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>8.2288888888888891</v>
       </c>
       <c r="H30" s="2">
-        <f>$K$1+$M15-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>7.6144444444444446</v>
       </c>
       <c r="I30" s="2">
-        <f>$K$1+$L15-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>-0.77111111111111086</v>
       </c>
     </row>
@@ -5262,35 +5180,35 @@
         <v>10</v>
       </c>
       <c r="B31" s="2">
-        <f>$K$1+$L16+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>2.9511111111111106</v>
       </c>
       <c r="C31" s="2">
-        <f>$K$1+$L16+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>8.9511111111111106</v>
       </c>
       <c r="D31" s="2">
-        <f>$K$1+$M16+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>7.9755555555555553</v>
       </c>
       <c r="E31" s="2">
-        <f>$K$1+$L16+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>-4.8888888888889426E-2</v>
       </c>
       <c r="F31" s="2">
-        <f>$K$1+$L16-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>-1.7711111111111113</v>
       </c>
       <c r="G31" s="2">
-        <f>$K$1+$L16-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>4.2288888888888891</v>
       </c>
       <c r="H31" s="2">
-        <f>$K$1+$M16-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>5.6144444444444446</v>
       </c>
       <c r="I31" s="2">
-        <f>$K$1+$L16-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>-4.7711111111111109</v>
       </c>
     </row>
@@ -5299,35 +5217,35 @@
         <v>11</v>
       </c>
       <c r="B32" s="2">
-        <f>$K$1+$L17+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>-5.0488888888888894</v>
       </c>
       <c r="C32" s="2">
-        <f>$K$1+$L17+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>0.95111111111111057</v>
       </c>
       <c r="D32" s="2">
-        <f>$K$1+$M17+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>3.9755555555555553</v>
       </c>
       <c r="E32" s="2">
-        <f>$K$1+$L17+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>-8.0488888888888894</v>
       </c>
       <c r="F32" s="2">
-        <f>$K$1+$L17-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>-9.7711111111111109</v>
       </c>
       <c r="G32" s="2">
-        <f>$K$1+$L17-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>-3.7711111111111109</v>
       </c>
       <c r="H32" s="2">
-        <f>$K$1+$M17-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>1.6144444444444446</v>
       </c>
       <c r="I32" s="2">
-        <f>$K$1+$L17-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>-12.771111111111111</v>
       </c>
     </row>
@@ -5336,35 +5254,35 @@
         <v>12</v>
       </c>
       <c r="B33" s="2">
-        <f>$K$1+$L18+$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="9"/>
         <v>-4.8888888888889426E-2</v>
       </c>
       <c r="C33" s="2">
-        <f>$K$1+$L18+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="10"/>
         <v>5.9511111111111106</v>
       </c>
       <c r="D33" s="2">
-        <f>$K$1+$M18+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <f t="shared" si="11"/>
         <v>6.4755555555555553</v>
       </c>
       <c r="E33" s="2">
-        <f>$K$1+$L18+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="12"/>
         <v>-3.0488888888888894</v>
       </c>
       <c r="F33" s="2">
-        <f>$K$1+$L18-$J$20*$M$1+$G$20*$M$2</f>
+        <f t="shared" si="13"/>
         <v>-4.7711111111111109</v>
       </c>
       <c r="G33" s="2">
-        <f>$K$1+$L18-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <f t="shared" si="14"/>
         <v>1.2288888888888891</v>
       </c>
       <c r="H33" s="2">
-        <f>$K$1+$M18-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <f t="shared" si="15"/>
         <v>4.1144444444444446</v>
       </c>
       <c r="I33" s="2">
-        <f>$K$1+$L18-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <f t="shared" si="16"/>
         <v>-7.7711111111111109</v>
       </c>
     </row>
@@ -5401,7 +5319,7 @@
         <v>4.6296296296296224E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5435,35 +5353,35 @@
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <f>$K$1+$L7+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" ref="B37:B48" si="17">$K$1+$L7+$J$35*$M$1+$G$35*$M$2</f>
         <v>7.3978888888888887</v>
       </c>
       <c r="C37" s="4">
-        <f>$K$1+$L7+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" ref="C37:C48" si="18">$K$1+$L7+$J$35*$M$1+$G$35*$M$2+$M$4</f>
         <v>13.39788888888889</v>
       </c>
       <c r="D37" s="4">
-        <f>$K$1+$M7+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" ref="D37:D48" si="19">$K$1+$M7+0.5*($J$35*$M$1+$G$35*$M$2)</f>
         <v>10.198944444444445</v>
       </c>
       <c r="E37" s="4">
-        <f>$K$1+$L7+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" ref="E37:E48" si="20">$K$1+$L7+$J$35*$M$1+$G$35*$M$2-$K$4</f>
         <v>4.3978888888888887</v>
       </c>
       <c r="F37" s="4">
-        <f>$K$1+$L7-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" ref="F37:F48" si="21">$K$1+$L7-$J$35*$M$1+$G$35*$M$2</f>
         <v>7.1201111111111119</v>
       </c>
       <c r="G37" s="4">
-        <f>$K$1+$L7-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" ref="G37:G48" si="22">$K$1+$L7-$J$35*$M$1+$G$35*$M$2+$M$4</f>
         <v>13.120111111111111</v>
       </c>
       <c r="H37" s="4">
-        <f>$K$1+$M7-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" ref="H37:H48" si="23">$K$1+$M7-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
         <v>10.060055555555556</v>
       </c>
       <c r="I37" s="4">
-        <f>$K$1+$L7-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" ref="I37:I48" si="24">$K$1+$L7-$J$35*$M$1+$G$35*$M$2-$K$4</f>
         <v>4.1201111111111119</v>
       </c>
     </row>
@@ -5472,35 +5390,35 @@
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f>$K$1+$L8+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>12.39788888888889</v>
       </c>
       <c r="C38" s="4">
-        <f>$K$1+$L8+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>18.39788888888889</v>
       </c>
       <c r="D38" s="4">
-        <f>$K$1+$M8+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>12.698944444444445</v>
       </c>
       <c r="E38" s="4">
-        <f>$K$1+$L8+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>9.3978888888888896</v>
       </c>
       <c r="F38" s="4">
-        <f>$K$1+$L8-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>12.120111111111111</v>
       </c>
       <c r="G38" s="4">
-        <f>$K$1+$L8-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>18.120111111111111</v>
       </c>
       <c r="H38" s="4">
-        <f>$K$1+$M8-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>12.560055555555556</v>
       </c>
       <c r="I38" s="4">
-        <f>$K$1+$L8-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>9.1201111111111111</v>
       </c>
     </row>
@@ -5509,35 +5427,35 @@
         <v>3</v>
       </c>
       <c r="B39" s="4">
-        <f>$K$1+$L9+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>14.39788888888889</v>
       </c>
       <c r="C39" s="4">
-        <f>$K$1+$L9+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>20.39788888888889</v>
       </c>
       <c r="D39" s="4">
-        <f>$K$1+$M9+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>13.698944444444445</v>
       </c>
       <c r="E39" s="4">
-        <f>$K$1+$L9+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>11.39788888888889</v>
       </c>
       <c r="F39" s="4">
-        <f>$K$1+$L9-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>14.120111111111111</v>
       </c>
       <c r="G39" s="4">
-        <f>$K$1+$L9-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>20.120111111111111</v>
       </c>
       <c r="H39" s="4">
-        <f>$K$1+$M9-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>13.560055555555556</v>
       </c>
       <c r="I39" s="4">
-        <f>$K$1+$L9-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>11.120111111111111</v>
       </c>
     </row>
@@ -5546,35 +5464,35 @@
         <v>4</v>
       </c>
       <c r="B40" s="4">
-        <f>$K$1+$L10+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>16.39788888888889</v>
       </c>
       <c r="C40" s="4">
-        <f>$K$1+$L10+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>22.39788888888889</v>
       </c>
       <c r="D40" s="4">
-        <f>$K$1+$M10+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>14.698944444444445</v>
       </c>
       <c r="E40" s="4">
-        <f>$K$1+$L10+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>13.39788888888889</v>
       </c>
       <c r="F40" s="4">
-        <f>$K$1+$L10-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>16.120111111111111</v>
       </c>
       <c r="G40" s="4">
-        <f>$K$1+$L10-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>22.120111111111111</v>
       </c>
       <c r="H40" s="4">
-        <f>$K$1+$M10-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>14.560055555555556</v>
       </c>
       <c r="I40" s="4">
-        <f>$K$1+$L10-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>13.120111111111111</v>
       </c>
     </row>
@@ -5583,35 +5501,35 @@
         <v>5</v>
       </c>
       <c r="B41" s="4">
-        <f>$K$1+$L11+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>18.39788888888889</v>
       </c>
       <c r="C41" s="4">
-        <f>$K$1+$L11+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>24.39788888888889</v>
       </c>
       <c r="D41" s="4">
-        <f>$K$1+$M11+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>15.698944444444445</v>
       </c>
       <c r="E41" s="4">
-        <f>$K$1+$L11+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>15.39788888888889</v>
       </c>
       <c r="F41" s="4">
-        <f>$K$1+$L11-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>18.120111111111111</v>
       </c>
       <c r="G41" s="4">
-        <f>$K$1+$L11-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>24.120111111111111</v>
       </c>
       <c r="H41" s="4">
-        <f>$K$1+$M11-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>15.560055555555556</v>
       </c>
       <c r="I41" s="4">
-        <f>$K$1+$L11-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>15.120111111111111</v>
       </c>
     </row>
@@ -5620,35 +5538,35 @@
         <v>6</v>
       </c>
       <c r="B42" s="4">
-        <f>$K$1+$L12+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>16.39788888888889</v>
       </c>
       <c r="C42" s="4">
-        <f>$K$1+$L12+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>22.39788888888889</v>
       </c>
       <c r="D42" s="4">
-        <f>$K$1+$M12+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>14.698944444444445</v>
       </c>
       <c r="E42" s="4">
-        <f>$K$1+$L12+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>13.39788888888889</v>
       </c>
       <c r="F42" s="4">
-        <f>$K$1+$L12-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>16.120111111111111</v>
       </c>
       <c r="G42" s="4">
-        <f>$K$1+$L12-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>22.120111111111111</v>
       </c>
       <c r="H42" s="4">
-        <f>$K$1+$M12-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>14.560055555555556</v>
       </c>
       <c r="I42" s="4">
-        <f>$K$1+$L12-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>13.120111111111111</v>
       </c>
     </row>
@@ -5657,35 +5575,35 @@
         <v>7</v>
       </c>
       <c r="B43" s="4">
-        <f>$K$1+$L13+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>14.39788888888889</v>
       </c>
       <c r="C43" s="4">
-        <f>$K$1+$L13+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>20.39788888888889</v>
       </c>
       <c r="D43" s="4">
-        <f>$K$1+$M13+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>13.698944444444445</v>
       </c>
       <c r="E43" s="4">
-        <f>$K$1+$L13+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>11.39788888888889</v>
       </c>
       <c r="F43" s="4">
-        <f>$K$1+$L13-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>14.120111111111111</v>
       </c>
       <c r="G43" s="4">
-        <f>$K$1+$L13-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>20.120111111111111</v>
       </c>
       <c r="H43" s="4">
-        <f>$K$1+$M13-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>13.560055555555556</v>
       </c>
       <c r="I43" s="4">
-        <f>$K$1+$L13-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>11.120111111111111</v>
       </c>
     </row>
@@ -5694,35 +5612,35 @@
         <v>8</v>
       </c>
       <c r="B44" s="4">
-        <f>$K$1+$L14+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>12.39788888888889</v>
       </c>
       <c r="C44" s="4">
-        <f>$K$1+$L14+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>18.39788888888889</v>
       </c>
       <c r="D44" s="4">
-        <f>$K$1+$M14+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>12.698944444444445</v>
       </c>
       <c r="E44" s="4">
-        <f>$K$1+$L14+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>9.3978888888888896</v>
       </c>
       <c r="F44" s="4">
-        <f>$K$1+$L14-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>12.120111111111111</v>
       </c>
       <c r="G44" s="4">
-        <f>$K$1+$L14-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>18.120111111111111</v>
       </c>
       <c r="H44" s="4">
-        <f>$K$1+$M14-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>12.560055555555556</v>
       </c>
       <c r="I44" s="4">
-        <f>$K$1+$L14-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>9.1201111111111111</v>
       </c>
     </row>
@@ -5731,35 +5649,35 @@
         <v>9</v>
       </c>
       <c r="B45" s="4">
-        <f>$K$1+$L15+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>9.3978888888888896</v>
       </c>
       <c r="C45" s="4">
-        <f>$K$1+$L15+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>15.39788888888889</v>
       </c>
       <c r="D45" s="4">
-        <f>$K$1+$M15+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>11.198944444444445</v>
       </c>
       <c r="E45" s="4">
-        <f>$K$1+$L15+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>6.3978888888888896</v>
       </c>
       <c r="F45" s="4">
-        <f>$K$1+$L15-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>9.1201111111111111</v>
       </c>
       <c r="G45" s="4">
-        <f>$K$1+$L15-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>15.120111111111111</v>
       </c>
       <c r="H45" s="4">
-        <f>$K$1+$M15-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>11.060055555555556</v>
       </c>
       <c r="I45" s="4">
-        <f>$K$1+$L15-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>6.1201111111111111</v>
       </c>
     </row>
@@ -5768,35 +5686,35 @@
         <v>10</v>
       </c>
       <c r="B46" s="4">
-        <f>$K$1+$L16+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>5.3978888888888887</v>
       </c>
       <c r="C46" s="4">
-        <f>$K$1+$L16+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>11.39788888888889</v>
       </c>
       <c r="D46" s="4">
-        <f>$K$1+$M16+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>9.1989444444444448</v>
       </c>
       <c r="E46" s="4">
-        <f>$K$1+$L16+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>2.3978888888888887</v>
       </c>
       <c r="F46" s="4">
-        <f>$K$1+$L16-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>5.1201111111111119</v>
       </c>
       <c r="G46" s="4">
-        <f>$K$1+$L16-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>11.120111111111111</v>
       </c>
       <c r="H46" s="4">
-        <f>$K$1+$M16-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>9.0600555555555555</v>
       </c>
       <c r="I46" s="4">
-        <f>$K$1+$L16-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>2.1201111111111119</v>
       </c>
     </row>
@@ -5805,35 +5723,35 @@
         <v>11</v>
       </c>
       <c r="B47" s="4">
-        <f>$K$1+$L17+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>-2.6021111111111113</v>
       </c>
       <c r="C47" s="4">
-        <f>$K$1+$L17+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>3.3978888888888887</v>
       </c>
       <c r="D47" s="4">
-        <f>$K$1+$M17+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>5.1989444444444439</v>
       </c>
       <c r="E47" s="4">
-        <f>$K$1+$L17+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>-5.6021111111111113</v>
       </c>
       <c r="F47" s="4">
-        <f>$K$1+$L17-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>-2.8798888888888889</v>
       </c>
       <c r="G47" s="4">
-        <f>$K$1+$L17-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>3.1201111111111111</v>
       </c>
       <c r="H47" s="4">
-        <f>$K$1+$M17-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>5.0600555555555555</v>
       </c>
       <c r="I47" s="4">
-        <f>$K$1+$L17-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>-5.8798888888888889</v>
       </c>
     </row>
@@ -5842,35 +5760,35 @@
         <v>12</v>
       </c>
       <c r="B48" s="4">
-        <f>$K$1+$L18+$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="17"/>
         <v>2.3978888888888887</v>
       </c>
       <c r="C48" s="4">
-        <f>$K$1+$L18+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="18"/>
         <v>8.3978888888888896</v>
       </c>
       <c r="D48" s="4">
-        <f>$K$1+$M18+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <f t="shared" si="19"/>
         <v>7.6989444444444439</v>
       </c>
       <c r="E48" s="4">
-        <f>$K$1+$L18+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="20"/>
         <v>-0.60211111111111126</v>
       </c>
       <c r="F48" s="4">
-        <f>$K$1+$L18-$J$35*$M$1+$G$35*$M$2</f>
+        <f t="shared" si="21"/>
         <v>2.1201111111111115</v>
       </c>
       <c r="G48" s="4">
-        <f>$K$1+$L18-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <f t="shared" si="22"/>
         <v>8.1201111111111111</v>
       </c>
       <c r="H48" s="4">
-        <f>$K$1+$M18-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <f t="shared" si="23"/>
         <v>7.5600555555555555</v>
       </c>
       <c r="I48" s="4">
-        <f>$K$1+$L18-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <f t="shared" si="24"/>
         <v>-0.8798888888888885</v>
       </c>
     </row>
@@ -5907,7 +5825,7 @@
         <v>0.2314814814814814</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -5941,35 +5859,35 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <f>$K$1+$L7+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" ref="B52:B63" si="25">$K$1+$L7+$J$50*$M$1+$G$50*$M$2</f>
         <v>8.9894444444444446</v>
       </c>
       <c r="C52" s="4">
-        <f>$K$1+$L7+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" ref="C52:C63" si="26">$K$1+$L7+$J$50*$M$1+$G$50*$M$2+$M$4</f>
         <v>14.989444444444445</v>
       </c>
       <c r="D52" s="4">
-        <f>$K$1+$M7+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" ref="D52:D63" si="27">$K$1+$M7+0.5*($J$50*$M$1+$G$50*$M$2)</f>
         <v>10.994722222222222</v>
       </c>
       <c r="E52" s="4">
-        <f>$K$1+$L7+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" ref="E52:E63" si="28">$K$1+$L7+$J$50*$M$1+$G$50*$M$2-$K$4</f>
         <v>5.9894444444444446</v>
       </c>
       <c r="F52" s="4">
-        <f>$K$1+$L7-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" ref="F52:F63" si="29">$K$1+$L7-$J$50*$M$1+$G$50*$M$2</f>
         <v>7.6005555555555553</v>
       </c>
       <c r="G52" s="4">
-        <f>$K$1+$L7-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" ref="G52:G63" si="30">$K$1+$L7-$J$50*$M$1+$G$50*$M$2+$M$4</f>
         <v>13.600555555555555</v>
       </c>
       <c r="H52" s="4">
-        <f>$K$1+$M7-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" ref="H52:H63" si="31">$K$1+$M7-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
         <v>10.300277777777779</v>
       </c>
       <c r="I52" s="4">
-        <f>$K$1+$L7-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" ref="I52:I63" si="32">$K$1+$L7-$J$50*$M$1+$G$50*$M$2-$K$4</f>
         <v>4.6005555555555553</v>
       </c>
     </row>
@@ -5978,35 +5896,35 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <f>$K$1+$L8+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>13.989444444444445</v>
       </c>
       <c r="C53" s="4">
-        <f>$K$1+$L8+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>19.989444444444445</v>
       </c>
       <c r="D53" s="4">
-        <f>$K$1+$M8+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>13.494722222222222</v>
       </c>
       <c r="E53" s="4">
-        <f>$K$1+$L8+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>10.989444444444445</v>
       </c>
       <c r="F53" s="4">
-        <f>$K$1+$L8-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>12.600555555555555</v>
       </c>
       <c r="G53" s="4">
-        <f>$K$1+$L8-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>18.600555555555555</v>
       </c>
       <c r="H53" s="4">
-        <f>$K$1+$M8-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>12.800277777777779</v>
       </c>
       <c r="I53" s="4">
-        <f>$K$1+$L8-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>9.6005555555555553</v>
       </c>
     </row>
@@ -6015,35 +5933,35 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <f>$K$1+$L9+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>15.989444444444445</v>
       </c>
       <c r="C54" s="4">
-        <f>$K$1+$L9+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>21.989444444444445</v>
       </c>
       <c r="D54" s="4">
-        <f>$K$1+$M9+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>14.494722222222222</v>
       </c>
       <c r="E54" s="4">
-        <f>$K$1+$L9+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>12.989444444444445</v>
       </c>
       <c r="F54" s="4">
-        <f>$K$1+$L9-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>14.600555555555555</v>
       </c>
       <c r="G54" s="4">
-        <f>$K$1+$L9-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>20.600555555555555</v>
       </c>
       <c r="H54" s="4">
-        <f>$K$1+$M9-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>13.800277777777779</v>
       </c>
       <c r="I54" s="4">
-        <f>$K$1+$L9-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>11.600555555555555</v>
       </c>
     </row>
@@ -6052,35 +5970,35 @@
         <v>4</v>
       </c>
       <c r="B55" s="4">
-        <f>$K$1+$L10+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>17.989444444444445</v>
       </c>
       <c r="C55" s="4">
-        <f>$K$1+$L10+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>23.989444444444445</v>
       </c>
       <c r="D55" s="4">
-        <f>$K$1+$M10+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>15.494722222222222</v>
       </c>
       <c r="E55" s="4">
-        <f>$K$1+$L10+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>14.989444444444445</v>
       </c>
       <c r="F55" s="4">
-        <f>$K$1+$L10-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>16.600555555555555</v>
       </c>
       <c r="G55" s="4">
-        <f>$K$1+$L10-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>22.600555555555555</v>
       </c>
       <c r="H55" s="4">
-        <f>$K$1+$M10-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>14.800277777777779</v>
       </c>
       <c r="I55" s="4">
-        <f>$K$1+$L10-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>13.600555555555555</v>
       </c>
     </row>
@@ -6089,35 +6007,35 @@
         <v>5</v>
       </c>
       <c r="B56" s="4">
-        <f>$K$1+$L11+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>19.989444444444445</v>
       </c>
       <c r="C56" s="4">
-        <f>$K$1+$L11+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>25.989444444444445</v>
       </c>
       <c r="D56" s="4">
-        <f>$K$1+$M11+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>16.494722222222222</v>
       </c>
       <c r="E56" s="4">
-        <f>$K$1+$L11+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>16.989444444444445</v>
       </c>
       <c r="F56" s="4">
-        <f>$K$1+$L11-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>18.600555555555559</v>
       </c>
       <c r="G56" s="4">
-        <f>$K$1+$L11-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>24.600555555555559</v>
       </c>
       <c r="H56" s="4">
-        <f>$K$1+$M11-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>15.800277777777779</v>
       </c>
       <c r="I56" s="4">
-        <f>$K$1+$L11-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>15.600555555555559</v>
       </c>
     </row>
@@ -6126,35 +6044,35 @@
         <v>6</v>
       </c>
       <c r="B57" s="4">
-        <f>$K$1+$L12+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>17.989444444444445</v>
       </c>
       <c r="C57" s="4">
-        <f>$K$1+$L12+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>23.989444444444445</v>
       </c>
       <c r="D57" s="4">
-        <f>$K$1+$M12+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>15.494722222222222</v>
       </c>
       <c r="E57" s="4">
-        <f>$K$1+$L12+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>14.989444444444445</v>
       </c>
       <c r="F57" s="4">
-        <f>$K$1+$L12-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>16.600555555555555</v>
       </c>
       <c r="G57" s="4">
-        <f>$K$1+$L12-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>22.600555555555555</v>
       </c>
       <c r="H57" s="4">
-        <f>$K$1+$M12-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>14.800277777777779</v>
       </c>
       <c r="I57" s="4">
-        <f>$K$1+$L12-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>13.600555555555555</v>
       </c>
     </row>
@@ -6163,35 +6081,35 @@
         <v>7</v>
       </c>
       <c r="B58" s="4">
-        <f>$K$1+$L13+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>15.989444444444445</v>
       </c>
       <c r="C58" s="4">
-        <f>$K$1+$L13+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>21.989444444444445</v>
       </c>
       <c r="D58" s="4">
-        <f>$K$1+$M13+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>14.494722222222222</v>
       </c>
       <c r="E58" s="4">
-        <f>$K$1+$L13+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>12.989444444444445</v>
       </c>
       <c r="F58" s="4">
-        <f>$K$1+$L13-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>14.600555555555555</v>
       </c>
       <c r="G58" s="4">
-        <f>$K$1+$L13-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>20.600555555555555</v>
       </c>
       <c r="H58" s="4">
-        <f>$K$1+$M13-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>13.800277777777779</v>
       </c>
       <c r="I58" s="4">
-        <f>$K$1+$L13-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>11.600555555555555</v>
       </c>
     </row>
@@ -6200,35 +6118,35 @@
         <v>8</v>
       </c>
       <c r="B59" s="4">
-        <f>$K$1+$L14+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>13.989444444444445</v>
       </c>
       <c r="C59" s="4">
-        <f>$K$1+$L14+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>19.989444444444445</v>
       </c>
       <c r="D59" s="4">
-        <f>$K$1+$M14+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>13.494722222222222</v>
       </c>
       <c r="E59" s="4">
-        <f>$K$1+$L14+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>10.989444444444445</v>
       </c>
       <c r="F59" s="4">
-        <f>$K$1+$L14-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>12.600555555555555</v>
       </c>
       <c r="G59" s="4">
-        <f>$K$1+$L14-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>18.600555555555555</v>
       </c>
       <c r="H59" s="4">
-        <f>$K$1+$M14-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>12.800277777777779</v>
       </c>
       <c r="I59" s="4">
-        <f>$K$1+$L14-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>9.6005555555555553</v>
       </c>
     </row>
@@ -6237,35 +6155,35 @@
         <v>9</v>
       </c>
       <c r="B60" s="4">
-        <f>$K$1+$L15+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>10.989444444444445</v>
       </c>
       <c r="C60" s="4">
-        <f>$K$1+$L15+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>16.989444444444445</v>
       </c>
       <c r="D60" s="4">
-        <f>$K$1+$M15+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>11.994722222222222</v>
       </c>
       <c r="E60" s="4">
-        <f>$K$1+$L15+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>7.9894444444444446</v>
       </c>
       <c r="F60" s="4">
-        <f>$K$1+$L15-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>9.6005555555555553</v>
       </c>
       <c r="G60" s="4">
-        <f>$K$1+$L15-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>15.600555555555555</v>
       </c>
       <c r="H60" s="4">
-        <f>$K$1+$M15-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>11.300277777777779</v>
       </c>
       <c r="I60" s="4">
-        <f>$K$1+$L15-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>6.6005555555555553</v>
       </c>
     </row>
@@ -6274,35 +6192,35 @@
         <v>10</v>
       </c>
       <c r="B61" s="4">
-        <f>$K$1+$L16+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>6.9894444444444446</v>
       </c>
       <c r="C61" s="4">
-        <f>$K$1+$L16+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>12.989444444444445</v>
       </c>
       <c r="D61" s="4">
-        <f>$K$1+$M16+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>9.9947222222222223</v>
       </c>
       <c r="E61" s="4">
-        <f>$K$1+$L16+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>3.9894444444444446</v>
       </c>
       <c r="F61" s="4">
-        <f>$K$1+$L16-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>5.6005555555555553</v>
       </c>
       <c r="G61" s="4">
-        <f>$K$1+$L16-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>11.600555555555555</v>
       </c>
       <c r="H61" s="4">
-        <f>$K$1+$M16-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>9.3002777777777794</v>
       </c>
       <c r="I61" s="4">
-        <f>$K$1+$L16-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>2.6005555555555553</v>
       </c>
     </row>
@@ -6311,35 +6229,35 @@
         <v>11</v>
       </c>
       <c r="B62" s="4">
-        <f>$K$1+$L17+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>-1.0105555555555559</v>
       </c>
       <c r="C62" s="4">
-        <f>$K$1+$L17+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>4.9894444444444446</v>
       </c>
       <c r="D62" s="4">
-        <f>$K$1+$M17+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>5.9947222222222223</v>
       </c>
       <c r="E62" s="4">
-        <f>$K$1+$L17+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>-4.0105555555555554</v>
       </c>
       <c r="F62" s="4">
-        <f>$K$1+$L17-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>-2.3994444444444443</v>
       </c>
       <c r="G62" s="4">
-        <f>$K$1+$L17-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>3.6005555555555557</v>
       </c>
       <c r="H62" s="4">
-        <f>$K$1+$M17-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>5.3002777777777776</v>
       </c>
       <c r="I62" s="4">
-        <f>$K$1+$L17-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>-5.3994444444444447</v>
       </c>
     </row>
@@ -6348,35 +6266,35 @@
         <v>12</v>
       </c>
       <c r="B63" s="4">
-        <f>$K$1+$L18+$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="25"/>
         <v>3.9894444444444441</v>
       </c>
       <c r="C63" s="4">
-        <f>$K$1+$L18+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="26"/>
         <v>9.9894444444444446</v>
       </c>
       <c r="D63" s="4">
-        <f>$K$1+$M18+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <f t="shared" si="27"/>
         <v>8.4947222222222223</v>
       </c>
       <c r="E63" s="4">
-        <f>$K$1+$L18+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="28"/>
         <v>0.98944444444444413</v>
       </c>
       <c r="F63" s="4">
-        <f>$K$1+$L18-$J$50*$M$1+$G$50*$M$2</f>
+        <f t="shared" si="29"/>
         <v>2.6005555555555557</v>
       </c>
       <c r="G63" s="4">
-        <f>$K$1+$L18-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <f t="shared" si="30"/>
         <v>8.6005555555555553</v>
       </c>
       <c r="H63" s="4">
-        <f>$K$1+$M18-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <f t="shared" si="31"/>
         <v>7.8002777777777776</v>
       </c>
       <c r="I63" s="4">
-        <f>$K$1+$L18-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <f t="shared" si="32"/>
         <v>-0.39944444444444427</v>
       </c>
     </row>
@@ -6413,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -6447,35 +6365,35 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <f>$K$1+$L7+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" ref="B67:B78" si="33">$K$1+$L7+$J$65*$M$1+$G$65*$M$2</f>
         <v>17</v>
       </c>
       <c r="C67">
-        <f>$K$1+$L7+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" ref="C67:C78" si="34">$K$1+$L7+$J$65*$M$1+$G$65*$M$2+$M$4</f>
         <v>23</v>
       </c>
       <c r="D67" s="2">
-        <f>$K$1+$M7+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" ref="D67:D78" si="35">$K$1+$M7+0.5*($J$65*$M$1+$G$65*$M$2)</f>
         <v>15</v>
       </c>
       <c r="E67">
-        <f>$K$1+$L7+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" ref="E67:E78" si="36">$K$1+$L7+$J$65*$M$1+$G$65*$M$2-$K$4</f>
         <v>14</v>
       </c>
       <c r="F67">
-        <f>$K$1+$L7-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" ref="F67:F78" si="37">$K$1+$L7-$J$65*$M$1+$G$65*$M$2</f>
         <v>11</v>
       </c>
       <c r="G67">
-        <f>$K$1+$L7-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" ref="G67:G78" si="38">$K$1+$L7-$J$65*$M$1+$G$65*$M$2+$M$4</f>
         <v>17</v>
       </c>
       <c r="H67" s="2">
-        <f>$K$1+$M7-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" ref="H67:H78" si="39">$K$1+$M7-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
         <v>12</v>
       </c>
       <c r="I67">
-        <f>$K$1+$L7-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" ref="I67:I78" si="40">$K$1+$L7-$J$65*$M$1+$G$65*$M$2-$K$4</f>
         <v>8</v>
       </c>
     </row>
@@ -6484,35 +6402,35 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <f>$K$1+$L8+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="C68">
-        <f>$K$1+$L8+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>28</v>
       </c>
       <c r="D68" s="2">
-        <f>$K$1+$M8+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
       <c r="E68">
-        <f>$K$1+$L8+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="F68">
-        <f>$K$1+$L8-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="G68">
-        <f>$K$1+$L8-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>22</v>
       </c>
       <c r="H68" s="2">
-        <f>$K$1+$M8-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>14.5</v>
       </c>
       <c r="I68">
-        <f>$K$1+$L8-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
     </row>
@@ -6521,35 +6439,35 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <f>$K$1+$L9+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="C69">
-        <f>$K$1+$L9+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="D69" s="2">
-        <f>$K$1+$M9+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>18.5</v>
       </c>
       <c r="E69">
-        <f>$K$1+$L9+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
       <c r="F69">
-        <f>$K$1+$L9-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="G69">
-        <f>$K$1+$L9-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>24</v>
       </c>
       <c r="H69" s="2">
-        <f>$K$1+$M9-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>15.5</v>
       </c>
       <c r="I69">
-        <f>$K$1+$L9-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
     </row>
@@ -6558,35 +6476,35 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <f>$K$1+$L10+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="C70">
-        <f>$K$1+$L10+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
       <c r="D70" s="2">
-        <f>$K$1+$M10+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>19.5</v>
       </c>
       <c r="E70">
-        <f>$K$1+$L10+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
       <c r="F70">
-        <f>$K$1+$L10-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="G70">
-        <f>$K$1+$L10-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>26</v>
       </c>
       <c r="H70" s="2">
-        <f>$K$1+$M10-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>16.5</v>
       </c>
       <c r="I70">
-        <f>$K$1+$L10-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>17</v>
       </c>
     </row>
@@ -6595,35 +6513,35 @@
         <v>5</v>
       </c>
       <c r="B71">
-        <f>$K$1+$L11+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="C71">
-        <f>$K$1+$L11+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>34</v>
       </c>
       <c r="D71" s="2">
-        <f>$K$1+$M11+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>20.5</v>
       </c>
       <c r="E71">
-        <f>$K$1+$L11+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="F71">
-        <f>$K$1+$L11-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>22</v>
       </c>
       <c r="G71">
-        <f>$K$1+$L11-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>28</v>
       </c>
       <c r="H71" s="2">
-        <f>$K$1+$M11-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>17.5</v>
       </c>
       <c r="I71">
-        <f>$K$1+$L11-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>19</v>
       </c>
     </row>
@@ -6632,35 +6550,35 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <f>$K$1+$L12+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="C72">
-        <f>$K$1+$L12+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>32</v>
       </c>
       <c r="D72" s="2">
-        <f>$K$1+$M12+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>19.5</v>
       </c>
       <c r="E72">
-        <f>$K$1+$L12+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
       <c r="F72">
-        <f>$K$1+$L12-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="G72">
-        <f>$K$1+$L12-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>26</v>
       </c>
       <c r="H72" s="2">
-        <f>$K$1+$M12-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>16.5</v>
       </c>
       <c r="I72">
-        <f>$K$1+$L12-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>17</v>
       </c>
     </row>
@@ -6669,35 +6587,35 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <f>$K$1+$L13+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="C73">
-        <f>$K$1+$L13+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="D73" s="2">
-        <f>$K$1+$M13+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>18.5</v>
       </c>
       <c r="E73">
-        <f>$K$1+$L13+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
       <c r="F73">
-        <f>$K$1+$L13-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="G73">
-        <f>$K$1+$L13-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>24</v>
       </c>
       <c r="H73" s="2">
-        <f>$K$1+$M13-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>15.5</v>
       </c>
       <c r="I73">
-        <f>$K$1+$L13-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
     </row>
@@ -6706,35 +6624,35 @@
         <v>8</v>
       </c>
       <c r="B74">
-        <f>$K$1+$L14+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="C74">
-        <f>$K$1+$L14+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>28</v>
       </c>
       <c r="D74" s="2">
-        <f>$K$1+$M14+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>17.5</v>
       </c>
       <c r="E74">
-        <f>$K$1+$L14+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="F74">
-        <f>$K$1+$L14-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="G74">
-        <f>$K$1+$L14-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>22</v>
       </c>
       <c r="H74" s="2">
-        <f>$K$1+$M14-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>14.5</v>
       </c>
       <c r="I74">
-        <f>$K$1+$L14-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
     </row>
@@ -6743,35 +6661,35 @@
         <v>9</v>
       </c>
       <c r="B75">
-        <f>$K$1+$L15+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="C75">
-        <f>$K$1+$L15+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="D75" s="2">
-        <f>$K$1+$M15+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="E75">
-        <f>$K$1+$L15+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="F75">
-        <f>$K$1+$L15-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>13</v>
       </c>
       <c r="G75">
-        <f>$K$1+$L15-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
       <c r="H75" s="2">
-        <f>$K$1+$M15-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="I75">
-        <f>$K$1+$L15-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
     </row>
@@ -6780,35 +6698,35 @@
         <v>10</v>
       </c>
       <c r="B76">
-        <f>$K$1+$L16+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="C76">
-        <f>$K$1+$L16+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="D76" s="2">
-        <f>$K$1+$M16+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="E76">
-        <f>$K$1+$L16+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="F76">
-        <f>$K$1+$L16-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="G76">
-        <f>$K$1+$L16-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="H76" s="2">
-        <f>$K$1+$M16-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="I76">
-        <f>$K$1+$L16-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
     </row>
@@ -6817,35 +6735,35 @@
         <v>11</v>
       </c>
       <c r="B77">
-        <f>$K$1+$L17+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="C77">
-        <f>$K$1+$L17+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="D77" s="2">
-        <f>$K$1+$M17+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="E77">
-        <f>$K$1+$L17+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="F77">
-        <f>$K$1+$L17-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f>$K$1+$L17-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="H77" s="2">
-        <f>$K$1+$M17-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="I77">
-        <f>$K$1+$L17-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
     </row>
@@ -6854,35 +6772,35 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <f>$K$1+$L18+$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="C78">
-        <f>$K$1+$L18+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="D78" s="2">
-        <f>$K$1+$M18+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <f t="shared" si="35"/>
         <v>12.5</v>
       </c>
       <c r="E78">
-        <f>$K$1+$L18+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="F78">
-        <f>$K$1+$L18-$J$65*$M$1+$G$65*$M$2</f>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="G78">
-        <f>$K$1+$L18-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="H78" s="2">
-        <f>$K$1+$M18-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <f t="shared" si="39"/>
         <v>9.5</v>
       </c>
       <c r="I78">
-        <f>$K$1+$L18-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
     </row>
@@ -7007,7 +6925,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7038,7 +6956,7 @@
         <v>26</v>
       </c>
       <c r="M1" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>27</v>
@@ -7058,7 +6976,7 @@
         <v>28</v>
       </c>
       <c r="M2">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7159,42 +7077,42 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f>$K$1+$L7+$J$5*$M$1+$G$5*$M$2</f>
-        <v>3.3000000000000007</v>
+        <f t="shared" ref="B7:B18" si="0">$K$1+$L7+$J$5*$M$1+$G$5*$M$2</f>
+        <v>6.6</v>
       </c>
       <c r="C7">
-        <f>$K$1+$L7+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>9.3000000000000007</v>
+        <f t="shared" ref="C7:C18" si="1">$K$1+$L7+$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <v>12.6</v>
       </c>
       <c r="D7" s="2">
-        <f>$K$1+$M7+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>8.15</v>
+        <f t="shared" ref="D7:D18" si="2">$K$1+$M7+0.5*($J$5*$M$1+$G$5*$M$2)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E7">
-        <f>$K$1+$L7+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>0.30000000000000071</v>
+        <f t="shared" ref="E7:E18" si="3">$K$1+$L7+$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <v>3.5999999999999996</v>
       </c>
       <c r="F7">
-        <f>$K$1+$L7-$J$5*$M$1+$G$5*$M$2</f>
-        <v>-2.2999999999999998</v>
+        <f t="shared" ref="F7:F18" si="4">$K$1+$L7-$J$5*$M$1+$G$5*$M$2</f>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="G7">
-        <f>$K$1+$L7-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>3.7</v>
+        <f t="shared" ref="G7:G18" si="5">$K$1+$L7-$J$5*$M$1+$G$5*$M$2+$M$4</f>
+        <v>1.4000000000000004</v>
       </c>
       <c r="H7" s="2">
-        <f>$K$1+$M7-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>5.35</v>
+        <f t="shared" ref="H7:H18" si="6">$K$1+$M7-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
+        <v>4.2</v>
       </c>
       <c r="I7">
-        <f>$K$1+$L7-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-5.3</v>
+        <f t="shared" ref="I7:I18" si="7">$K$1+$L7-$J$5*$M$1+$G$5*$M$2-$K$4</f>
+        <v>-7.6</v>
       </c>
       <c r="L7">
         <v>-5</v>
       </c>
       <c r="M7" s="3">
-        <f>+($L7*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" ref="M7:M18" si="8">+($L7*$M$3+$K$3*(1-$M$3))</f>
         <v>-2</v>
       </c>
     </row>
@@ -7203,42 +7121,42 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f>$K$1+$L8+$J$5*$M$1+$G$5*$M$2</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>11.600000000000001</v>
       </c>
       <c r="C8">
-        <f>$K$1+$L8+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>14.3</v>
+        <f t="shared" si="1"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="D8" s="2">
-        <f>$K$1+$M8+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>10.65</v>
+        <f t="shared" si="2"/>
+        <v>12.3</v>
       </c>
       <c r="E8">
-        <f>$K$1+$L8+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>5.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>8.6000000000000014</v>
       </c>
       <c r="F8">
-        <f>$K$1+$L8-$J$5*$M$1+$G$5*$M$2</f>
-        <v>2.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="G8">
-        <f>$K$1+$L8-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="5"/>
+        <v>6.4</v>
       </c>
       <c r="H8" s="2">
-        <f>$K$1+$M8-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>7.85</v>
+        <f t="shared" si="6"/>
+        <v>6.6999999999999993</v>
       </c>
       <c r="I8">
-        <f>$K$1+$L8-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-0.30000000000000071</v>
+        <f t="shared" si="7"/>
+        <v>-2.5999999999999996</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <f>+($L8*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -7247,42 +7165,42 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f>$K$1+$L9+$J$5*$M$1+$G$5*$M$2</f>
-        <v>10.3</v>
+        <f t="shared" si="0"/>
+        <v>13.600000000000001</v>
       </c>
       <c r="C9">
-        <f>$K$1+$L9+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>16.3</v>
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
       </c>
       <c r="D9" s="2">
-        <f>$K$1+$M9+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>11.65</v>
+        <f t="shared" si="2"/>
+        <v>13.3</v>
       </c>
       <c r="E9">
-        <f>$K$1+$L9+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>7.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>10.600000000000001</v>
       </c>
       <c r="F9">
-        <f>$K$1+$L9-$J$5*$M$1+$G$5*$M$2</f>
-        <v>4.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="G9">
-        <f>$K$1+$L9-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>10.7</v>
+        <f t="shared" si="5"/>
+        <v>8.4</v>
       </c>
       <c r="H9" s="2">
-        <f>$K$1+$M9-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>8.85</v>
+        <f t="shared" si="6"/>
+        <v>7.6999999999999993</v>
       </c>
       <c r="I9">
-        <f>$K$1+$L9-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>1.6999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" s="3">
-        <f>+($L9*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -7291,42 +7209,42 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>$K$1+$L10+$J$5*$M$1+$G$5*$M$2</f>
-        <v>12.3</v>
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
       </c>
       <c r="C10">
-        <f>$K$1+$L10+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>18.3</v>
+        <f t="shared" si="1"/>
+        <v>21.6</v>
       </c>
       <c r="D10" s="2">
-        <f>$K$1+$M10+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>12.65</v>
+        <f t="shared" si="2"/>
+        <v>14.3</v>
       </c>
       <c r="E10">
-        <f>$K$1+$L10+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>12.600000000000001</v>
       </c>
       <c r="F10">
-        <f>$K$1+$L10-$J$5*$M$1+$G$5*$M$2</f>
-        <v>6.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G10">
-        <f>$K$1+$L10-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>12.7</v>
+        <f t="shared" si="5"/>
+        <v>10.4</v>
       </c>
       <c r="H10" s="2">
-        <f>$K$1+$M10-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>9.85</v>
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I10">
-        <f>$K$1+$L10-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>3.6999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" s="3">
-        <f>+($L10*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -7335,42 +7253,42 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>$K$1+$L11+$J$5*$M$1+$G$5*$M$2</f>
-        <v>14.3</v>
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="C11">
-        <f>$K$1+$L11+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>20.3</v>
+        <f t="shared" si="1"/>
+        <v>23.6</v>
       </c>
       <c r="D11" s="2">
-        <f>$K$1+$M11+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>13.65</v>
+        <f t="shared" si="2"/>
+        <v>15.3</v>
       </c>
       <c r="E11">
-        <f>$K$1+$L11+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>11.3</v>
+        <f t="shared" si="3"/>
+        <v>14.600000000000001</v>
       </c>
       <c r="F11">
-        <f>$K$1+$L11-$J$5*$M$1+$G$5*$M$2</f>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>6.4</v>
       </c>
       <c r="G11">
-        <f>$K$1+$L11-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>14.7</v>
+        <f t="shared" si="5"/>
+        <v>12.4</v>
       </c>
       <c r="H11" s="2">
-        <f>$K$1+$M11-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>10.85</v>
+        <f t="shared" si="6"/>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I11">
-        <f>$K$1+$L11-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>5.6999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>3.4000000000000004</v>
       </c>
       <c r="L11">
         <v>6</v>
       </c>
       <c r="M11" s="3">
-        <f>+($L11*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
     </row>
@@ -7379,42 +7297,42 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>$K$1+$L12+$J$5*$M$1+$G$5*$M$2</f>
-        <v>12.3</v>
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
       </c>
       <c r="C12">
-        <f>$K$1+$L12+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>18.3</v>
+        <f t="shared" si="1"/>
+        <v>21.6</v>
       </c>
       <c r="D12" s="2">
-        <f>$K$1+$M12+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>12.65</v>
+        <f t="shared" si="2"/>
+        <v>14.3</v>
       </c>
       <c r="E12">
-        <f>$K$1+$L12+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>12.600000000000001</v>
       </c>
       <c r="F12">
-        <f>$K$1+$L12-$J$5*$M$1+$G$5*$M$2</f>
-        <v>6.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G12">
-        <f>$K$1+$L12-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>12.7</v>
+        <f t="shared" si="5"/>
+        <v>10.4</v>
       </c>
       <c r="H12" s="2">
-        <f>$K$1+$M12-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>9.85</v>
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I12">
-        <f>$K$1+$L12-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>3.6999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>1.4000000000000004</v>
       </c>
       <c r="L12">
         <v>4</v>
       </c>
       <c r="M12" s="3">
-        <f>+($L12*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -7423,42 +7341,42 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f>$K$1+$L13+$J$5*$M$1+$G$5*$M$2</f>
-        <v>10.3</v>
+        <f t="shared" si="0"/>
+        <v>13.600000000000001</v>
       </c>
       <c r="C13">
-        <f>$K$1+$L13+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>16.3</v>
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
       </c>
       <c r="D13" s="2">
-        <f>$K$1+$M13+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>11.65</v>
+        <f t="shared" si="2"/>
+        <v>13.3</v>
       </c>
       <c r="E13">
-        <f>$K$1+$L13+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>7.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>10.600000000000001</v>
       </c>
       <c r="F13">
-        <f>$K$1+$L13-$J$5*$M$1+$G$5*$M$2</f>
-        <v>4.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="G13">
-        <f>$K$1+$L13-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>10.7</v>
+        <f t="shared" si="5"/>
+        <v>8.4</v>
       </c>
       <c r="H13" s="2">
-        <f>$K$1+$M13-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>8.85</v>
+        <f t="shared" si="6"/>
+        <v>7.6999999999999993</v>
       </c>
       <c r="I13">
-        <f>$K$1+$L13-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>1.6999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" s="3">
-        <f>+($L13*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -7467,42 +7385,42 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <f>$K$1+$L14+$J$5*$M$1+$G$5*$M$2</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>11.600000000000001</v>
       </c>
       <c r="C14">
-        <f>$K$1+$L14+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>14.3</v>
+        <f t="shared" si="1"/>
+        <v>17.600000000000001</v>
       </c>
       <c r="D14" s="2">
-        <f>$K$1+$M14+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>10.65</v>
+        <f t="shared" si="2"/>
+        <v>12.3</v>
       </c>
       <c r="E14">
-        <f>$K$1+$L14+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>5.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>8.6000000000000014</v>
       </c>
       <c r="F14">
-        <f>$K$1+$L14-$J$5*$M$1+$G$5*$M$2</f>
-        <v>2.6999999999999993</v>
+        <f t="shared" si="4"/>
+        <v>0.40000000000000036</v>
       </c>
       <c r="G14">
-        <f>$K$1+$L14-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>8.6999999999999993</v>
+        <f t="shared" si="5"/>
+        <v>6.4</v>
       </c>
       <c r="H14" s="2">
-        <f>$K$1+$M14-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>7.85</v>
+        <f t="shared" si="6"/>
+        <v>6.6999999999999993</v>
       </c>
       <c r="I14">
-        <f>$K$1+$L14-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-0.30000000000000071</v>
+        <f t="shared" si="7"/>
+        <v>-2.5999999999999996</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <f>+($L14*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -7511,42 +7429,42 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <f>$K$1+$L15+$J$5*$M$1+$G$5*$M$2</f>
-        <v>5.3000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>8.6</v>
       </c>
       <c r="C15">
-        <f>$K$1+$L15+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>11.3</v>
+        <f t="shared" si="1"/>
+        <v>14.6</v>
       </c>
       <c r="D15" s="2">
-        <f>$K$1+$M15+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>9.15</v>
+        <f t="shared" si="2"/>
+        <v>10.8</v>
       </c>
       <c r="E15">
-        <f>$K$1+$L15+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>2.3000000000000007</v>
+        <f t="shared" si="3"/>
+        <v>5.6</v>
       </c>
       <c r="F15">
-        <f>$K$1+$L15-$J$5*$M$1+$G$5*$M$2</f>
-        <v>-0.29999999999999982</v>
+        <f t="shared" si="4"/>
+        <v>-2.5999999999999996</v>
       </c>
       <c r="G15">
-        <f>$K$1+$L15-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>5.7</v>
+        <f t="shared" si="5"/>
+        <v>3.4000000000000004</v>
       </c>
       <c r="H15" s="2">
-        <f>$K$1+$M15-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>6.35</v>
+        <f t="shared" si="6"/>
+        <v>5.1999999999999993</v>
       </c>
       <c r="I15">
-        <f>$K$1+$L15-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-3.3</v>
+        <f t="shared" si="7"/>
+        <v>-5.6</v>
       </c>
       <c r="L15">
         <v>-3</v>
       </c>
       <c r="M15" s="3">
-        <f>+($L15*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
     </row>
@@ -7555,42 +7473,42 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <f>$K$1+$L16+$J$5*$M$1+$G$5*$M$2</f>
-        <v>1.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C16">
-        <f>$K$1+$L16+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>7.3</v>
+        <f t="shared" si="1"/>
+        <v>10.6</v>
       </c>
       <c r="D16" s="2">
-        <f>$K$1+$M16+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>7.15</v>
+        <f t="shared" si="2"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E16">
-        <f>$K$1+$L16+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-1.7000000000000002</v>
+        <f t="shared" si="3"/>
+        <v>1.5999999999999996</v>
       </c>
       <c r="F16">
-        <f>$K$1+$L16-$J$5*$M$1+$G$5*$M$2</f>
-        <v>-4.3</v>
+        <f t="shared" si="4"/>
+        <v>-6.6</v>
       </c>
       <c r="G16">
-        <f>$K$1+$L16-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999964</v>
       </c>
       <c r="H16" s="2">
-        <f>$K$1+$M16-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="6"/>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <f>$K$1+$L16-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-7.3</v>
+        <f t="shared" si="7"/>
+        <v>-9.6</v>
       </c>
       <c r="L16">
         <v>-7</v>
       </c>
       <c r="M16" s="3">
-        <f>+($L16*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
     </row>
@@ -7599,42 +7517,42 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <f>$K$1+$L17+$J$5*$M$1+$G$5*$M$2</f>
-        <v>-6.7</v>
+        <f t="shared" si="0"/>
+        <v>-3.4000000000000004</v>
       </c>
       <c r="C17">
-        <f>$K$1+$L17+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>-0.70000000000000018</v>
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
       </c>
       <c r="D17" s="2">
-        <f>$K$1+$M17+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>3.15</v>
+        <f t="shared" si="2"/>
+        <v>4.8</v>
       </c>
       <c r="E17">
-        <f>$K$1+$L17+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-9.6999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>-6.4</v>
       </c>
       <c r="F17">
-        <f>$K$1+$L17-$J$5*$M$1+$G$5*$M$2</f>
-        <v>-12.3</v>
+        <f t="shared" si="4"/>
+        <v>-14.6</v>
       </c>
       <c r="G17">
-        <f>$K$1+$L17-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>-6.3000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>-8.6</v>
       </c>
       <c r="H17" s="2">
-        <f>$K$1+$M17-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="6"/>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="I17">
-        <f>$K$1+$L17-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-15.3</v>
+        <f t="shared" si="7"/>
+        <v>-17.600000000000001</v>
       </c>
       <c r="L17">
         <v>-15</v>
       </c>
       <c r="M17" s="3">
-        <f>+($L17*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-7</v>
       </c>
     </row>
@@ -7643,42 +7561,42 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <f>$K$1+$L18+$J$5*$M$1+$G$5*$M$2</f>
-        <v>-1.7000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.5999999999999996</v>
       </c>
       <c r="C18">
-        <f>$K$1+$L18+$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>4.3</v>
+        <f t="shared" si="1"/>
+        <v>7.6</v>
       </c>
       <c r="D18" s="2">
-        <f>$K$1+$M18+0.5*($J$5*$M$1+$G$5*$M$2)</f>
-        <v>5.65</v>
+        <f t="shared" si="2"/>
+        <v>7.3</v>
       </c>
       <c r="E18">
-        <f>$K$1+$L18+$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-4.7</v>
+        <f t="shared" si="3"/>
+        <v>-1.4000000000000004</v>
       </c>
       <c r="F18">
-        <f>$K$1+$L18-$J$5*$M$1+$G$5*$M$2</f>
-        <v>-7.3</v>
+        <f t="shared" si="4"/>
+        <v>-9.6</v>
       </c>
       <c r="G18">
-        <f>$K$1+$L18-$J$5*$M$1+$G$5*$M$2+$M$4</f>
-        <v>-1.2999999999999998</v>
+        <f t="shared" si="5"/>
+        <v>-3.5999999999999996</v>
       </c>
       <c r="H18" s="2">
-        <f>$K$1+$M18-$J$5*$M$1*0.5+$G$5*$M$2*0.5</f>
-        <v>2.8499999999999996</v>
+        <f t="shared" si="6"/>
+        <v>1.7000000000000002</v>
       </c>
       <c r="I18">
-        <f>$K$1+$L18-$J$5*$M$1+$G$5*$M$2-$K$4</f>
-        <v>-10.3</v>
+        <f t="shared" si="7"/>
+        <v>-12.6</v>
       </c>
       <c r="L18">
         <v>-10</v>
       </c>
       <c r="M18" s="3">
-        <f>+($L18*$M$3+$K$3*(1-$M$3))</f>
+        <f t="shared" si="8"/>
         <v>-4.5</v>
       </c>
     </row>
@@ -7749,36 +7667,36 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <f>$K$1+$L7+$J$20*$M$1+$G$20*$M$2</f>
-        <v>4.6679629629629629</v>
+        <f t="shared" ref="B22:B33" si="9">$K$1+$L7+$J$20*$M$1+$G$20*$M$2</f>
+        <v>6.745925925925925</v>
       </c>
       <c r="C22" s="2">
-        <f>$K$1+$L7+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>10.667962962962964</v>
+        <f t="shared" ref="C22:C33" si="10">$K$1+$L7+$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <v>12.745925925925924</v>
       </c>
       <c r="D22" s="2">
-        <f>$K$1+$M7+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>8.8339814814814819</v>
+        <f t="shared" ref="D22:D33" si="11">$K$1+$M7+0.5*($J$20*$M$1+$G$20*$M$2)</f>
+        <v>9.8729629629629621</v>
       </c>
       <c r="E22" s="2">
-        <f>$K$1+$L7+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>1.6679629629629629</v>
+        <f t="shared" ref="E22:E33" si="12">$K$1+$L7+$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <v>3.745925925925925</v>
       </c>
       <c r="F22" s="2">
-        <f>$K$1+$L7-$J$20*$M$1+$G$20*$M$2</f>
-        <v>1.1420370370370376</v>
+        <f t="shared" ref="F22:F33" si="13">$K$1+$L7-$J$20*$M$1+$G$20*$M$2</f>
+        <v>-0.30592592592592593</v>
       </c>
       <c r="G22" s="2">
-        <f>$K$1+$L7-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>7.1420370370370376</v>
+        <f t="shared" ref="G22:G33" si="14">$K$1+$L7-$J$20*$M$1+$G$20*$M$2+$M$4</f>
+        <v>5.6940740740740736</v>
       </c>
       <c r="H22" s="2">
-        <f>$K$1+$M7-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>7.0710185185185193</v>
+        <f t="shared" ref="H22:H33" si="15">$K$1+$M7-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
+        <v>6.3470370370370368</v>
       </c>
       <c r="I22" s="2">
-        <f>$K$1+$L7-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-1.8579629629629624</v>
+        <f t="shared" ref="I22:I33" si="16">$K$1+$L7-$J$20*$M$1+$G$20*$M$2-$K$4</f>
+        <v>-3.3059259259259259</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -7786,36 +7704,36 @@
         <v>2</v>
       </c>
       <c r="B23" s="2">
-        <f>$K$1+$L8+$J$20*$M$1+$G$20*$M$2</f>
-        <v>9.6679629629629638</v>
+        <f t="shared" si="9"/>
+        <v>11.745925925925924</v>
       </c>
       <c r="C23" s="2">
-        <f>$K$1+$L8+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>15.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>17.745925925925924</v>
       </c>
       <c r="D23" s="2">
-        <f>$K$1+$M8+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>11.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>12.372962962962962</v>
       </c>
       <c r="E23" s="2">
-        <f>$K$1+$L8+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>6.6679629629629638</v>
+        <f t="shared" si="12"/>
+        <v>8.7459259259259241</v>
       </c>
       <c r="F23" s="2">
-        <f>$K$1+$L8-$J$20*$M$1+$G$20*$M$2</f>
-        <v>6.1420370370370376</v>
+        <f t="shared" si="13"/>
+        <v>4.6940740740740745</v>
       </c>
       <c r="G23" s="2">
-        <f>$K$1+$L8-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>12.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>10.694074074074074</v>
       </c>
       <c r="H23" s="2">
-        <f>$K$1+$M8-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>9.5710185185185193</v>
+        <f t="shared" si="15"/>
+        <v>8.8470370370370368</v>
       </c>
       <c r="I23" s="2">
-        <f>$K$1+$L8-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>3.1420370370370376</v>
+        <f t="shared" si="16"/>
+        <v>1.6940740740740745</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -7823,36 +7741,36 @@
         <v>3</v>
       </c>
       <c r="B24" s="2">
-        <f>$K$1+$L9+$J$20*$M$1+$G$20*$M$2</f>
-        <v>11.667962962962964</v>
+        <f t="shared" si="9"/>
+        <v>13.745925925925924</v>
       </c>
       <c r="C24" s="2">
-        <f>$K$1+$L9+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>17.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>19.745925925925924</v>
       </c>
       <c r="D24" s="2">
-        <f>$K$1+$M9+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>12.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>13.372962962962962</v>
       </c>
       <c r="E24" s="2">
-        <f>$K$1+$L9+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>8.6679629629629638</v>
+        <f t="shared" si="12"/>
+        <v>10.745925925925924</v>
       </c>
       <c r="F24" s="2">
-        <f>$K$1+$L9-$J$20*$M$1+$G$20*$M$2</f>
-        <v>8.1420370370370385</v>
+        <f t="shared" si="13"/>
+        <v>6.6940740740740745</v>
       </c>
       <c r="G24" s="2">
-        <f>$K$1+$L9-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>14.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>12.694074074074074</v>
       </c>
       <c r="H24" s="2">
-        <f>$K$1+$M9-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>10.571018518518519</v>
+        <f t="shared" si="15"/>
+        <v>9.8470370370370368</v>
       </c>
       <c r="I24" s="2">
-        <f>$K$1+$L9-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>5.1420370370370385</v>
+        <f t="shared" si="16"/>
+        <v>3.6940740740740745</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -7860,36 +7778,36 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <f>$K$1+$L10+$J$20*$M$1+$G$20*$M$2</f>
-        <v>13.667962962962964</v>
+        <f t="shared" si="9"/>
+        <v>15.745925925925924</v>
       </c>
       <c r="C25" s="2">
-        <f>$K$1+$L10+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>19.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>21.745925925925924</v>
       </c>
       <c r="D25" s="2">
-        <f>$K$1+$M10+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>13.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>14.372962962962962</v>
       </c>
       <c r="E25" s="2">
-        <f>$K$1+$L10+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>10.667962962962964</v>
+        <f t="shared" si="12"/>
+        <v>12.745925925925924</v>
       </c>
       <c r="F25" s="2">
-        <f>$K$1+$L10-$J$20*$M$1+$G$20*$M$2</f>
-        <v>10.142037037037039</v>
+        <f t="shared" si="13"/>
+        <v>8.6940740740740736</v>
       </c>
       <c r="G25" s="2">
-        <f>$K$1+$L10-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>16.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>14.694074074074074</v>
       </c>
       <c r="H25" s="2">
-        <f>$K$1+$M10-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>11.571018518518519</v>
+        <f t="shared" si="15"/>
+        <v>10.847037037037037</v>
       </c>
       <c r="I25" s="2">
-        <f>$K$1+$L10-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>7.1420370370370385</v>
+        <f t="shared" si="16"/>
+        <v>5.6940740740740736</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -7897,36 +7815,36 @@
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <f>$K$1+$L11+$J$20*$M$1+$G$20*$M$2</f>
-        <v>15.667962962962964</v>
+        <f t="shared" si="9"/>
+        <v>17.745925925925924</v>
       </c>
       <c r="C26" s="2">
-        <f>$K$1+$L11+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>21.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>23.745925925925924</v>
       </c>
       <c r="D26" s="2">
-        <f>$K$1+$M11+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>14.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>15.372962962962962</v>
       </c>
       <c r="E26" s="2">
-        <f>$K$1+$L11+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>12.667962962962964</v>
+        <f t="shared" si="12"/>
+        <v>14.745925925925924</v>
       </c>
       <c r="F26" s="2">
-        <f>$K$1+$L11-$J$20*$M$1+$G$20*$M$2</f>
-        <v>12.142037037037039</v>
+        <f t="shared" si="13"/>
+        <v>10.694074074074074</v>
       </c>
       <c r="G26" s="2">
-        <f>$K$1+$L11-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>18.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>16.694074074074074</v>
       </c>
       <c r="H26" s="2">
-        <f>$K$1+$M11-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>12.571018518518519</v>
+        <f t="shared" si="15"/>
+        <v>11.847037037037037</v>
       </c>
       <c r="I26" s="2">
-        <f>$K$1+$L11-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>9.1420370370370385</v>
+        <f t="shared" si="16"/>
+        <v>7.6940740740740736</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -7934,36 +7852,36 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <f>$K$1+$L12+$J$20*$M$1+$G$20*$M$2</f>
-        <v>13.667962962962964</v>
+        <f t="shared" si="9"/>
+        <v>15.745925925925924</v>
       </c>
       <c r="C27" s="2">
-        <f>$K$1+$L12+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>19.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>21.745925925925924</v>
       </c>
       <c r="D27" s="2">
-        <f>$K$1+$M12+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>13.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>14.372962962962962</v>
       </c>
       <c r="E27" s="2">
-        <f>$K$1+$L12+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>10.667962962962964</v>
+        <f t="shared" si="12"/>
+        <v>12.745925925925924</v>
       </c>
       <c r="F27" s="2">
-        <f>$K$1+$L12-$J$20*$M$1+$G$20*$M$2</f>
-        <v>10.142037037037039</v>
+        <f t="shared" si="13"/>
+        <v>8.6940740740740736</v>
       </c>
       <c r="G27" s="2">
-        <f>$K$1+$L12-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>16.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>14.694074074074074</v>
       </c>
       <c r="H27" s="2">
-        <f>$K$1+$M12-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>11.571018518518519</v>
+        <f t="shared" si="15"/>
+        <v>10.847037037037037</v>
       </c>
       <c r="I27" s="2">
-        <f>$K$1+$L12-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>7.1420370370370385</v>
+        <f t="shared" si="16"/>
+        <v>5.6940740740740736</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -7971,36 +7889,36 @@
         <v>7</v>
       </c>
       <c r="B28" s="2">
-        <f>$K$1+$L13+$J$20*$M$1+$G$20*$M$2</f>
-        <v>11.667962962962964</v>
+        <f t="shared" si="9"/>
+        <v>13.745925925925924</v>
       </c>
       <c r="C28" s="2">
-        <f>$K$1+$L13+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>17.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>19.745925925925924</v>
       </c>
       <c r="D28" s="2">
-        <f>$K$1+$M13+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>12.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>13.372962962962962</v>
       </c>
       <c r="E28" s="2">
-        <f>$K$1+$L13+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>8.6679629629629638</v>
+        <f t="shared" si="12"/>
+        <v>10.745925925925924</v>
       </c>
       <c r="F28" s="2">
-        <f>$K$1+$L13-$J$20*$M$1+$G$20*$M$2</f>
-        <v>8.1420370370370385</v>
+        <f t="shared" si="13"/>
+        <v>6.6940740740740745</v>
       </c>
       <c r="G28" s="2">
-        <f>$K$1+$L13-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>14.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>12.694074074074074</v>
       </c>
       <c r="H28" s="2">
-        <f>$K$1+$M13-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>10.571018518518519</v>
+        <f t="shared" si="15"/>
+        <v>9.8470370370370368</v>
       </c>
       <c r="I28" s="2">
-        <f>$K$1+$L13-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>5.1420370370370385</v>
+        <f t="shared" si="16"/>
+        <v>3.6940740740740745</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -8008,36 +7926,36 @@
         <v>8</v>
       </c>
       <c r="B29" s="2">
-        <f>$K$1+$L14+$J$20*$M$1+$G$20*$M$2</f>
-        <v>9.6679629629629638</v>
+        <f t="shared" si="9"/>
+        <v>11.745925925925924</v>
       </c>
       <c r="C29" s="2">
-        <f>$K$1+$L14+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>15.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>17.745925925925924</v>
       </c>
       <c r="D29" s="2">
-        <f>$K$1+$M14+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>11.333981481481482</v>
+        <f t="shared" si="11"/>
+        <v>12.372962962962962</v>
       </c>
       <c r="E29" s="2">
-        <f>$K$1+$L14+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>6.6679629629629638</v>
+        <f t="shared" si="12"/>
+        <v>8.7459259259259241</v>
       </c>
       <c r="F29" s="2">
-        <f>$K$1+$L14-$J$20*$M$1+$G$20*$M$2</f>
-        <v>6.1420370370370376</v>
+        <f t="shared" si="13"/>
+        <v>4.6940740740740745</v>
       </c>
       <c r="G29" s="2">
-        <f>$K$1+$L14-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>12.142037037037039</v>
+        <f t="shared" si="14"/>
+        <v>10.694074074074074</v>
       </c>
       <c r="H29" s="2">
-        <f>$K$1+$M14-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>9.5710185185185193</v>
+        <f t="shared" si="15"/>
+        <v>8.8470370370370368</v>
       </c>
       <c r="I29" s="2">
-        <f>$K$1+$L14-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>3.1420370370370376</v>
+        <f t="shared" si="16"/>
+        <v>1.6940740740740745</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -8045,36 +7963,36 @@
         <v>9</v>
       </c>
       <c r="B30" s="2">
-        <f>$K$1+$L15+$J$20*$M$1+$G$20*$M$2</f>
-        <v>6.6679629629629629</v>
+        <f t="shared" si="9"/>
+        <v>8.7459259259259241</v>
       </c>
       <c r="C30" s="2">
-        <f>$K$1+$L15+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>12.667962962962964</v>
+        <f t="shared" si="10"/>
+        <v>14.745925925925924</v>
       </c>
       <c r="D30" s="2">
-        <f>$K$1+$M15+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>9.8339814814814819</v>
+        <f t="shared" si="11"/>
+        <v>10.872962962962962</v>
       </c>
       <c r="E30" s="2">
-        <f>$K$1+$L15+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>3.6679629629629629</v>
+        <f t="shared" si="12"/>
+        <v>5.7459259259259241</v>
       </c>
       <c r="F30" s="2">
-        <f>$K$1+$L15-$J$20*$M$1+$G$20*$M$2</f>
-        <v>3.1420370370370376</v>
+        <f t="shared" si="13"/>
+        <v>1.6940740740740745</v>
       </c>
       <c r="G30" s="2">
-        <f>$K$1+$L15-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>9.1420370370370385</v>
+        <f t="shared" si="14"/>
+        <v>7.6940740740740745</v>
       </c>
       <c r="H30" s="2">
-        <f>$K$1+$M15-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>8.0710185185185193</v>
+        <f t="shared" si="15"/>
+        <v>7.3470370370370368</v>
       </c>
       <c r="I30" s="2">
-        <f>$K$1+$L15-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>0.14203703703703763</v>
+        <f t="shared" si="16"/>
+        <v>-1.3059259259259255</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -8082,36 +8000,36 @@
         <v>10</v>
       </c>
       <c r="B31" s="2">
-        <f>$K$1+$L16+$J$20*$M$1+$G$20*$M$2</f>
-        <v>2.6679629629629629</v>
+        <f t="shared" si="9"/>
+        <v>4.745925925925925</v>
       </c>
       <c r="C31" s="2">
-        <f>$K$1+$L16+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>8.6679629629629638</v>
+        <f t="shared" si="10"/>
+        <v>10.745925925925924</v>
       </c>
       <c r="D31" s="2">
-        <f>$K$1+$M16+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>7.8339814814814819</v>
+        <f t="shared" si="11"/>
+        <v>8.8729629629629621</v>
       </c>
       <c r="E31" s="2">
-        <f>$K$1+$L16+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-0.33203703703703713</v>
+        <f t="shared" si="12"/>
+        <v>1.745925925925925</v>
       </c>
       <c r="F31" s="2">
-        <f>$K$1+$L16-$J$20*$M$1+$G$20*$M$2</f>
-        <v>-0.85796296296296237</v>
+        <f t="shared" si="13"/>
+        <v>-2.3059259259259259</v>
       </c>
       <c r="G31" s="2">
-        <f>$K$1+$L16-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>5.1420370370370376</v>
+        <f t="shared" si="14"/>
+        <v>3.6940740740740741</v>
       </c>
       <c r="H31" s="2">
-        <f>$K$1+$M16-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>6.0710185185185193</v>
+        <f t="shared" si="15"/>
+        <v>5.3470370370370368</v>
       </c>
       <c r="I31" s="2">
-        <f>$K$1+$L16-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-3.8579629629629624</v>
+        <f t="shared" si="16"/>
+        <v>-5.3059259259259264</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -8119,36 +8037,36 @@
         <v>11</v>
       </c>
       <c r="B32" s="2">
-        <f>$K$1+$L17+$J$20*$M$1+$G$20*$M$2</f>
-        <v>-5.3320370370370371</v>
+        <f t="shared" si="9"/>
+        <v>-3.2540740740740746</v>
       </c>
       <c r="C32" s="2">
-        <f>$K$1+$L17+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>0.66796296296296287</v>
+        <f t="shared" si="10"/>
+        <v>2.7459259259259254</v>
       </c>
       <c r="D32" s="2">
-        <f>$K$1+$M17+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>3.8339814814814814</v>
+        <f t="shared" si="11"/>
+        <v>4.8729629629629629</v>
       </c>
       <c r="E32" s="2">
-        <f>$K$1+$L17+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-8.3320370370370362</v>
+        <f t="shared" si="12"/>
+        <v>-6.2540740740740741</v>
       </c>
       <c r="F32" s="2">
-        <f>$K$1+$L17-$J$20*$M$1+$G$20*$M$2</f>
-        <v>-8.8579629629629615</v>
+        <f t="shared" si="13"/>
+        <v>-10.305925925925926</v>
       </c>
       <c r="G32" s="2">
-        <f>$K$1+$L17-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>-2.8579629629629615</v>
+        <f t="shared" si="14"/>
+        <v>-4.3059259259259264</v>
       </c>
       <c r="H32" s="2">
-        <f>$K$1+$M17-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>2.0710185185185188</v>
+        <f t="shared" si="15"/>
+        <v>1.3470370370370373</v>
       </c>
       <c r="I32" s="2">
-        <f>$K$1+$L17-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-11.857962962962961</v>
+        <f t="shared" si="16"/>
+        <v>-13.305925925925926</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -8156,36 +8074,36 @@
         <v>12</v>
       </c>
       <c r="B33" s="2">
-        <f>$K$1+$L18+$J$20*$M$1+$G$20*$M$2</f>
-        <v>-0.33203703703703713</v>
+        <f t="shared" si="9"/>
+        <v>1.745925925925925</v>
       </c>
       <c r="C33" s="2">
-        <f>$K$1+$L18+$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>5.6679629629629629</v>
+        <f t="shared" si="10"/>
+        <v>7.745925925925925</v>
       </c>
       <c r="D33" s="2">
-        <f>$K$1+$M18+0.5*($J$20*$M$1+$G$20*$M$2)</f>
-        <v>6.3339814814814819</v>
+        <f t="shared" si="11"/>
+        <v>7.3729629629629629</v>
       </c>
       <c r="E33" s="2">
-        <f>$K$1+$L18+$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-3.3320370370370371</v>
+        <f t="shared" si="12"/>
+        <v>-1.254074074074075</v>
       </c>
       <c r="F33" s="2">
-        <f>$K$1+$L18-$J$20*$M$1+$G$20*$M$2</f>
-        <v>-3.8579629629629624</v>
+        <f t="shared" si="13"/>
+        <v>-5.3059259259259264</v>
       </c>
       <c r="G33" s="2">
-        <f>$K$1+$L18-$J$20*$M$1+$G$20*$M$2+$M$4</f>
-        <v>2.1420370370370376</v>
+        <f t="shared" si="14"/>
+        <v>0.69407407407407362</v>
       </c>
       <c r="H33" s="2">
-        <f>$K$1+$M18-$J$20*$M$1*0.5+$G$20*$M$2*0.5</f>
-        <v>4.5710185185185193</v>
+        <f t="shared" si="15"/>
+        <v>3.8470370370370373</v>
       </c>
       <c r="I33" s="2">
-        <f>$K$1+$L18-$J$20*$M$1+$G$20*$M$2-$K$4</f>
-        <v>-6.8579629629629624</v>
+        <f t="shared" si="16"/>
+        <v>-8.3059259259259264</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -8221,7 +8139,7 @@
         <v>5.1851851851851767E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -8255,36 +8173,36 @@
         <v>1</v>
       </c>
       <c r="B37" s="4">
-        <f>$K$1+$L7+$J$35*$M$1+$G$35*$M$2</f>
-        <v>7.3442037037037036</v>
+        <f t="shared" ref="B37:B48" si="17">$K$1+$L7+$J$35*$M$1+$G$35*$M$2</f>
+        <v>7.4294074074074068</v>
       </c>
       <c r="C37" s="4">
-        <f>$K$1+$L7+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>13.344203703703704</v>
+        <f t="shared" ref="C37:C48" si="18">$K$1+$L7+$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <v>13.429407407407407</v>
       </c>
       <c r="D37" s="4">
-        <f>$K$1+$M7+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>10.172101851851851</v>
+        <f t="shared" ref="D37:D48" si="19">$K$1+$M7+0.5*($J$35*$M$1+$G$35*$M$2)</f>
+        <v>10.214703703703703</v>
       </c>
       <c r="E37" s="4">
-        <f>$K$1+$L7+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>4.3442037037037036</v>
+        <f t="shared" ref="E37:E48" si="20">$K$1+$L7+$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <v>4.4294074074074068</v>
       </c>
       <c r="F37" s="4">
-        <f>$K$1+$L7-$J$35*$M$1+$G$35*$M$2</f>
-        <v>7.1367962962962963</v>
+        <f t="shared" ref="F37:F48" si="21">$K$1+$L7-$J$35*$M$1+$G$35*$M$2</f>
+        <v>7.0145925925925923</v>
       </c>
       <c r="G37" s="4">
-        <f>$K$1+$L7-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>13.136796296296296</v>
+        <f t="shared" ref="G37:G48" si="22">$K$1+$L7-$J$35*$M$1+$G$35*$M$2+$M$4</f>
+        <v>13.014592592592592</v>
       </c>
       <c r="H37" s="4">
-        <f>$K$1+$M7-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>10.068398148148148</v>
+        <f t="shared" ref="H37:H48" si="23">$K$1+$M7-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
+        <v>10.007296296296298</v>
       </c>
       <c r="I37" s="4">
-        <f>$K$1+$L7-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>4.1367962962962963</v>
+        <f t="shared" ref="I37:I48" si="24">$K$1+$L7-$J$35*$M$1+$G$35*$M$2-$K$4</f>
+        <v>4.0145925925925923</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -8292,36 +8210,36 @@
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f>$K$1+$L8+$J$35*$M$1+$G$35*$M$2</f>
-        <v>12.344203703703704</v>
+        <f t="shared" si="17"/>
+        <v>12.429407407407407</v>
       </c>
       <c r="C38" s="4">
-        <f>$K$1+$L8+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>18.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>18.429407407407407</v>
       </c>
       <c r="D38" s="4">
-        <f>$K$1+$M8+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>12.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>12.714703703703703</v>
       </c>
       <c r="E38" s="4">
-        <f>$K$1+$L8+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>9.3442037037037036</v>
+        <f t="shared" si="20"/>
+        <v>9.4294074074074068</v>
       </c>
       <c r="F38" s="4">
-        <f>$K$1+$L8-$J$35*$M$1+$G$35*$M$2</f>
-        <v>12.136796296296298</v>
+        <f t="shared" si="21"/>
+        <v>12.014592592592592</v>
       </c>
       <c r="G38" s="4">
-        <f>$K$1+$L8-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>18.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>18.014592592592592</v>
       </c>
       <c r="H38" s="4">
-        <f>$K$1+$M8-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>12.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>12.507296296296298</v>
       </c>
       <c r="I38" s="4">
-        <f>$K$1+$L8-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>9.1367962962962981</v>
+        <f t="shared" si="24"/>
+        <v>9.0145925925925923</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -8329,36 +8247,36 @@
         <v>3</v>
       </c>
       <c r="B39" s="4">
-        <f>$K$1+$L9+$J$35*$M$1+$G$35*$M$2</f>
-        <v>14.344203703703704</v>
+        <f t="shared" si="17"/>
+        <v>14.429407407407407</v>
       </c>
       <c r="C39" s="4">
-        <f>$K$1+$L9+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>20.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>20.429407407407407</v>
       </c>
       <c r="D39" s="4">
-        <f>$K$1+$M9+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>13.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>13.714703703703703</v>
       </c>
       <c r="E39" s="4">
-        <f>$K$1+$L9+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>11.344203703703704</v>
+        <f t="shared" si="20"/>
+        <v>11.429407407407407</v>
       </c>
       <c r="F39" s="4">
-        <f>$K$1+$L9-$J$35*$M$1+$G$35*$M$2</f>
-        <v>14.136796296296298</v>
+        <f t="shared" si="21"/>
+        <v>14.014592592592592</v>
       </c>
       <c r="G39" s="4">
-        <f>$K$1+$L9-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>20.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>20.014592592592592</v>
       </c>
       <c r="H39" s="4">
-        <f>$K$1+$M9-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>13.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>13.507296296296298</v>
       </c>
       <c r="I39" s="4">
-        <f>$K$1+$L9-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>11.136796296296298</v>
+        <f t="shared" si="24"/>
+        <v>11.014592592592592</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -8366,36 +8284,36 @@
         <v>4</v>
       </c>
       <c r="B40" s="4">
-        <f>$K$1+$L10+$J$35*$M$1+$G$35*$M$2</f>
-        <v>16.344203703703705</v>
+        <f t="shared" si="17"/>
+        <v>16.429407407407407</v>
       </c>
       <c r="C40" s="4">
-        <f>$K$1+$L10+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>22.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>22.429407407407407</v>
       </c>
       <c r="D40" s="4">
-        <f>$K$1+$M10+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>14.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>14.714703703703703</v>
       </c>
       <c r="E40" s="4">
-        <f>$K$1+$L10+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>13.344203703703705</v>
+        <f t="shared" si="20"/>
+        <v>13.429407407407407</v>
       </c>
       <c r="F40" s="4">
-        <f>$K$1+$L10-$J$35*$M$1+$G$35*$M$2</f>
-        <v>16.136796296296296</v>
+        <f t="shared" si="21"/>
+        <v>16.014592592592592</v>
       </c>
       <c r="G40" s="4">
-        <f>$K$1+$L10-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>22.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>22.014592592592592</v>
       </c>
       <c r="H40" s="4">
-        <f>$K$1+$M10-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>14.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>14.507296296296298</v>
       </c>
       <c r="I40" s="4">
-        <f>$K$1+$L10-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>13.136796296296296</v>
+        <f t="shared" si="24"/>
+        <v>13.014592592592592</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -8404,35 +8322,35 @@
       </c>
       <c r="B41" s="4">
         <f>$K$1+$L11+$J$35*$M$1+$G$35*$M$2</f>
-        <v>18.344203703703705</v>
+        <v>18.429407407407407</v>
       </c>
       <c r="C41" s="4">
-        <f>$K$1+$L11+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>24.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>24.429407407407407</v>
       </c>
       <c r="D41" s="4">
-        <f>$K$1+$M11+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>15.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>15.714703703703703</v>
       </c>
       <c r="E41" s="4">
-        <f>$K$1+$L11+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>15.344203703703705</v>
+        <f t="shared" si="20"/>
+        <v>15.429407407407407</v>
       </c>
       <c r="F41" s="4">
-        <f>$K$1+$L11-$J$35*$M$1+$G$35*$M$2</f>
-        <v>18.136796296296296</v>
+        <f t="shared" si="21"/>
+        <v>18.014592592592596</v>
       </c>
       <c r="G41" s="4">
-        <f>$K$1+$L11-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>24.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>24.014592592592596</v>
       </c>
       <c r="H41" s="4">
-        <f>$K$1+$M11-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>15.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>15.507296296296298</v>
       </c>
       <c r="I41" s="4">
-        <f>$K$1+$L11-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>15.136796296296296</v>
+        <f t="shared" si="24"/>
+        <v>15.014592592592596</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -8440,36 +8358,36 @@
         <v>6</v>
       </c>
       <c r="B42" s="4">
-        <f>$K$1+$L12+$J$35*$M$1+$G$35*$M$2</f>
-        <v>16.344203703703705</v>
+        <f t="shared" si="17"/>
+        <v>16.429407407407407</v>
       </c>
       <c r="C42" s="4">
-        <f>$K$1+$L12+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>22.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>22.429407407407407</v>
       </c>
       <c r="D42" s="4">
-        <f>$K$1+$M12+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>14.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>14.714703703703703</v>
       </c>
       <c r="E42" s="4">
-        <f>$K$1+$L12+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>13.344203703703705</v>
+        <f t="shared" si="20"/>
+        <v>13.429407407407407</v>
       </c>
       <c r="F42" s="4">
-        <f>$K$1+$L12-$J$35*$M$1+$G$35*$M$2</f>
-        <v>16.136796296296296</v>
+        <f t="shared" si="21"/>
+        <v>16.014592592592592</v>
       </c>
       <c r="G42" s="4">
-        <f>$K$1+$L12-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>22.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>22.014592592592592</v>
       </c>
       <c r="H42" s="4">
-        <f>$K$1+$M12-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>14.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>14.507296296296298</v>
       </c>
       <c r="I42" s="4">
-        <f>$K$1+$L12-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>13.136796296296296</v>
+        <f t="shared" si="24"/>
+        <v>13.014592592592592</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -8477,36 +8395,36 @@
         <v>7</v>
       </c>
       <c r="B43" s="4">
-        <f>$K$1+$L13+$J$35*$M$1+$G$35*$M$2</f>
-        <v>14.344203703703704</v>
+        <f t="shared" si="17"/>
+        <v>14.429407407407407</v>
       </c>
       <c r="C43" s="4">
-        <f>$K$1+$L13+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>20.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>20.429407407407407</v>
       </c>
       <c r="D43" s="4">
-        <f>$K$1+$M13+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>13.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>13.714703703703703</v>
       </c>
       <c r="E43" s="4">
-        <f>$K$1+$L13+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>11.344203703703704</v>
+        <f t="shared" si="20"/>
+        <v>11.429407407407407</v>
       </c>
       <c r="F43" s="4">
-        <f>$K$1+$L13-$J$35*$M$1+$G$35*$M$2</f>
-        <v>14.136796296296298</v>
+        <f t="shared" si="21"/>
+        <v>14.014592592592592</v>
       </c>
       <c r="G43" s="4">
-        <f>$K$1+$L13-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>20.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>20.014592592592592</v>
       </c>
       <c r="H43" s="4">
-        <f>$K$1+$M13-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>13.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>13.507296296296298</v>
       </c>
       <c r="I43" s="4">
-        <f>$K$1+$L13-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>11.136796296296298</v>
+        <f t="shared" si="24"/>
+        <v>11.014592592592592</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -8514,36 +8432,36 @@
         <v>8</v>
       </c>
       <c r="B44" s="4">
-        <f>$K$1+$L14+$J$35*$M$1+$G$35*$M$2</f>
-        <v>12.344203703703704</v>
+        <f t="shared" si="17"/>
+        <v>12.429407407407407</v>
       </c>
       <c r="C44" s="4">
-        <f>$K$1+$L14+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>18.344203703703705</v>
+        <f t="shared" si="18"/>
+        <v>18.429407407407407</v>
       </c>
       <c r="D44" s="4">
-        <f>$K$1+$M14+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>12.672101851851851</v>
+        <f t="shared" si="19"/>
+        <v>12.714703703703703</v>
       </c>
       <c r="E44" s="4">
-        <f>$K$1+$L14+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>9.3442037037037036</v>
+        <f t="shared" si="20"/>
+        <v>9.4294074074074068</v>
       </c>
       <c r="F44" s="4">
-        <f>$K$1+$L14-$J$35*$M$1+$G$35*$M$2</f>
-        <v>12.136796296296298</v>
+        <f t="shared" si="21"/>
+        <v>12.014592592592592</v>
       </c>
       <c r="G44" s="4">
-        <f>$K$1+$L14-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>18.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>18.014592592592592</v>
       </c>
       <c r="H44" s="4">
-        <f>$K$1+$M14-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>12.568398148148148</v>
+        <f t="shared" si="23"/>
+        <v>12.507296296296298</v>
       </c>
       <c r="I44" s="4">
-        <f>$K$1+$L14-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>9.1367962962962981</v>
+        <f t="shared" si="24"/>
+        <v>9.0145925925925923</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -8551,36 +8469,36 @@
         <v>9</v>
       </c>
       <c r="B45" s="4">
-        <f>$K$1+$L15+$J$35*$M$1+$G$35*$M$2</f>
-        <v>9.3442037037037036</v>
+        <f t="shared" si="17"/>
+        <v>9.4294074074074068</v>
       </c>
       <c r="C45" s="4">
-        <f>$K$1+$L15+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>15.344203703703704</v>
+        <f t="shared" si="18"/>
+        <v>15.429407407407407</v>
       </c>
       <c r="D45" s="4">
-        <f>$K$1+$M15+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>11.172101851851851</v>
+        <f t="shared" si="19"/>
+        <v>11.214703703703703</v>
       </c>
       <c r="E45" s="4">
-        <f>$K$1+$L15+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>6.3442037037037036</v>
+        <f t="shared" si="20"/>
+        <v>6.4294074074074068</v>
       </c>
       <c r="F45" s="4">
-        <f>$K$1+$L15-$J$35*$M$1+$G$35*$M$2</f>
-        <v>9.1367962962962981</v>
+        <f t="shared" si="21"/>
+        <v>9.0145925925925923</v>
       </c>
       <c r="G45" s="4">
-        <f>$K$1+$L15-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>15.136796296296298</v>
+        <f t="shared" si="22"/>
+        <v>15.014592592592592</v>
       </c>
       <c r="H45" s="4">
-        <f>$K$1+$M15-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>11.068398148148148</v>
+        <f t="shared" si="23"/>
+        <v>11.007296296296298</v>
       </c>
       <c r="I45" s="4">
-        <f>$K$1+$L15-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>6.1367962962962981</v>
+        <f t="shared" si="24"/>
+        <v>6.0145925925925923</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -8588,36 +8506,36 @@
         <v>10</v>
       </c>
       <c r="B46" s="4">
-        <f>$K$1+$L16+$J$35*$M$1+$G$35*$M$2</f>
-        <v>5.3442037037037036</v>
+        <f t="shared" si="17"/>
+        <v>5.4294074074074068</v>
       </c>
       <c r="C46" s="4">
-        <f>$K$1+$L16+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>11.344203703703704</v>
+        <f t="shared" si="18"/>
+        <v>11.429407407407407</v>
       </c>
       <c r="D46" s="4">
-        <f>$K$1+$M16+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>9.1721018518518509</v>
+        <f t="shared" si="19"/>
+        <v>9.2147037037037034</v>
       </c>
       <c r="E46" s="4">
-        <f>$K$1+$L16+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>2.3442037037037036</v>
+        <f t="shared" si="20"/>
+        <v>2.4294074074074068</v>
       </c>
       <c r="F46" s="4">
-        <f>$K$1+$L16-$J$35*$M$1+$G$35*$M$2</f>
-        <v>5.1367962962962963</v>
+        <f t="shared" si="21"/>
+        <v>5.0145925925925923</v>
       </c>
       <c r="G46" s="4">
-        <f>$K$1+$L16-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>11.136796296296296</v>
+        <f t="shared" si="22"/>
+        <v>11.014592592592592</v>
       </c>
       <c r="H46" s="4">
-        <f>$K$1+$M16-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>9.0683981481481482</v>
+        <f t="shared" si="23"/>
+        <v>9.0072962962962979</v>
       </c>
       <c r="I46" s="4">
-        <f>$K$1+$L16-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>2.1367962962962963</v>
+        <f t="shared" si="24"/>
+        <v>2.0145925925925923</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -8625,36 +8543,36 @@
         <v>11</v>
       </c>
       <c r="B47" s="4">
-        <f>$K$1+$L17+$J$35*$M$1+$G$35*$M$2</f>
-        <v>-2.6557962962962964</v>
+        <f t="shared" si="17"/>
+        <v>-2.5705925925925928</v>
       </c>
       <c r="C47" s="4">
-        <f>$K$1+$L17+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>3.3442037037037036</v>
+        <f t="shared" si="18"/>
+        <v>3.4294074074074072</v>
       </c>
       <c r="D47" s="4">
-        <f>$K$1+$M17+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>5.1721018518518518</v>
+        <f t="shared" si="19"/>
+        <v>5.2147037037037034</v>
       </c>
       <c r="E47" s="4">
-        <f>$K$1+$L17+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>-5.6557962962962964</v>
+        <f t="shared" si="20"/>
+        <v>-5.5705925925925932</v>
       </c>
       <c r="F47" s="4">
-        <f>$K$1+$L17-$J$35*$M$1+$G$35*$M$2</f>
-        <v>-2.8632037037037037</v>
+        <f t="shared" si="21"/>
+        <v>-2.9854074074074073</v>
       </c>
       <c r="G47" s="4">
-        <f>$K$1+$L17-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>3.1367962962962963</v>
+        <f t="shared" si="22"/>
+        <v>3.0145925925925927</v>
       </c>
       <c r="H47" s="4">
-        <f>$K$1+$M17-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>5.068398148148149</v>
+        <f t="shared" si="23"/>
+        <v>5.0072962962962961</v>
       </c>
       <c r="I47" s="4">
-        <f>$K$1+$L17-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>-5.8632037037037037</v>
+        <f t="shared" si="24"/>
+        <v>-5.9854074074074077</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -8662,36 +8580,46 @@
         <v>12</v>
       </c>
       <c r="B48" s="4">
-        <f>$K$1+$L18+$J$35*$M$1+$G$35*$M$2</f>
-        <v>2.3442037037037036</v>
+        <f t="shared" si="17"/>
+        <v>2.4294074074074072</v>
       </c>
       <c r="C48" s="4">
-        <f>$K$1+$L18+$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>8.3442037037037036</v>
+        <f t="shared" si="18"/>
+        <v>8.4294074074074068</v>
       </c>
       <c r="D48" s="4">
-        <f>$K$1+$M18+0.5*($J$35*$M$1+$G$35*$M$2)</f>
-        <v>7.6721018518518518</v>
+        <f t="shared" si="19"/>
+        <v>7.7147037037037034</v>
       </c>
       <c r="E48" s="4">
-        <f>$K$1+$L18+$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>-0.65579629629629643</v>
+        <f t="shared" si="20"/>
+        <v>-0.57059259259259276</v>
       </c>
       <c r="F48" s="4">
-        <f>$K$1+$L18-$J$35*$M$1+$G$35*$M$2</f>
-        <v>2.1367962962962963</v>
+        <f t="shared" si="21"/>
+        <v>2.0145925925925932</v>
       </c>
       <c r="G48" s="4">
-        <f>$K$1+$L18-$J$35*$M$1+$G$35*$M$2+$M$4</f>
-        <v>8.1367962962962963</v>
+        <f t="shared" si="22"/>
+        <v>8.0145925925925923</v>
       </c>
       <c r="H48" s="4">
-        <f>$K$1+$M18-$J$35*$M$1*0.5+$G$35*$M$2*0.5</f>
-        <v>7.568398148148149</v>
+        <f t="shared" si="23"/>
+        <v>7.5072962962962961</v>
       </c>
       <c r="I48" s="4">
-        <f>$K$1+$L18-$J$35*$M$1+$G$35*$M$2-$K$4</f>
-        <v>-0.8632037037037037</v>
+        <f t="shared" si="24"/>
+        <v>-0.98540740740740684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f>$J$35*$M$1</f>
+        <v>0.20740740740740707</v>
+      </c>
+      <c r="D49" s="4">
+        <f>$G$35*$M$2</f>
+        <v>0.22199999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -8727,7 +8655,7 @@
         <v>0.25925925925925913</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -8761,36 +8689,36 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <f>$K$1+$L7+$J$50*$M$1+$G$50*$M$2</f>
-        <v>8.7210185185185178</v>
+        <f t="shared" ref="B52:B63" si="25">$K$1+$L7+$J$50*$M$1+$G$50*$M$2</f>
+        <v>9.1470370370370357</v>
       </c>
       <c r="C52" s="4">
-        <f>$K$1+$L7+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>14.721018518518518</v>
+        <f t="shared" ref="C52:C63" si="26">$K$1+$L7+$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <v>15.147037037037036</v>
       </c>
       <c r="D52" s="4">
-        <f>$K$1+$M7+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>10.86050925925926</v>
+        <f t="shared" ref="D52:D63" si="27">$K$1+$M7+0.5*($J$50*$M$1+$G$50*$M$2)</f>
+        <v>11.073518518518519</v>
       </c>
       <c r="E52" s="4">
-        <f>$K$1+$L7+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>5.7210185185185178</v>
+        <f t="shared" ref="E52:E63" si="28">$K$1+$L7+$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <v>6.1470370370370357</v>
       </c>
       <c r="F52" s="4">
-        <f>$K$1+$L7-$J$50*$M$1+$G$50*$M$2</f>
-        <v>7.6839814814814815</v>
+        <f t="shared" ref="F52:F63" si="29">$K$1+$L7-$J$50*$M$1+$G$50*$M$2</f>
+        <v>7.0729629629629631</v>
       </c>
       <c r="G52" s="4">
-        <f>$K$1+$L7-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>13.683981481481482</v>
+        <f t="shared" ref="G52:G63" si="30">$K$1+$L7-$J$50*$M$1+$G$50*$M$2+$M$4</f>
+        <v>13.072962962962963</v>
       </c>
       <c r="H52" s="4">
-        <f>$K$1+$M7-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>10.341990740740741</v>
+        <f t="shared" ref="H52:H63" si="31">$K$1+$M7-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
+        <v>10.036481481481481</v>
       </c>
       <c r="I52" s="4">
-        <f>$K$1+$L7-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>4.6839814814814815</v>
+        <f t="shared" ref="I52:I63" si="32">$K$1+$L7-$J$50*$M$1+$G$50*$M$2-$K$4</f>
+        <v>4.0729629629629631</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -8798,36 +8726,36 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <f>$K$1+$L8+$J$50*$M$1+$G$50*$M$2</f>
-        <v>13.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>14.147037037037036</v>
       </c>
       <c r="C53" s="4">
-        <f>$K$1+$L8+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>19.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>20.147037037037038</v>
       </c>
       <c r="D53" s="4">
-        <f>$K$1+$M8+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>13.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>13.573518518518519</v>
       </c>
       <c r="E53" s="4">
-        <f>$K$1+$L8+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>10.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>11.147037037037036</v>
       </c>
       <c r="F53" s="4">
-        <f>$K$1+$L8-$J$50*$M$1+$G$50*$M$2</f>
-        <v>12.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>12.072962962962963</v>
       </c>
       <c r="G53" s="4">
-        <f>$K$1+$L8-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>18.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>18.072962962962961</v>
       </c>
       <c r="H53" s="4">
-        <f>$K$1+$M8-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>12.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>12.536481481481481</v>
       </c>
       <c r="I53" s="4">
-        <f>$K$1+$L8-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>9.6839814814814815</v>
+        <f t="shared" si="32"/>
+        <v>9.0729629629629631</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -8835,36 +8763,36 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <f>$K$1+$L9+$J$50*$M$1+$G$50*$M$2</f>
-        <v>15.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>16.147037037037038</v>
       </c>
       <c r="C54" s="4">
-        <f>$K$1+$L9+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>21.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>22.147037037037038</v>
       </c>
       <c r="D54" s="4">
-        <f>$K$1+$M9+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>14.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>14.573518518518519</v>
       </c>
       <c r="E54" s="4">
-        <f>$K$1+$L9+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>12.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>13.147037037037038</v>
       </c>
       <c r="F54" s="4">
-        <f>$K$1+$L9-$J$50*$M$1+$G$50*$M$2</f>
-        <v>14.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>14.072962962962963</v>
       </c>
       <c r="G54" s="4">
-        <f>$K$1+$L9-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>20.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>20.072962962962961</v>
       </c>
       <c r="H54" s="4">
-        <f>$K$1+$M9-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>13.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>13.536481481481481</v>
       </c>
       <c r="I54" s="4">
-        <f>$K$1+$L9-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>11.683981481481482</v>
+        <f t="shared" si="32"/>
+        <v>11.072962962962963</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -8872,36 +8800,36 @@
         <v>4</v>
       </c>
       <c r="B55" s="4">
-        <f>$K$1+$L10+$J$50*$M$1+$G$50*$M$2</f>
-        <v>17.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>18.147037037037038</v>
       </c>
       <c r="C55" s="4">
-        <f>$K$1+$L10+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>23.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>24.147037037037038</v>
       </c>
       <c r="D55" s="4">
-        <f>$K$1+$M10+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>15.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>15.573518518518519</v>
       </c>
       <c r="E55" s="4">
-        <f>$K$1+$L10+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>14.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>15.147037037037038</v>
       </c>
       <c r="F55" s="4">
-        <f>$K$1+$L10-$J$50*$M$1+$G$50*$M$2</f>
-        <v>16.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>16.072962962962965</v>
       </c>
       <c r="G55" s="4">
-        <f>$K$1+$L10-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>22.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>22.072962962962965</v>
       </c>
       <c r="H55" s="4">
-        <f>$K$1+$M10-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>14.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>14.536481481481481</v>
       </c>
       <c r="I55" s="4">
-        <f>$K$1+$L10-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>13.683981481481482</v>
+        <f t="shared" si="32"/>
+        <v>13.072962962962965</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -8910,35 +8838,35 @@
       </c>
       <c r="B56" s="4">
         <f>$K$1+$L11+$J$50*$M$1+$G$50*$M$2</f>
-        <v>19.72101851851852</v>
+        <v>20.147037037037038</v>
       </c>
       <c r="C56" s="4">
-        <f>$K$1+$L11+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>25.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>26.147037037037038</v>
       </c>
       <c r="D56" s="4">
-        <f>$K$1+$M11+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>16.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>16.573518518518519</v>
       </c>
       <c r="E56" s="4">
-        <f>$K$1+$L11+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>16.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>17.147037037037038</v>
       </c>
       <c r="F56" s="4">
-        <f>$K$1+$L11-$J$50*$M$1+$G$50*$M$2</f>
-        <v>18.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>18.072962962962961</v>
       </c>
       <c r="G56" s="4">
-        <f>$K$1+$L11-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>24.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>24.072962962962961</v>
       </c>
       <c r="H56" s="4">
-        <f>$K$1+$M11-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>15.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>15.536481481481481</v>
       </c>
       <c r="I56" s="4">
-        <f>$K$1+$L11-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>15.683981481481482</v>
+        <f t="shared" si="32"/>
+        <v>15.072962962962961</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -8946,36 +8874,36 @@
         <v>6</v>
       </c>
       <c r="B57" s="4">
-        <f>$K$1+$L12+$J$50*$M$1+$G$50*$M$2</f>
-        <v>17.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>18.147037037037038</v>
       </c>
       <c r="C57" s="4">
-        <f>$K$1+$L12+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>23.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>24.147037037037038</v>
       </c>
       <c r="D57" s="4">
-        <f>$K$1+$M12+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>15.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>15.573518518518519</v>
       </c>
       <c r="E57" s="4">
-        <f>$K$1+$L12+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>14.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>15.147037037037038</v>
       </c>
       <c r="F57" s="4">
-        <f>$K$1+$L12-$J$50*$M$1+$G$50*$M$2</f>
-        <v>16.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>16.072962962962965</v>
       </c>
       <c r="G57" s="4">
-        <f>$K$1+$L12-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>22.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>22.072962962962965</v>
       </c>
       <c r="H57" s="4">
-        <f>$K$1+$M12-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>14.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>14.536481481481481</v>
       </c>
       <c r="I57" s="4">
-        <f>$K$1+$L12-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>13.683981481481482</v>
+        <f t="shared" si="32"/>
+        <v>13.072962962962965</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -8983,36 +8911,36 @@
         <v>7</v>
       </c>
       <c r="B58" s="4">
-        <f>$K$1+$L13+$J$50*$M$1+$G$50*$M$2</f>
-        <v>15.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>16.147037037037038</v>
       </c>
       <c r="C58" s="4">
-        <f>$K$1+$L13+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>21.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>22.147037037037038</v>
       </c>
       <c r="D58" s="4">
-        <f>$K$1+$M13+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>14.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>14.573518518518519</v>
       </c>
       <c r="E58" s="4">
-        <f>$K$1+$L13+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>12.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>13.147037037037038</v>
       </c>
       <c r="F58" s="4">
-        <f>$K$1+$L13-$J$50*$M$1+$G$50*$M$2</f>
-        <v>14.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>14.072962962962963</v>
       </c>
       <c r="G58" s="4">
-        <f>$K$1+$L13-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>20.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>20.072962962962961</v>
       </c>
       <c r="H58" s="4">
-        <f>$K$1+$M13-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>13.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>13.536481481481481</v>
       </c>
       <c r="I58" s="4">
-        <f>$K$1+$L13-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>11.683981481481482</v>
+        <f t="shared" si="32"/>
+        <v>11.072962962962963</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -9020,36 +8948,36 @@
         <v>8</v>
       </c>
       <c r="B59" s="4">
-        <f>$K$1+$L14+$J$50*$M$1+$G$50*$M$2</f>
-        <v>13.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>14.147037037037036</v>
       </c>
       <c r="C59" s="4">
-        <f>$K$1+$L14+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>19.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>20.147037037037038</v>
       </c>
       <c r="D59" s="4">
-        <f>$K$1+$M14+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>13.36050925925926</v>
+        <f t="shared" si="27"/>
+        <v>13.573518518518519</v>
       </c>
       <c r="E59" s="4">
-        <f>$K$1+$L14+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>10.72101851851852</v>
+        <f t="shared" si="28"/>
+        <v>11.147037037037036</v>
       </c>
       <c r="F59" s="4">
-        <f>$K$1+$L14-$J$50*$M$1+$G$50*$M$2</f>
-        <v>12.683981481481482</v>
+        <f t="shared" si="29"/>
+        <v>12.072962962962963</v>
       </c>
       <c r="G59" s="4">
-        <f>$K$1+$L14-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>18.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>18.072962962962961</v>
       </c>
       <c r="H59" s="4">
-        <f>$K$1+$M14-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>12.841990740740741</v>
+        <f t="shared" si="31"/>
+        <v>12.536481481481481</v>
       </c>
       <c r="I59" s="4">
-        <f>$K$1+$L14-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>9.6839814814814815</v>
+        <f t="shared" si="32"/>
+        <v>9.0729629629629631</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -9057,36 +8985,36 @@
         <v>9</v>
       </c>
       <c r="B60" s="4">
-        <f>$K$1+$L15+$J$50*$M$1+$G$50*$M$2</f>
-        <v>10.72101851851852</v>
+        <f t="shared" si="25"/>
+        <v>11.147037037037036</v>
       </c>
       <c r="C60" s="4">
-        <f>$K$1+$L15+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>16.72101851851852</v>
+        <f t="shared" si="26"/>
+        <v>17.147037037037038</v>
       </c>
       <c r="D60" s="4">
-        <f>$K$1+$M15+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>11.86050925925926</v>
+        <f t="shared" si="27"/>
+        <v>12.073518518518519</v>
       </c>
       <c r="E60" s="4">
-        <f>$K$1+$L15+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>7.7210185185185196</v>
+        <f t="shared" si="28"/>
+        <v>8.1470370370370357</v>
       </c>
       <c r="F60" s="4">
-        <f>$K$1+$L15-$J$50*$M$1+$G$50*$M$2</f>
-        <v>9.6839814814814815</v>
+        <f t="shared" si="29"/>
+        <v>9.0729629629629631</v>
       </c>
       <c r="G60" s="4">
-        <f>$K$1+$L15-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>15.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>15.072962962962963</v>
       </c>
       <c r="H60" s="4">
-        <f>$K$1+$M15-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>11.341990740740741</v>
+        <f t="shared" si="31"/>
+        <v>11.036481481481481</v>
       </c>
       <c r="I60" s="4">
-        <f>$K$1+$L15-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>6.6839814814814815</v>
+        <f t="shared" si="32"/>
+        <v>6.0729629629629631</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -9094,36 +9022,36 @@
         <v>10</v>
       </c>
       <c r="B61" s="4">
-        <f>$K$1+$L16+$J$50*$M$1+$G$50*$M$2</f>
-        <v>6.7210185185185178</v>
+        <f t="shared" si="25"/>
+        <v>7.1470370370370357</v>
       </c>
       <c r="C61" s="4">
-        <f>$K$1+$L16+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>12.721018518518518</v>
+        <f t="shared" si="26"/>
+        <v>13.147037037037036</v>
       </c>
       <c r="D61" s="4">
-        <f>$K$1+$M16+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>9.8605092592592598</v>
+        <f t="shared" si="27"/>
+        <v>10.073518518518519</v>
       </c>
       <c r="E61" s="4">
-        <f>$K$1+$L16+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>3.7210185185185178</v>
+        <f t="shared" si="28"/>
+        <v>4.1470370370370357</v>
       </c>
       <c r="F61" s="4">
-        <f>$K$1+$L16-$J$50*$M$1+$G$50*$M$2</f>
-        <v>5.6839814814814815</v>
+        <f t="shared" si="29"/>
+        <v>5.0729629629629631</v>
       </c>
       <c r="G61" s="4">
-        <f>$K$1+$L16-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>11.683981481481482</v>
+        <f t="shared" si="30"/>
+        <v>11.072962962962963</v>
       </c>
       <c r="H61" s="4">
-        <f>$K$1+$M16-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>9.3419907407407408</v>
+        <f t="shared" si="31"/>
+        <v>9.0364814814814807</v>
       </c>
       <c r="I61" s="4">
-        <f>$K$1+$L16-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>2.6839814814814815</v>
+        <f t="shared" si="32"/>
+        <v>2.0729629629629631</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -9131,36 +9059,36 @@
         <v>11</v>
       </c>
       <c r="B62" s="4">
-        <f>$K$1+$L17+$J$50*$M$1+$G$50*$M$2</f>
-        <v>-1.2789814814814819</v>
+        <f t="shared" si="25"/>
+        <v>-0.85296296296296359</v>
       </c>
       <c r="C62" s="4">
-        <f>$K$1+$L17+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>4.7210185185185178</v>
+        <f t="shared" si="26"/>
+        <v>5.1470370370370366</v>
       </c>
       <c r="D62" s="4">
-        <f>$K$1+$M17+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>5.8605092592592589</v>
+        <f t="shared" si="27"/>
+        <v>6.0735185185185188</v>
       </c>
       <c r="E62" s="4">
-        <f>$K$1+$L17+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>-4.2789814814814822</v>
+        <f t="shared" si="28"/>
+        <v>-3.8529629629629634</v>
       </c>
       <c r="F62" s="4">
-        <f>$K$1+$L17-$J$50*$M$1+$G$50*$M$2</f>
-        <v>-2.3160185185185185</v>
+        <f t="shared" si="29"/>
+        <v>-2.9270370370370364</v>
       </c>
       <c r="G62" s="4">
-        <f>$K$1+$L17-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>3.6839814814814815</v>
+        <f t="shared" si="30"/>
+        <v>3.0729629629629636</v>
       </c>
       <c r="H62" s="4">
-        <f>$K$1+$M17-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>5.3419907407407408</v>
+        <f t="shared" si="31"/>
+        <v>5.0364814814814816</v>
       </c>
       <c r="I62" s="4">
-        <f>$K$1+$L17-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>-5.3160185185185185</v>
+        <f t="shared" si="32"/>
+        <v>-5.9270370370370369</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -9168,36 +9096,36 @@
         <v>12</v>
       </c>
       <c r="B63" s="4">
-        <f>$K$1+$L18+$J$50*$M$1+$G$50*$M$2</f>
-        <v>3.7210185185185178</v>
+        <f t="shared" si="25"/>
+        <v>4.1470370370370357</v>
       </c>
       <c r="C63" s="4">
-        <f>$K$1+$L18+$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>9.7210185185185178</v>
+        <f t="shared" si="26"/>
+        <v>10.147037037037036</v>
       </c>
       <c r="D63" s="4">
-        <f>$K$1+$M18+0.5*($J$50*$M$1+$G$50*$M$2)</f>
-        <v>8.3605092592592598</v>
+        <f t="shared" si="27"/>
+        <v>8.5735185185185188</v>
       </c>
       <c r="E63" s="4">
-        <f>$K$1+$L18+$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>0.72101851851851784</v>
+        <f t="shared" si="28"/>
+        <v>1.1470370370370357</v>
       </c>
       <c r="F63" s="4">
-        <f>$K$1+$L18-$J$50*$M$1+$G$50*$M$2</f>
-        <v>2.6839814814814815</v>
+        <f t="shared" si="29"/>
+        <v>2.0729629629629631</v>
       </c>
       <c r="G63" s="4">
-        <f>$K$1+$L18-$J$50*$M$1+$G$50*$M$2+$M$4</f>
-        <v>8.6839814814814815</v>
+        <f t="shared" si="30"/>
+        <v>8.0729629629629631</v>
       </c>
       <c r="H63" s="4">
-        <f>$K$1+$M18-$J$50*$M$1*0.5+$G$50*$M$2*0.5</f>
-        <v>7.8419907407407408</v>
+        <f t="shared" si="31"/>
+        <v>7.5364814814814816</v>
       </c>
       <c r="I63" s="4">
-        <f>$K$1+$L18-$J$50*$M$1+$G$50*$M$2-$K$4</f>
-        <v>-0.31601851851851848</v>
+        <f t="shared" si="32"/>
+        <v>-0.92703703703703688</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -9233,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -9267,36 +9195,36 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <f>$K$1+$L7+$J$65*$M$1+$G$65*$M$2</f>
-        <v>15.5</v>
+        <f t="shared" ref="B67:B78" si="33">$K$1+$L7+$J$65*$M$1+$G$65*$M$2</f>
+        <v>17</v>
       </c>
       <c r="C67">
-        <f>$K$1+$L7+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>21.5</v>
+        <f t="shared" ref="C67:C78" si="34">$K$1+$L7+$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <v>23</v>
       </c>
       <c r="D67" s="2">
-        <f>$K$1+$M7+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>14.25</v>
+        <f t="shared" ref="D67:D78" si="35">$K$1+$M7+0.5*($J$65*$M$1+$G$65*$M$2)</f>
+        <v>15</v>
       </c>
       <c r="E67">
-        <f>$K$1+$L7+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>12.5</v>
+        <f t="shared" ref="E67:E78" si="36">$K$1+$L7+$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <v>14</v>
       </c>
       <c r="F67">
-        <f>$K$1+$L7-$J$65*$M$1+$G$65*$M$2</f>
-        <v>11.5</v>
+        <f t="shared" ref="F67:F78" si="37">$K$1+$L7-$J$65*$M$1+$G$65*$M$2</f>
+        <v>9</v>
       </c>
       <c r="G67">
-        <f>$K$1+$L7-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>17.5</v>
+        <f t="shared" ref="G67:G78" si="38">$K$1+$L7-$J$65*$M$1+$G$65*$M$2+$M$4</f>
+        <v>15</v>
       </c>
       <c r="H67" s="2">
-        <f>$K$1+$M7-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>12.25</v>
+        <f t="shared" ref="H67:H78" si="39">$K$1+$M7-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
+        <v>11</v>
       </c>
       <c r="I67">
-        <f>$K$1+$L7-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>8.5</v>
+        <f t="shared" ref="I67:I78" si="40">$K$1+$L7-$J$65*$M$1+$G$65*$M$2-$K$4</f>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -9304,36 +9232,36 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <f>$K$1+$L8+$J$65*$M$1+$G$65*$M$2</f>
-        <v>20.5</v>
+        <f t="shared" si="33"/>
+        <v>22</v>
       </c>
       <c r="C68">
-        <f>$K$1+$L8+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>26.5</v>
+        <f t="shared" si="34"/>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
-        <f>$K$1+$M8+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>16.75</v>
+        <f t="shared" si="35"/>
+        <v>17.5</v>
       </c>
       <c r="E68">
-        <f>$K$1+$L8+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>17.5</v>
+        <f t="shared" si="36"/>
+        <v>19</v>
       </c>
       <c r="F68">
-        <f>$K$1+$L8-$J$65*$M$1+$G$65*$M$2</f>
-        <v>16.5</v>
+        <f t="shared" si="37"/>
+        <v>14</v>
       </c>
       <c r="G68">
-        <f>$K$1+$L8-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>22.5</v>
+        <f t="shared" si="38"/>
+        <v>20</v>
       </c>
       <c r="H68" s="2">
-        <f>$K$1+$M8-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>14.75</v>
+        <f t="shared" si="39"/>
+        <v>13.5</v>
       </c>
       <c r="I68">
-        <f>$K$1+$L8-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>13.5</v>
+        <f t="shared" si="40"/>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -9341,36 +9269,36 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <f>$K$1+$L9+$J$65*$M$1+$G$65*$M$2</f>
-        <v>22.5</v>
+        <f t="shared" si="33"/>
+        <v>24</v>
       </c>
       <c r="C69">
-        <f>$K$1+$L9+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>28.5</v>
+        <f t="shared" si="34"/>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
-        <f>$K$1+$M9+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>17.75</v>
+        <f t="shared" si="35"/>
+        <v>18.5</v>
       </c>
       <c r="E69">
-        <f>$K$1+$L9+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>19.5</v>
+        <f t="shared" si="36"/>
+        <v>21</v>
       </c>
       <c r="F69">
-        <f>$K$1+$L9-$J$65*$M$1+$G$65*$M$2</f>
-        <v>18.5</v>
+        <f t="shared" si="37"/>
+        <v>16</v>
       </c>
       <c r="G69">
-        <f>$K$1+$L9-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>24.5</v>
+        <f t="shared" si="38"/>
+        <v>22</v>
       </c>
       <c r="H69" s="2">
-        <f>$K$1+$M9-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>15.75</v>
+        <f t="shared" si="39"/>
+        <v>14.5</v>
       </c>
       <c r="I69">
-        <f>$K$1+$L9-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>15.5</v>
+        <f t="shared" si="40"/>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -9378,36 +9306,36 @@
         <v>4</v>
       </c>
       <c r="B70">
-        <f>$K$1+$L10+$J$65*$M$1+$G$65*$M$2</f>
-        <v>24.5</v>
+        <f t="shared" si="33"/>
+        <v>26</v>
       </c>
       <c r="C70">
-        <f>$K$1+$L10+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>30.5</v>
+        <f t="shared" si="34"/>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
-        <f>$K$1+$M10+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>18.75</v>
+        <f t="shared" si="35"/>
+        <v>19.5</v>
       </c>
       <c r="E70">
-        <f>$K$1+$L10+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>21.5</v>
+        <f t="shared" si="36"/>
+        <v>23</v>
       </c>
       <c r="F70">
-        <f>$K$1+$L10-$J$65*$M$1+$G$65*$M$2</f>
-        <v>20.5</v>
+        <f t="shared" si="37"/>
+        <v>18</v>
       </c>
       <c r="G70">
-        <f>$K$1+$L10-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>26.5</v>
+        <f t="shared" si="38"/>
+        <v>24</v>
       </c>
       <c r="H70" s="2">
-        <f>$K$1+$M10-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>16.75</v>
+        <f t="shared" si="39"/>
+        <v>15.5</v>
       </c>
       <c r="I70">
-        <f>$K$1+$L10-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>17.5</v>
+        <f t="shared" si="40"/>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -9415,36 +9343,36 @@
         <v>5</v>
       </c>
       <c r="B71">
-        <f>$K$1+$L11+$J$65*$M$1+$G$65*$M$2</f>
-        <v>26.5</v>
+        <f t="shared" si="33"/>
+        <v>28</v>
       </c>
       <c r="C71">
-        <f>$K$1+$L11+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>32.5</v>
+        <f t="shared" si="34"/>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
-        <f>$K$1+$M11+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>19.75</v>
+        <f t="shared" si="35"/>
+        <v>20.5</v>
       </c>
       <c r="E71">
-        <f>$K$1+$L11+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>23.5</v>
+        <f t="shared" si="36"/>
+        <v>25</v>
       </c>
       <c r="F71">
-        <f>$K$1+$L11-$J$65*$M$1+$G$65*$M$2</f>
-        <v>22.5</v>
+        <f t="shared" si="37"/>
+        <v>20</v>
       </c>
       <c r="G71">
-        <f>$K$1+$L11-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>28.5</v>
+        <f t="shared" si="38"/>
+        <v>26</v>
       </c>
       <c r="H71" s="2">
-        <f>$K$1+$M11-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>17.75</v>
+        <f t="shared" si="39"/>
+        <v>16.5</v>
       </c>
       <c r="I71">
-        <f>$K$1+$L11-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>19.5</v>
+        <f t="shared" si="40"/>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -9452,36 +9380,36 @@
         <v>6</v>
       </c>
       <c r="B72">
-        <f>$K$1+$L12+$J$65*$M$1+$G$65*$M$2</f>
-        <v>24.5</v>
+        <f t="shared" si="33"/>
+        <v>26</v>
       </c>
       <c r="C72">
-        <f>$K$1+$L12+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>30.5</v>
+        <f t="shared" si="34"/>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
-        <f>$K$1+$M12+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>18.75</v>
+        <f t="shared" si="35"/>
+        <v>19.5</v>
       </c>
       <c r="E72">
-        <f>$K$1+$L12+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>21.5</v>
+        <f t="shared" si="36"/>
+        <v>23</v>
       </c>
       <c r="F72">
-        <f>$K$1+$L12-$J$65*$M$1+$G$65*$M$2</f>
-        <v>20.5</v>
+        <f t="shared" si="37"/>
+        <v>18</v>
       </c>
       <c r="G72">
-        <f>$K$1+$L12-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>26.5</v>
+        <f t="shared" si="38"/>
+        <v>24</v>
       </c>
       <c r="H72" s="2">
-        <f>$K$1+$M12-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>16.75</v>
+        <f t="shared" si="39"/>
+        <v>15.5</v>
       </c>
       <c r="I72">
-        <f>$K$1+$L12-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>17.5</v>
+        <f t="shared" si="40"/>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -9489,36 +9417,36 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <f>$K$1+$L13+$J$65*$M$1+$G$65*$M$2</f>
-        <v>22.5</v>
+        <f t="shared" si="33"/>
+        <v>24</v>
       </c>
       <c r="C73">
-        <f>$K$1+$L13+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>28.5</v>
+        <f t="shared" si="34"/>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
-        <f>$K$1+$M13+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>17.75</v>
+        <f t="shared" si="35"/>
+        <v>18.5</v>
       </c>
       <c r="E73">
-        <f>$K$1+$L13+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>19.5</v>
+        <f t="shared" si="36"/>
+        <v>21</v>
       </c>
       <c r="F73">
-        <f>$K$1+$L13-$J$65*$M$1+$G$65*$M$2</f>
-        <v>18.5</v>
+        <f t="shared" si="37"/>
+        <v>16</v>
       </c>
       <c r="G73">
-        <f>$K$1+$L13-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>24.5</v>
+        <f t="shared" si="38"/>
+        <v>22</v>
       </c>
       <c r="H73" s="2">
-        <f>$K$1+$M13-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>15.75</v>
+        <f t="shared" si="39"/>
+        <v>14.5</v>
       </c>
       <c r="I73">
-        <f>$K$1+$L13-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>15.5</v>
+        <f t="shared" si="40"/>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -9526,36 +9454,36 @@
         <v>8</v>
       </c>
       <c r="B74">
-        <f>$K$1+$L14+$J$65*$M$1+$G$65*$M$2</f>
-        <v>20.5</v>
+        <f t="shared" si="33"/>
+        <v>22</v>
       </c>
       <c r="C74">
-        <f>$K$1+$L14+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>26.5</v>
+        <f t="shared" si="34"/>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
-        <f>$K$1+$M14+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>16.75</v>
+        <f t="shared" si="35"/>
+        <v>17.5</v>
       </c>
       <c r="E74">
-        <f>$K$1+$L14+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>17.5</v>
+        <f t="shared" si="36"/>
+        <v>19</v>
       </c>
       <c r="F74">
-        <f>$K$1+$L14-$J$65*$M$1+$G$65*$M$2</f>
-        <v>16.5</v>
+        <f t="shared" si="37"/>
+        <v>14</v>
       </c>
       <c r="G74">
-        <f>$K$1+$L14-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>22.5</v>
+        <f t="shared" si="38"/>
+        <v>20</v>
       </c>
       <c r="H74" s="2">
-        <f>$K$1+$M14-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>14.75</v>
+        <f t="shared" si="39"/>
+        <v>13.5</v>
       </c>
       <c r="I74">
-        <f>$K$1+$L14-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>13.5</v>
+        <f t="shared" si="40"/>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -9563,36 +9491,36 @@
         <v>9</v>
       </c>
       <c r="B75">
-        <f>$K$1+$L15+$J$65*$M$1+$G$65*$M$2</f>
-        <v>17.5</v>
+        <f t="shared" si="33"/>
+        <v>19</v>
       </c>
       <c r="C75">
-        <f>$K$1+$L15+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>23.5</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="D75" s="2">
-        <f>$K$1+$M15+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>15.25</v>
+        <f t="shared" si="35"/>
+        <v>16</v>
       </c>
       <c r="E75">
-        <f>$K$1+$L15+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>14.5</v>
+        <f t="shared" si="36"/>
+        <v>16</v>
       </c>
       <c r="F75">
-        <f>$K$1+$L15-$J$65*$M$1+$G$65*$M$2</f>
-        <v>13.5</v>
+        <f t="shared" si="37"/>
+        <v>11</v>
       </c>
       <c r="G75">
-        <f>$K$1+$L15-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>19.5</v>
+        <f t="shared" si="38"/>
+        <v>17</v>
       </c>
       <c r="H75" s="2">
-        <f>$K$1+$M15-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>13.25</v>
+        <f t="shared" si="39"/>
+        <v>12</v>
       </c>
       <c r="I75">
-        <f>$K$1+$L15-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>10.5</v>
+        <f t="shared" si="40"/>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -9600,36 +9528,36 @@
         <v>10</v>
       </c>
       <c r="B76">
-        <f>$K$1+$L16+$J$65*$M$1+$G$65*$M$2</f>
-        <v>13.5</v>
+        <f t="shared" si="33"/>
+        <v>15</v>
       </c>
       <c r="C76">
-        <f>$K$1+$L16+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>19.5</v>
+        <f t="shared" si="34"/>
+        <v>21</v>
       </c>
       <c r="D76" s="2">
-        <f>$K$1+$M16+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>13.25</v>
+        <f t="shared" si="35"/>
+        <v>14</v>
       </c>
       <c r="E76">
-        <f>$K$1+$L16+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>10.5</v>
+        <f t="shared" si="36"/>
+        <v>12</v>
       </c>
       <c r="F76">
-        <f>$K$1+$L16-$J$65*$M$1+$G$65*$M$2</f>
-        <v>9.5</v>
+        <f t="shared" si="37"/>
+        <v>7</v>
       </c>
       <c r="G76">
-        <f>$K$1+$L16-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>15.5</v>
+        <f t="shared" si="38"/>
+        <v>13</v>
       </c>
       <c r="H76" s="2">
-        <f>$K$1+$M16-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>11.25</v>
+        <f t="shared" si="39"/>
+        <v>10</v>
       </c>
       <c r="I76">
-        <f>$K$1+$L16-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>6.5</v>
+        <f t="shared" si="40"/>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -9637,36 +9565,36 @@
         <v>11</v>
       </c>
       <c r="B77">
-        <f>$K$1+$L17+$J$65*$M$1+$G$65*$M$2</f>
-        <v>5.5</v>
+        <f t="shared" si="33"/>
+        <v>7</v>
       </c>
       <c r="C77">
-        <f>$K$1+$L17+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>11.5</v>
+        <f t="shared" si="34"/>
+        <v>13</v>
       </c>
       <c r="D77" s="2">
-        <f>$K$1+$M17+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>9.25</v>
+        <f t="shared" si="35"/>
+        <v>10</v>
       </c>
       <c r="E77">
-        <f>$K$1+$L17+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>2.5</v>
+        <f t="shared" si="36"/>
+        <v>4</v>
       </c>
       <c r="F77">
-        <f>$K$1+$L17-$J$65*$M$1+$G$65*$M$2</f>
-        <v>1.5</v>
+        <f t="shared" si="37"/>
+        <v>-1</v>
       </c>
       <c r="G77">
-        <f>$K$1+$L17-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>7.5</v>
+        <f t="shared" si="38"/>
+        <v>5</v>
       </c>
       <c r="H77" s="2">
-        <f>$K$1+$M17-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>7.25</v>
+        <f t="shared" si="39"/>
+        <v>6</v>
       </c>
       <c r="I77">
-        <f>$K$1+$L17-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>-1.5</v>
+        <f t="shared" si="40"/>
+        <v>-4</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -9674,36 +9602,36 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <f>$K$1+$L18+$J$65*$M$1+$G$65*$M$2</f>
-        <v>10.5</v>
+        <f t="shared" si="33"/>
+        <v>12</v>
       </c>
       <c r="C78">
-        <f>$K$1+$L18+$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>16.5</v>
+        <f t="shared" si="34"/>
+        <v>18</v>
       </c>
       <c r="D78" s="2">
-        <f>$K$1+$M18+0.5*($J$65*$M$1+$G$65*$M$2)</f>
-        <v>11.75</v>
+        <f t="shared" si="35"/>
+        <v>12.5</v>
       </c>
       <c r="E78">
-        <f>$K$1+$L18+$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>7.5</v>
+        <f t="shared" si="36"/>
+        <v>9</v>
       </c>
       <c r="F78">
-        <f>$K$1+$L18-$J$65*$M$1+$G$65*$M$2</f>
-        <v>6.5</v>
+        <f t="shared" si="37"/>
+        <v>4</v>
       </c>
       <c r="G78">
-        <f>$K$1+$L18-$J$65*$M$1+$G$65*$M$2+$M$4</f>
-        <v>12.5</v>
+        <f t="shared" si="38"/>
+        <v>10</v>
       </c>
       <c r="H78" s="2">
-        <f>$K$1+$M18-$J$65*$M$1*0.5+$G$65*$M$2*0.5</f>
-        <v>9.75</v>
+        <f t="shared" si="39"/>
+        <v>8.5</v>
       </c>
       <c r="I78">
-        <f>$K$1+$L18-$J$65*$M$1+$G$65*$M$2-$K$4</f>
-        <v>3.5</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9729,7 +9657,7 @@
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:I48">
+  <conditionalFormatting sqref="B37:I48 D49">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="greaterThan">
       <formula>22</formula>
     </cfRule>
